--- a/Code/Results/Cases/Case_4_22/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_22/res_line/loading_percent.xlsx
@@ -412,37 +412,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.03601354161614</v>
+        <v>18.03601354161617</v>
       </c>
       <c r="C2">
-        <v>10.37497412018278</v>
+        <v>10.37497412018265</v>
       </c>
       <c r="D2">
-        <v>7.611910277313383</v>
+        <v>7.611910277313314</v>
       </c>
       <c r="E2">
-        <v>8.097570125417382</v>
+        <v>8.097570125417366</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>64.18369673516121</v>
+        <v>64.1836967351614</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>5.178342706639563</v>
+        <v>5.178342706639554</v>
       </c>
       <c r="J2">
-        <v>15.21095656379197</v>
+        <v>15.21095656379201</v>
       </c>
       <c r="K2">
-        <v>8.66235118240199</v>
+        <v>8.662351182401991</v>
       </c>
       <c r="L2">
-        <v>13.3016986501178</v>
+        <v>13.30169865011785</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,37 +450,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.64338749477548</v>
+        <v>16.64338749477544</v>
       </c>
       <c r="C3">
-        <v>9.545536614988169</v>
+        <v>9.545536614988279</v>
       </c>
       <c r="D3">
-        <v>7.188576129768</v>
+        <v>7.188576129768004</v>
       </c>
       <c r="E3">
-        <v>7.835851317820373</v>
+        <v>7.835851317820391</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>60.34061797517693</v>
+        <v>60.34061797517629</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>5.149386127764624</v>
+        <v>5.149386127764613</v>
       </c>
       <c r="J3">
-        <v>14.02763869655897</v>
+        <v>14.027638696559</v>
       </c>
       <c r="K3">
-        <v>8.300840561977347</v>
+        <v>8.300840561977381</v>
       </c>
       <c r="L3">
-        <v>12.42370399651276</v>
+        <v>12.4237039965128</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,37 +488,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.75859123990015</v>
+        <v>15.75859123990017</v>
       </c>
       <c r="C4">
-        <v>9.02012235990235</v>
+        <v>9.020122359902155</v>
       </c>
       <c r="D4">
-        <v>6.92522170827411</v>
+        <v>6.925221708274091</v>
       </c>
       <c r="E4">
-        <v>7.676515336090459</v>
+        <v>7.676515336090422</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>57.9161678911725</v>
+        <v>57.91616789117253</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>5.132311928991678</v>
+        <v>5.132311928991673</v>
       </c>
       <c r="J4">
         <v>13.27397260306759</v>
       </c>
       <c r="K4">
-        <v>8.081881871090669</v>
+        <v>8.08188187109063</v>
       </c>
       <c r="L4">
-        <v>12.05424648341921</v>
+        <v>12.05424648341919</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,37 +526,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.39026684186395</v>
+        <v>15.39026684186377</v>
       </c>
       <c r="C5">
-        <v>8.801647279640623</v>
+        <v>8.801647279640983</v>
       </c>
       <c r="D5">
-        <v>6.817081163042353</v>
+        <v>6.817081163042308</v>
       </c>
       <c r="E5">
-        <v>7.611921019034527</v>
+        <v>7.611921019034488</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>56.91173100992829</v>
+        <v>56.91173100992732</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>5.125508071548666</v>
+        <v>5.125508071548624</v>
       </c>
       <c r="J5">
-        <v>12.95968800991705</v>
+        <v>12.95968800991697</v>
       </c>
       <c r="K5">
-        <v>7.993435684358285</v>
+        <v>7.993435684358269</v>
       </c>
       <c r="L5">
-        <v>11.90520551422467</v>
+        <v>11.90520551422475</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,37 +564,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.32863088585013</v>
+        <v>15.32863088585017</v>
       </c>
       <c r="C6">
-        <v>8.765097730314832</v>
+        <v>8.76509773031507</v>
       </c>
       <c r="D6">
-        <v>6.799076695741582</v>
+        <v>6.799076695741596</v>
       </c>
       <c r="E6">
-        <v>7.601215543310272</v>
+        <v>7.601215543310374</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>56.74395116016936</v>
+        <v>56.74395116016966</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>5.124386969853965</v>
+        <v>5.124386969854012</v>
       </c>
       <c r="J6">
-        <v>12.90705959919909</v>
+        <v>12.90705959919919</v>
       </c>
       <c r="K6">
-        <v>7.97879755689066</v>
+        <v>7.978797556890638</v>
       </c>
       <c r="L6">
-        <v>11.88055133752632</v>
+        <v>11.88055133752629</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,37 +602,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.75365565132047</v>
+        <v>15.75365565132032</v>
       </c>
       <c r="C7">
-        <v>9.01719398105279</v>
+        <v>9.017193981052801</v>
       </c>
       <c r="D7">
-        <v>6.923766536362209</v>
+        <v>6.923766536362241</v>
       </c>
       <c r="E7">
-        <v>7.675642831910161</v>
+        <v>7.675642831910152</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>57.90268836459276</v>
+        <v>57.90268836459269</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>5.132219574949968</v>
+        <v>5.132219574949874</v>
       </c>
       <c r="J7">
-        <v>13.26976346470729</v>
+        <v>13.26976346470719</v>
       </c>
       <c r="K7">
-        <v>8.080685844139083</v>
+        <v>8.080685844139104</v>
       </c>
       <c r="L7">
-        <v>12.05223022349868</v>
+        <v>12.05223022349872</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,37 +640,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.5618071020358</v>
+        <v>17.56180710203571</v>
       </c>
       <c r="C8">
         <v>10.09213684713594</v>
       </c>
       <c r="D8">
-        <v>7.466668992919311</v>
+        <v>7.46666899291933</v>
       </c>
       <c r="E8">
-        <v>8.007039818791872</v>
+        <v>8.007039818791855</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>62.87187372030472</v>
+        <v>62.87187372030476</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>5.1681971111642</v>
+        <v>5.168197111164144</v>
       </c>
       <c r="J8">
-        <v>14.80835320703267</v>
+        <v>14.80835320703256</v>
       </c>
       <c r="K8">
-        <v>8.537084900330383</v>
+        <v>8.537084900330406</v>
       </c>
       <c r="L8">
-        <v>12.96309399792451</v>
+        <v>12.96309399792445</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,37 +678,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.88893394796285</v>
+        <v>20.8889339479629</v>
       </c>
       <c r="C9">
-        <v>12.08813157427914</v>
+        <v>12.08813157427927</v>
       </c>
       <c r="D9">
         <v>8.504275139903369</v>
       </c>
       <c r="E9">
-        <v>8.668751430703276</v>
+        <v>8.668751430703271</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>72.12365660039518</v>
+        <v>72.12365660039576</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>5.245581302704958</v>
+        <v>5.245581302704855</v>
       </c>
       <c r="J9">
-        <v>17.62859632017291</v>
+        <v>17.62859632017298</v>
       </c>
       <c r="K9">
         <v>9.456341571051627</v>
       </c>
       <c r="L9">
-        <v>15.3245891501002</v>
+        <v>15.32458915010029</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,37 +716,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>23.23094946240962</v>
+        <v>23.2309494624098</v>
       </c>
       <c r="C10">
-        <v>13.51317567701726</v>
+        <v>13.51317567701741</v>
       </c>
       <c r="D10">
-        <v>9.253458456745713</v>
+        <v>9.253458456745753</v>
       </c>
       <c r="E10">
-        <v>9.165125651669992</v>
+        <v>9.165125651670023</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>78.67229323894426</v>
+        <v>78.67229323894475</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>5.308693608691833</v>
+        <v>5.308693608691962</v>
       </c>
       <c r="J10">
-        <v>19.61094067999513</v>
+        <v>19.61094067999533</v>
       </c>
       <c r="K10">
-        <v>10.14979052034098</v>
+        <v>10.149790520341</v>
       </c>
       <c r="L10">
-        <v>16.96947148967207</v>
+        <v>16.96947148967219</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,37 +754,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>24.28346184967115</v>
+        <v>24.28346184967122</v>
       </c>
       <c r="C11">
-        <v>14.16016122431534</v>
+        <v>14.16016122431516</v>
       </c>
       <c r="D11">
-        <v>9.593148985304257</v>
+        <v>9.5931489853042</v>
       </c>
       <c r="E11">
-        <v>9.394376372609171</v>
+        <v>9.394376372609157</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>81.61611684500801</v>
+        <v>81.61611684500751</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>5.339372626690341</v>
+        <v>5.3393726266903</v>
       </c>
       <c r="J11">
-        <v>20.50197340298444</v>
+        <v>20.50197340298453</v>
       </c>
       <c r="K11">
-        <v>10.56968527175439</v>
+        <v>10.56968527175435</v>
       </c>
       <c r="L11">
-        <v>17.70458594578778</v>
+        <v>17.70458594578782</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,37 +792,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>24.68118274997527</v>
+        <v>24.6811827499753</v>
       </c>
       <c r="C12">
-        <v>14.40579727869631</v>
+        <v>14.40579727869658</v>
       </c>
       <c r="D12">
-        <v>9.72184482522696</v>
+        <v>9.721844825226905</v>
       </c>
       <c r="E12">
-        <v>9.48183650922309</v>
+        <v>9.481836509223108</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>82.72798975150629</v>
+        <v>82.7279897515068</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>5.351338982065233</v>
+        <v>5.351338982065239</v>
       </c>
       <c r="J12">
-        <v>20.83876567997488</v>
+        <v>20.83876567997492</v>
       </c>
       <c r="K12">
-        <v>10.73324286666633</v>
+        <v>10.73324286666638</v>
       </c>
       <c r="L12">
-        <v>17.98173841024071</v>
+        <v>17.98173841024077</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,37 +830,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>24.59554518266223</v>
+        <v>24.59554518266217</v>
       </c>
       <c r="C13">
-        <v>14.35285171147297</v>
+        <v>14.35285171147315</v>
       </c>
       <c r="D13">
-        <v>9.694120711561698</v>
+        <v>9.69412071156175</v>
       </c>
       <c r="E13">
-        <v>9.462968604821512</v>
+        <v>9.462968604821571</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>82.48861528547584</v>
+        <v>82.4886152854761</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>5.348745077147024</v>
+        <v>5.348745077147061</v>
       </c>
       <c r="J13">
-        <v>20.7662421201172</v>
+        <v>20.76624212011721</v>
       </c>
       <c r="K13">
-        <v>10.69805358405214</v>
+        <v>10.69805358405213</v>
       </c>
       <c r="L13">
-        <v>17.92209056958143</v>
+        <v>17.92209056958142</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,37 +868,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>24.3161928174924</v>
+        <v>24.31619281749249</v>
       </c>
       <c r="C14">
-        <v>14.18035171054664</v>
+        <v>14.18035171054651</v>
       </c>
       <c r="D14">
-        <v>9.603734065560188</v>
+        <v>9.603734065560211</v>
       </c>
       <c r="E14">
-        <v>9.401557729572271</v>
+        <v>9.401557729572287</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>81.70763456638332</v>
+        <v>81.70763456638359</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>5.340349680425128</v>
+        <v>5.340349680425181</v>
       </c>
       <c r="J14">
-        <v>20.52968793598893</v>
+        <v>20.52968793598896</v>
       </c>
       <c r="K14">
         <v>10.5831580034918</v>
       </c>
       <c r="L14">
-        <v>17.72740749843123</v>
+        <v>17.72740749843124</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,37 +906,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>24.14500579506413</v>
+        <v>24.14500579506419</v>
       </c>
       <c r="C15">
-        <v>14.07480096012681</v>
+        <v>14.07480096012679</v>
       </c>
       <c r="D15">
-        <v>9.548385689900195</v>
+        <v>9.548385689900179</v>
       </c>
       <c r="E15">
-        <v>9.364031560462362</v>
+        <v>9.364031560462399</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>81.22895992861574</v>
+        <v>81.22895992861594</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>5.335254912105023</v>
+        <v>5.335254912105103</v>
       </c>
       <c r="J15">
-        <v>20.38474158606467</v>
+        <v>20.38474158606478</v>
       </c>
       <c r="K15">
-        <v>10.51266906117517</v>
+        <v>10.51266906117519</v>
       </c>
       <c r="L15">
-        <v>17.60802217637185</v>
+        <v>17.60802217637191</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,37 +944,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>23.16198707684547</v>
+        <v>23.16198707684549</v>
       </c>
       <c r="C16">
-        <v>13.47093395525727</v>
+        <v>13.47093395525751</v>
       </c>
       <c r="D16">
-        <v>9.231253779739115</v>
+        <v>9.231253779739117</v>
       </c>
       <c r="E16">
-        <v>9.150224822591966</v>
+        <v>9.150224822591992</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>78.47937149165656</v>
+        <v>78.47937149165666</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>5.306733558289451</v>
+        <v>5.306733558289505</v>
       </c>
       <c r="J16">
-        <v>19.5525676350183</v>
+        <v>19.55256763501839</v>
       </c>
       <c r="K16">
-        <v>10.12893750801346</v>
+        <v>10.12893750801349</v>
       </c>
       <c r="L16">
-        <v>16.92121954794801</v>
+        <v>16.92121954794806</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,37 +982,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>22.55628449795873</v>
+        <v>22.55628449795871</v>
       </c>
       <c r="C17">
-        <v>13.10068261535897</v>
+        <v>13.10068261535892</v>
       </c>
       <c r="D17">
-        <v>9.036553387193724</v>
+        <v>9.036553387193774</v>
       </c>
       <c r="E17">
-        <v>9.020037318233008</v>
+        <v>9.020037318232985</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>76.78493904673009</v>
+        <v>76.78493904672958</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>5.289783084221797</v>
+        <v>5.289783084221849</v>
       </c>
       <c r="J17">
-        <v>19.03989839229483</v>
+        <v>19.03989839229482</v>
       </c>
       <c r="K17">
-        <v>9.946836960973974</v>
+        <v>9.946836960973968</v>
       </c>
       <c r="L17">
-        <v>16.49695419773551</v>
+        <v>16.49695419773553</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,37 +1020,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>22.20661527863944</v>
+        <v>22.20661527863922</v>
       </c>
       <c r="C18">
-        <v>12.88754550827839</v>
+        <v>12.88754550827842</v>
       </c>
       <c r="D18">
-        <v>8.924444390988125</v>
+        <v>8.924444390988139</v>
       </c>
       <c r="E18">
-        <v>8.945469694493456</v>
+        <v>8.945469694493461</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>75.8068732372101</v>
+        <v>75.80687323720944</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>5.280214233971753</v>
+        <v>5.280214233971614</v>
       </c>
       <c r="J18">
-        <v>18.74394753935115</v>
+        <v>18.74394753935096</v>
       </c>
       <c r="K18">
-        <v>9.842610076223764</v>
+        <v>9.842610076223766</v>
       </c>
       <c r="L18">
-        <v>16.25164260226841</v>
+        <v>16.25164260226828</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,37 +1058,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>22.08797552356259</v>
+        <v>22.08797552356252</v>
       </c>
       <c r="C19">
-        <v>12.81532822974872</v>
+        <v>12.81532822974858</v>
       </c>
       <c r="D19">
-        <v>8.886459569937958</v>
+        <v>8.886459569937905</v>
       </c>
       <c r="E19">
-        <v>8.920272258271709</v>
+        <v>8.920272258271678</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>75.47506377858252</v>
+        <v>75.47506377858237</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>5.277003643545599</v>
+        <v>5.277003643545521</v>
       </c>
       <c r="J19">
-        <v>18.6435337842846</v>
+        <v>18.64353378428457</v>
       </c>
       <c r="K19">
-        <v>9.807403077593884</v>
+        <v>9.807403077593868</v>
       </c>
       <c r="L19">
-        <v>16.16834536497052</v>
+        <v>16.16834536497046</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,37 +1096,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>22.62088900589468</v>
+        <v>22.62088900589465</v>
       </c>
       <c r="C20">
-        <v>13.14010959970803</v>
+        <v>13.14010959970762</v>
       </c>
       <c r="D20">
-        <v>9.057290873789494</v>
+        <v>9.057290873789501</v>
       </c>
       <c r="E20">
-        <v>9.033862684836059</v>
+        <v>9.033862684836032</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>76.9656598870445</v>
+        <v>76.96565988704417</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>5.291568370202712</v>
+        <v>5.291568370202605</v>
       </c>
       <c r="J20">
-        <v>19.0945783414898</v>
+        <v>19.09457834148964</v>
       </c>
       <c r="K20">
-        <v>9.966167449821329</v>
+        <v>9.966167449821318</v>
       </c>
       <c r="L20">
-        <v>16.54224659378092</v>
+        <v>16.54224659378085</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,37 +1134,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>24.39825898162803</v>
+        <v>24.3982589816279</v>
       </c>
       <c r="C21">
-        <v>14.23099437563175</v>
+        <v>14.2309943756318</v>
       </c>
       <c r="D21">
-        <v>9.630278958838264</v>
+        <v>9.630278958838291</v>
       </c>
       <c r="E21">
-        <v>9.419576538233088</v>
+        <v>9.419576538233123</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>81.93708557651314</v>
+        <v>81.93708557651279</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>5.342805540186752</v>
+        <v>5.342805540186821</v>
       </c>
       <c r="J21">
-        <v>20.59917811378519</v>
+        <v>20.59917811378516</v>
       </c>
       <c r="K21">
-        <v>10.61692821425569</v>
+        <v>10.61692821425568</v>
       </c>
       <c r="L21">
-        <v>17.78461762557226</v>
+        <v>17.78461762557223</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,37 +1172,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>25.55562148689915</v>
+        <v>25.5556214868989</v>
       </c>
       <c r="C22">
-        <v>14.94819270083262</v>
+        <v>14.94819270083226</v>
       </c>
       <c r="D22">
-        <v>10.0052865754186</v>
+        <v>10.00528657541848</v>
       </c>
       <c r="E22">
-        <v>9.675550153064433</v>
+        <v>9.675550153064295</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>85.17084515170514</v>
+        <v>85.1708451517039</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>5.378368572150684</v>
+        <v>5.378368572150539</v>
       </c>
       <c r="J22">
-        <v>21.5794882691951</v>
+        <v>21.57948826919487</v>
       </c>
       <c r="K22">
-        <v>11.09167533779667</v>
+        <v>11.09167533779661</v>
       </c>
       <c r="L22">
-        <v>18.58990154147809</v>
+        <v>18.58990154147795</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,37 +1210,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>24.93790291002785</v>
+        <v>24.93790291002798</v>
       </c>
       <c r="C23">
-        <v>14.56469825979186</v>
+        <v>14.56469825979163</v>
       </c>
       <c r="D23">
-        <v>9.804994910157291</v>
+        <v>9.804994910157316</v>
       </c>
       <c r="E23">
-        <v>9.538511934276885</v>
+        <v>9.538511934276901</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>83.44544482989808</v>
+        <v>83.44544482989778</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>5.359171755076363</v>
+        <v>5.359171755076385</v>
       </c>
       <c r="J23">
-        <v>21.05619184365451</v>
+        <v>21.05619184365456</v>
       </c>
       <c r="K23">
         <v>10.83863926827261</v>
       </c>
       <c r="L23">
-        <v>18.16045352020016</v>
+        <v>18.16045352020019</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,37 +1248,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>22.59168587455781</v>
+        <v>22.5916858745577</v>
       </c>
       <c r="C24">
-        <v>13.12228557492068</v>
+        <v>13.12228557492074</v>
       </c>
       <c r="D24">
-        <v>9.047916011203659</v>
+        <v>9.047916011203727</v>
       </c>
       <c r="E24">
-        <v>9.027611378626323</v>
+        <v>9.027611378626299</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>76.88396834194002</v>
+        <v>76.88396834193945</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>5.290760698321685</v>
+        <v>5.290760698321584</v>
       </c>
       <c r="J24">
-        <v>19.06986137357034</v>
+        <v>19.06986137357021</v>
       </c>
       <c r="K24">
-        <v>9.957426702906808</v>
+        <v>9.957426702906815</v>
       </c>
       <c r="L24">
-        <v>16.52177429775718</v>
+        <v>16.52177429775712</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,37 +1286,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>20.00949119853395</v>
+        <v>20.00949119853386</v>
       </c>
       <c r="C25">
-        <v>11.55766156269708</v>
+        <v>11.55766156269717</v>
       </c>
       <c r="D25">
-        <v>8.226288072442795</v>
+        <v>8.226288072442758</v>
       </c>
       <c r="E25">
-        <v>8.488250608468668</v>
+        <v>8.488250608468698</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>69.66942335358195</v>
+        <v>69.66942335358176</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>5.223722750043872</v>
+        <v>5.223722750043888</v>
       </c>
       <c r="J25">
-        <v>16.8839155685309</v>
+        <v>16.88391556853088</v>
       </c>
       <c r="K25">
-        <v>9.20487463710481</v>
+        <v>9.20487463710478</v>
       </c>
       <c r="L25">
-        <v>14.70342794586983</v>
+        <v>14.70342794586974</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_22/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_22/res_line/loading_percent.xlsx
@@ -412,37 +412,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.03601354161617</v>
+        <v>18.03601354161614</v>
       </c>
       <c r="C2">
-        <v>10.37497412018265</v>
+        <v>10.37497412018278</v>
       </c>
       <c r="D2">
-        <v>7.611910277313314</v>
+        <v>7.611910277313383</v>
       </c>
       <c r="E2">
-        <v>8.097570125417366</v>
+        <v>8.097570125417382</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>64.1836967351614</v>
+        <v>64.18369673516121</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>5.178342706639554</v>
+        <v>5.178342706639563</v>
       </c>
       <c r="J2">
-        <v>15.21095656379201</v>
+        <v>15.21095656379197</v>
       </c>
       <c r="K2">
-        <v>8.662351182401991</v>
+        <v>8.66235118240199</v>
       </c>
       <c r="L2">
-        <v>13.30169865011785</v>
+        <v>13.3016986501178</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,37 +450,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.64338749477544</v>
+        <v>16.64338749477548</v>
       </c>
       <c r="C3">
-        <v>9.545536614988279</v>
+        <v>9.545536614988169</v>
       </c>
       <c r="D3">
-        <v>7.188576129768004</v>
+        <v>7.188576129768</v>
       </c>
       <c r="E3">
-        <v>7.835851317820391</v>
+        <v>7.835851317820373</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>60.34061797517629</v>
+        <v>60.34061797517693</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>5.149386127764613</v>
+        <v>5.149386127764624</v>
       </c>
       <c r="J3">
-        <v>14.027638696559</v>
+        <v>14.02763869655897</v>
       </c>
       <c r="K3">
-        <v>8.300840561977381</v>
+        <v>8.300840561977347</v>
       </c>
       <c r="L3">
-        <v>12.4237039965128</v>
+        <v>12.42370399651276</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,37 +488,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.75859123990017</v>
+        <v>15.75859123990015</v>
       </c>
       <c r="C4">
-        <v>9.020122359902155</v>
+        <v>9.02012235990235</v>
       </c>
       <c r="D4">
-        <v>6.925221708274091</v>
+        <v>6.92522170827411</v>
       </c>
       <c r="E4">
-        <v>7.676515336090422</v>
+        <v>7.676515336090459</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>57.91616789117253</v>
+        <v>57.9161678911725</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>5.132311928991673</v>
+        <v>5.132311928991678</v>
       </c>
       <c r="J4">
         <v>13.27397260306759</v>
       </c>
       <c r="K4">
-        <v>8.08188187109063</v>
+        <v>8.081881871090669</v>
       </c>
       <c r="L4">
-        <v>12.05424648341919</v>
+        <v>12.05424648341921</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,37 +526,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.39026684186377</v>
+        <v>15.39026684186395</v>
       </c>
       <c r="C5">
-        <v>8.801647279640983</v>
+        <v>8.801647279640623</v>
       </c>
       <c r="D5">
-        <v>6.817081163042308</v>
+        <v>6.817081163042353</v>
       </c>
       <c r="E5">
-        <v>7.611921019034488</v>
+        <v>7.611921019034527</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>56.91173100992732</v>
+        <v>56.91173100992829</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>5.125508071548624</v>
+        <v>5.125508071548666</v>
       </c>
       <c r="J5">
-        <v>12.95968800991697</v>
+        <v>12.95968800991705</v>
       </c>
       <c r="K5">
-        <v>7.993435684358269</v>
+        <v>7.993435684358285</v>
       </c>
       <c r="L5">
-        <v>11.90520551422475</v>
+        <v>11.90520551422467</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,37 +564,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.32863088585017</v>
+        <v>15.32863088585013</v>
       </c>
       <c r="C6">
-        <v>8.76509773031507</v>
+        <v>8.765097730314832</v>
       </c>
       <c r="D6">
-        <v>6.799076695741596</v>
+        <v>6.799076695741582</v>
       </c>
       <c r="E6">
-        <v>7.601215543310374</v>
+        <v>7.601215543310272</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>56.74395116016966</v>
+        <v>56.74395116016936</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>5.124386969854012</v>
+        <v>5.124386969853965</v>
       </c>
       <c r="J6">
-        <v>12.90705959919919</v>
+        <v>12.90705959919909</v>
       </c>
       <c r="K6">
-        <v>7.978797556890638</v>
+        <v>7.97879755689066</v>
       </c>
       <c r="L6">
-        <v>11.88055133752629</v>
+        <v>11.88055133752632</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,37 +602,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.75365565132032</v>
+        <v>15.75365565132047</v>
       </c>
       <c r="C7">
-        <v>9.017193981052801</v>
+        <v>9.01719398105279</v>
       </c>
       <c r="D7">
-        <v>6.923766536362241</v>
+        <v>6.923766536362209</v>
       </c>
       <c r="E7">
-        <v>7.675642831910152</v>
+        <v>7.675642831910161</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>57.90268836459269</v>
+        <v>57.90268836459276</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>5.132219574949874</v>
+        <v>5.132219574949968</v>
       </c>
       <c r="J7">
-        <v>13.26976346470719</v>
+        <v>13.26976346470729</v>
       </c>
       <c r="K7">
-        <v>8.080685844139104</v>
+        <v>8.080685844139083</v>
       </c>
       <c r="L7">
-        <v>12.05223022349872</v>
+        <v>12.05223022349868</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,37 +640,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.56180710203571</v>
+        <v>17.5618071020358</v>
       </c>
       <c r="C8">
         <v>10.09213684713594</v>
       </c>
       <c r="D8">
-        <v>7.46666899291933</v>
+        <v>7.466668992919311</v>
       </c>
       <c r="E8">
-        <v>8.007039818791855</v>
+        <v>8.007039818791872</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>62.87187372030476</v>
+        <v>62.87187372030472</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>5.168197111164144</v>
+        <v>5.1681971111642</v>
       </c>
       <c r="J8">
-        <v>14.80835320703256</v>
+        <v>14.80835320703267</v>
       </c>
       <c r="K8">
-        <v>8.537084900330406</v>
+        <v>8.537084900330383</v>
       </c>
       <c r="L8">
-        <v>12.96309399792445</v>
+        <v>12.96309399792451</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,37 +678,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.8889339479629</v>
+        <v>20.88893394796285</v>
       </c>
       <c r="C9">
-        <v>12.08813157427927</v>
+        <v>12.08813157427914</v>
       </c>
       <c r="D9">
         <v>8.504275139903369</v>
       </c>
       <c r="E9">
-        <v>8.668751430703271</v>
+        <v>8.668751430703276</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>72.12365660039576</v>
+        <v>72.12365660039518</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>5.245581302704855</v>
+        <v>5.245581302704958</v>
       </c>
       <c r="J9">
-        <v>17.62859632017298</v>
+        <v>17.62859632017291</v>
       </c>
       <c r="K9">
         <v>9.456341571051627</v>
       </c>
       <c r="L9">
-        <v>15.32458915010029</v>
+        <v>15.3245891501002</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,37 +716,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>23.2309494624098</v>
+        <v>23.23094946240962</v>
       </c>
       <c r="C10">
-        <v>13.51317567701741</v>
+        <v>13.51317567701726</v>
       </c>
       <c r="D10">
-        <v>9.253458456745753</v>
+        <v>9.253458456745713</v>
       </c>
       <c r="E10">
-        <v>9.165125651670023</v>
+        <v>9.165125651669992</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>78.67229323894475</v>
+        <v>78.67229323894426</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>5.308693608691962</v>
+        <v>5.308693608691833</v>
       </c>
       <c r="J10">
-        <v>19.61094067999533</v>
+        <v>19.61094067999513</v>
       </c>
       <c r="K10">
-        <v>10.149790520341</v>
+        <v>10.14979052034098</v>
       </c>
       <c r="L10">
-        <v>16.96947148967219</v>
+        <v>16.96947148967207</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,37 +754,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>24.28346184967122</v>
+        <v>24.28346184967115</v>
       </c>
       <c r="C11">
-        <v>14.16016122431516</v>
+        <v>14.16016122431534</v>
       </c>
       <c r="D11">
-        <v>9.5931489853042</v>
+        <v>9.593148985304257</v>
       </c>
       <c r="E11">
-        <v>9.394376372609157</v>
+        <v>9.394376372609171</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>81.61611684500751</v>
+        <v>81.61611684500801</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>5.3393726266903</v>
+        <v>5.339372626690341</v>
       </c>
       <c r="J11">
-        <v>20.50197340298453</v>
+        <v>20.50197340298444</v>
       </c>
       <c r="K11">
-        <v>10.56968527175435</v>
+        <v>10.56968527175439</v>
       </c>
       <c r="L11">
-        <v>17.70458594578782</v>
+        <v>17.70458594578778</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,37 +792,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>24.6811827499753</v>
+        <v>24.68118274997527</v>
       </c>
       <c r="C12">
-        <v>14.40579727869658</v>
+        <v>14.40579727869631</v>
       </c>
       <c r="D12">
-        <v>9.721844825226905</v>
+        <v>9.72184482522696</v>
       </c>
       <c r="E12">
-        <v>9.481836509223108</v>
+        <v>9.48183650922309</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>82.7279897515068</v>
+        <v>82.72798975150629</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>5.351338982065239</v>
+        <v>5.351338982065233</v>
       </c>
       <c r="J12">
-        <v>20.83876567997492</v>
+        <v>20.83876567997488</v>
       </c>
       <c r="K12">
-        <v>10.73324286666638</v>
+        <v>10.73324286666633</v>
       </c>
       <c r="L12">
-        <v>17.98173841024077</v>
+        <v>17.98173841024071</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,37 +830,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>24.59554518266217</v>
+        <v>24.59554518266223</v>
       </c>
       <c r="C13">
-        <v>14.35285171147315</v>
+        <v>14.35285171147297</v>
       </c>
       <c r="D13">
-        <v>9.69412071156175</v>
+        <v>9.694120711561698</v>
       </c>
       <c r="E13">
-        <v>9.462968604821571</v>
+        <v>9.462968604821512</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>82.4886152854761</v>
+        <v>82.48861528547584</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>5.348745077147061</v>
+        <v>5.348745077147024</v>
       </c>
       <c r="J13">
-        <v>20.76624212011721</v>
+        <v>20.7662421201172</v>
       </c>
       <c r="K13">
-        <v>10.69805358405213</v>
+        <v>10.69805358405214</v>
       </c>
       <c r="L13">
-        <v>17.92209056958142</v>
+        <v>17.92209056958143</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,37 +868,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>24.31619281749249</v>
+        <v>24.3161928174924</v>
       </c>
       <c r="C14">
-        <v>14.18035171054651</v>
+        <v>14.18035171054664</v>
       </c>
       <c r="D14">
-        <v>9.603734065560211</v>
+        <v>9.603734065560188</v>
       </c>
       <c r="E14">
-        <v>9.401557729572287</v>
+        <v>9.401557729572271</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>81.70763456638359</v>
+        <v>81.70763456638332</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>5.340349680425181</v>
+        <v>5.340349680425128</v>
       </c>
       <c r="J14">
-        <v>20.52968793598896</v>
+        <v>20.52968793598893</v>
       </c>
       <c r="K14">
         <v>10.5831580034918</v>
       </c>
       <c r="L14">
-        <v>17.72740749843124</v>
+        <v>17.72740749843123</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,37 +906,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>24.14500579506419</v>
+        <v>24.14500579506413</v>
       </c>
       <c r="C15">
-        <v>14.07480096012679</v>
+        <v>14.07480096012681</v>
       </c>
       <c r="D15">
-        <v>9.548385689900179</v>
+        <v>9.548385689900195</v>
       </c>
       <c r="E15">
-        <v>9.364031560462399</v>
+        <v>9.364031560462362</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>81.22895992861594</v>
+        <v>81.22895992861574</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>5.335254912105103</v>
+        <v>5.335254912105023</v>
       </c>
       <c r="J15">
-        <v>20.38474158606478</v>
+        <v>20.38474158606467</v>
       </c>
       <c r="K15">
-        <v>10.51266906117519</v>
+        <v>10.51266906117517</v>
       </c>
       <c r="L15">
-        <v>17.60802217637191</v>
+        <v>17.60802217637185</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,37 +944,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>23.16198707684549</v>
+        <v>23.16198707684547</v>
       </c>
       <c r="C16">
-        <v>13.47093395525751</v>
+        <v>13.47093395525727</v>
       </c>
       <c r="D16">
-        <v>9.231253779739117</v>
+        <v>9.231253779739115</v>
       </c>
       <c r="E16">
-        <v>9.150224822591992</v>
+        <v>9.150224822591966</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>78.47937149165666</v>
+        <v>78.47937149165656</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>5.306733558289505</v>
+        <v>5.306733558289451</v>
       </c>
       <c r="J16">
-        <v>19.55256763501839</v>
+        <v>19.5525676350183</v>
       </c>
       <c r="K16">
-        <v>10.12893750801349</v>
+        <v>10.12893750801346</v>
       </c>
       <c r="L16">
-        <v>16.92121954794806</v>
+        <v>16.92121954794801</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,37 +982,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>22.55628449795871</v>
+        <v>22.55628449795873</v>
       </c>
       <c r="C17">
-        <v>13.10068261535892</v>
+        <v>13.10068261535897</v>
       </c>
       <c r="D17">
-        <v>9.036553387193774</v>
+        <v>9.036553387193724</v>
       </c>
       <c r="E17">
-        <v>9.020037318232985</v>
+        <v>9.020037318233008</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>76.78493904672958</v>
+        <v>76.78493904673009</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>5.289783084221849</v>
+        <v>5.289783084221797</v>
       </c>
       <c r="J17">
-        <v>19.03989839229482</v>
+        <v>19.03989839229483</v>
       </c>
       <c r="K17">
-        <v>9.946836960973968</v>
+        <v>9.946836960973974</v>
       </c>
       <c r="L17">
-        <v>16.49695419773553</v>
+        <v>16.49695419773551</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,37 +1020,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>22.20661527863922</v>
+        <v>22.20661527863944</v>
       </c>
       <c r="C18">
-        <v>12.88754550827842</v>
+        <v>12.88754550827839</v>
       </c>
       <c r="D18">
-        <v>8.924444390988139</v>
+        <v>8.924444390988125</v>
       </c>
       <c r="E18">
-        <v>8.945469694493461</v>
+        <v>8.945469694493456</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>75.80687323720944</v>
+        <v>75.8068732372101</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>5.280214233971614</v>
+        <v>5.280214233971753</v>
       </c>
       <c r="J18">
-        <v>18.74394753935096</v>
+        <v>18.74394753935115</v>
       </c>
       <c r="K18">
-        <v>9.842610076223766</v>
+        <v>9.842610076223764</v>
       </c>
       <c r="L18">
-        <v>16.25164260226828</v>
+        <v>16.25164260226841</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,37 +1058,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>22.08797552356252</v>
+        <v>22.08797552356259</v>
       </c>
       <c r="C19">
-        <v>12.81532822974858</v>
+        <v>12.81532822974872</v>
       </c>
       <c r="D19">
-        <v>8.886459569937905</v>
+        <v>8.886459569937958</v>
       </c>
       <c r="E19">
-        <v>8.920272258271678</v>
+        <v>8.920272258271709</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>75.47506377858237</v>
+        <v>75.47506377858252</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>5.277003643545521</v>
+        <v>5.277003643545599</v>
       </c>
       <c r="J19">
-        <v>18.64353378428457</v>
+        <v>18.6435337842846</v>
       </c>
       <c r="K19">
-        <v>9.807403077593868</v>
+        <v>9.807403077593884</v>
       </c>
       <c r="L19">
-        <v>16.16834536497046</v>
+        <v>16.16834536497052</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,37 +1096,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>22.62088900589465</v>
+        <v>22.62088900589468</v>
       </c>
       <c r="C20">
-        <v>13.14010959970762</v>
+        <v>13.14010959970803</v>
       </c>
       <c r="D20">
-        <v>9.057290873789501</v>
+        <v>9.057290873789494</v>
       </c>
       <c r="E20">
-        <v>9.033862684836032</v>
+        <v>9.033862684836059</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>76.96565988704417</v>
+        <v>76.9656598870445</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>5.291568370202605</v>
+        <v>5.291568370202712</v>
       </c>
       <c r="J20">
-        <v>19.09457834148964</v>
+        <v>19.0945783414898</v>
       </c>
       <c r="K20">
-        <v>9.966167449821318</v>
+        <v>9.966167449821329</v>
       </c>
       <c r="L20">
-        <v>16.54224659378085</v>
+        <v>16.54224659378092</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,37 +1134,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>24.3982589816279</v>
+        <v>24.39825898162803</v>
       </c>
       <c r="C21">
-        <v>14.2309943756318</v>
+        <v>14.23099437563175</v>
       </c>
       <c r="D21">
-        <v>9.630278958838291</v>
+        <v>9.630278958838264</v>
       </c>
       <c r="E21">
-        <v>9.419576538233123</v>
+        <v>9.419576538233088</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>81.93708557651279</v>
+        <v>81.93708557651314</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>5.342805540186821</v>
+        <v>5.342805540186752</v>
       </c>
       <c r="J21">
-        <v>20.59917811378516</v>
+        <v>20.59917811378519</v>
       </c>
       <c r="K21">
-        <v>10.61692821425568</v>
+        <v>10.61692821425569</v>
       </c>
       <c r="L21">
-        <v>17.78461762557223</v>
+        <v>17.78461762557226</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,37 +1172,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>25.5556214868989</v>
+        <v>25.55562148689915</v>
       </c>
       <c r="C22">
-        <v>14.94819270083226</v>
+        <v>14.94819270083262</v>
       </c>
       <c r="D22">
-        <v>10.00528657541848</v>
+        <v>10.0052865754186</v>
       </c>
       <c r="E22">
-        <v>9.675550153064295</v>
+        <v>9.675550153064433</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>85.1708451517039</v>
+        <v>85.17084515170514</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>5.378368572150539</v>
+        <v>5.378368572150684</v>
       </c>
       <c r="J22">
-        <v>21.57948826919487</v>
+        <v>21.5794882691951</v>
       </c>
       <c r="K22">
-        <v>11.09167533779661</v>
+        <v>11.09167533779667</v>
       </c>
       <c r="L22">
-        <v>18.58990154147795</v>
+        <v>18.58990154147809</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,37 +1210,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>24.93790291002798</v>
+        <v>24.93790291002785</v>
       </c>
       <c r="C23">
-        <v>14.56469825979163</v>
+        <v>14.56469825979186</v>
       </c>
       <c r="D23">
-        <v>9.804994910157316</v>
+        <v>9.804994910157291</v>
       </c>
       <c r="E23">
-        <v>9.538511934276901</v>
+        <v>9.538511934276885</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>83.44544482989778</v>
+        <v>83.44544482989808</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>5.359171755076385</v>
+        <v>5.359171755076363</v>
       </c>
       <c r="J23">
-        <v>21.05619184365456</v>
+        <v>21.05619184365451</v>
       </c>
       <c r="K23">
         <v>10.83863926827261</v>
       </c>
       <c r="L23">
-        <v>18.16045352020019</v>
+        <v>18.16045352020016</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,37 +1248,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>22.5916858745577</v>
+        <v>22.59168587455781</v>
       </c>
       <c r="C24">
-        <v>13.12228557492074</v>
+        <v>13.12228557492068</v>
       </c>
       <c r="D24">
-        <v>9.047916011203727</v>
+        <v>9.047916011203659</v>
       </c>
       <c r="E24">
-        <v>9.027611378626299</v>
+        <v>9.027611378626323</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>76.88396834193945</v>
+        <v>76.88396834194002</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>5.290760698321584</v>
+        <v>5.290760698321685</v>
       </c>
       <c r="J24">
-        <v>19.06986137357021</v>
+        <v>19.06986137357034</v>
       </c>
       <c r="K24">
-        <v>9.957426702906815</v>
+        <v>9.957426702906808</v>
       </c>
       <c r="L24">
-        <v>16.52177429775712</v>
+        <v>16.52177429775718</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,37 +1286,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>20.00949119853386</v>
+        <v>20.00949119853395</v>
       </c>
       <c r="C25">
-        <v>11.55766156269717</v>
+        <v>11.55766156269708</v>
       </c>
       <c r="D25">
-        <v>8.226288072442758</v>
+        <v>8.226288072442795</v>
       </c>
       <c r="E25">
-        <v>8.488250608468698</v>
+        <v>8.488250608468668</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>69.66942335358176</v>
+        <v>69.66942335358195</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>5.223722750043888</v>
+        <v>5.223722750043872</v>
       </c>
       <c r="J25">
-        <v>16.88391556853088</v>
+        <v>16.8839155685309</v>
       </c>
       <c r="K25">
-        <v>9.20487463710478</v>
+        <v>9.20487463710481</v>
       </c>
       <c r="L25">
-        <v>14.70342794586974</v>
+        <v>14.70342794586983</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_22/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_22/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,917 +406,992 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.03601354161614</v>
+        <v>18.03375675014966</v>
       </c>
       <c r="C2">
-        <v>10.37497412018278</v>
+        <v>10.37132996294464</v>
       </c>
       <c r="D2">
-        <v>7.611910277313383</v>
+        <v>7.611568208934788</v>
       </c>
       <c r="E2">
-        <v>8.097570125417382</v>
+        <v>8.096265015312296</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>64.18369673516121</v>
+        <v>63.24291128989101</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>64.17294496480784</v>
       </c>
       <c r="I2">
-        <v>5.178342706639563</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>15.21095656379197</v>
+        <v>5.177251013631038</v>
       </c>
       <c r="K2">
-        <v>8.66235118240199</v>
+        <v>15.20803480625066</v>
       </c>
       <c r="L2">
-        <v>13.3016986501178</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>8.662433921643242</v>
+      </c>
+      <c r="M2">
+        <v>13.30000179820612</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.64338749477548</v>
+        <v>16.64187888973472</v>
       </c>
       <c r="C3">
-        <v>9.545536614988169</v>
+        <v>9.542873369078372</v>
       </c>
       <c r="D3">
-        <v>7.188576129768</v>
+        <v>7.188340479473042</v>
       </c>
       <c r="E3">
-        <v>7.835851317820373</v>
+        <v>7.834836299169336</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>60.34061797517693</v>
+        <v>59.23298831605456</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>60.33334977789478</v>
       </c>
       <c r="I3">
-        <v>5.149386127764624</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>14.02763869655897</v>
+        <v>5.148555659266902</v>
       </c>
       <c r="K3">
-        <v>8.300840561977347</v>
+        <v>14.02555114465556</v>
       </c>
       <c r="L3">
-        <v>12.42370399651276</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>8.300958332478722</v>
+      </c>
+      <c r="M3">
+        <v>12.42443001959818</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.75859123990015</v>
+        <v>15.75748596338153</v>
       </c>
       <c r="C4">
-        <v>9.02012235990235</v>
+        <v>9.018028800631376</v>
       </c>
       <c r="D4">
-        <v>6.92522170827411</v>
+        <v>6.925043454918252</v>
       </c>
       <c r="E4">
-        <v>7.676515336090459</v>
+        <v>7.675684019531849</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>57.9161678911725</v>
+        <v>56.69382527739346</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>57.91112682986833</v>
       </c>
       <c r="I4">
-        <v>5.132311928991678</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>13.27397260306759</v>
+        <v>5.131641872579204</v>
       </c>
       <c r="K4">
-        <v>8.081881871090669</v>
+        <v>13.27235825675709</v>
       </c>
       <c r="L4">
-        <v>12.05424648341921</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>8.082004713339876</v>
+      </c>
+      <c r="M4">
+        <v>12.05493037677928</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.39026684186395</v>
+        <v>15.38931311586327</v>
       </c>
       <c r="C5">
-        <v>8.801647279640623</v>
+        <v>8.799779241197729</v>
       </c>
       <c r="D5">
-        <v>6.817081163042353</v>
+        <v>6.816924668864487</v>
       </c>
       <c r="E5">
-        <v>7.611921019034527</v>
+        <v>7.611166218040426</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>56.91173100992829</v>
+        <v>55.63942245355895</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>56.90762584242073</v>
       </c>
       <c r="I5">
-        <v>5.125508071548666</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>12.95968800991705</v>
+        <v>5.124903577498655</v>
       </c>
       <c r="K5">
-        <v>7.993435684358285</v>
+        <v>12.95825816517899</v>
       </c>
       <c r="L5">
-        <v>11.90520551422467</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>7.993556888811423</v>
+      </c>
+      <c r="M5">
+        <v>11.90585970669772</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.32863088585013</v>
+        <v>15.32770158102899</v>
       </c>
       <c r="C6">
-        <v>8.765097730314832</v>
+        <v>8.763266779692486</v>
       </c>
       <c r="D6">
-        <v>6.799076695741582</v>
+        <v>6.798923725753673</v>
       </c>
       <c r="E6">
-        <v>7.601215543310272</v>
+        <v>7.600473553787136</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>56.74395116016936</v>
+        <v>55.46314731001713</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>56.74000327831249</v>
       </c>
       <c r="I6">
-        <v>5.124386969853965</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>12.90705959919909</v>
+        <v>5.123793379004414</v>
       </c>
       <c r="K6">
-        <v>7.97879755689066</v>
+        <v>12.90565992480106</v>
       </c>
       <c r="L6">
-        <v>11.88055133752632</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>7.978918277137447</v>
+      </c>
+      <c r="M6">
+        <v>11.88119986537879</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.75365565132047</v>
+        <v>15.7525524691204</v>
       </c>
       <c r="C7">
-        <v>9.01719398105279</v>
+        <v>9.015103488208426</v>
       </c>
       <c r="D7">
-        <v>6.923766536362209</v>
+        <v>6.923588582620012</v>
       </c>
       <c r="E7">
-        <v>7.675642831910161</v>
+        <v>7.674812540278849</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>57.90268836459276</v>
+        <v>56.6796851101475</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>57.89765980264341</v>
       </c>
       <c r="I7">
-        <v>5.132219574949968</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>13.26976346470729</v>
+        <v>5.131550401724788</v>
       </c>
       <c r="K7">
-        <v>8.080685844139083</v>
+        <v>13.26815163866595</v>
       </c>
       <c r="L7">
-        <v>12.05223022349868</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>8.080808678774252</v>
+      </c>
+      <c r="M7">
+        <v>12.05291376594749</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.5618071020358</v>
+        <v>17.55982082791615</v>
       </c>
       <c r="C8">
-        <v>10.09213684713594</v>
+        <v>10.08883870606987</v>
       </c>
       <c r="D8">
-        <v>7.466668992919311</v>
+        <v>7.466365508428728</v>
       </c>
       <c r="E8">
-        <v>8.007039818791872</v>
+        <v>8.005833745479864</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>62.87187372030472</v>
+        <v>61.87602860320884</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>62.86230863153738</v>
       </c>
       <c r="I8">
-        <v>5.1681971111642</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>14.80835320703267</v>
+        <v>5.167195607675354</v>
       </c>
       <c r="K8">
-        <v>8.537084900330383</v>
+        <v>14.80572816658662</v>
       </c>
       <c r="L8">
-        <v>12.96309399792451</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>8.537183408014142</v>
+      </c>
+      <c r="M8">
+        <v>12.96156578855169</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.88893394796285</v>
+        <v>20.88468772445847</v>
       </c>
       <c r="C9">
-        <v>12.08813157427914</v>
+        <v>12.08211798140746</v>
       </c>
       <c r="D9">
-        <v>8.504275139903369</v>
+        <v>8.503641570986655</v>
       </c>
       <c r="E9">
-        <v>8.668751430703276</v>
+        <v>8.666837308010397</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>72.12365660039518</v>
+        <v>71.48145347327353</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>72.10558571404911</v>
       </c>
       <c r="I9">
-        <v>5.245581302704958</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>17.62859632017291</v>
+        <v>5.243917771366551</v>
       </c>
       <c r="K9">
-        <v>9.456341571051627</v>
+        <v>17.62358842958701</v>
       </c>
       <c r="L9">
-        <v>15.3245891501002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>9.456238319157121</v>
+      </c>
+      <c r="M9">
+        <v>15.32170301072556</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>23.23094946240962</v>
+        <v>23.22455490876762</v>
       </c>
       <c r="C10">
-        <v>13.51317567701726</v>
+        <v>13.50479313515958</v>
       </c>
       <c r="D10">
-        <v>9.253458456745713</v>
+        <v>9.252492364316163</v>
       </c>
       <c r="E10">
-        <v>9.165125651669992</v>
+        <v>9.162679001075329</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>78.67229323894426</v>
+        <v>78.24082697802145</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>78.64769851390324</v>
       </c>
       <c r="I10">
-        <v>5.308693608691833</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>19.61094067999513</v>
+        <v>5.306518524761777</v>
       </c>
       <c r="K10">
-        <v>10.14979052034098</v>
+        <v>19.60377829521395</v>
       </c>
       <c r="L10">
-        <v>16.96947148967207</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>10.1494017447913</v>
+      </c>
+      <c r="M10">
+        <v>16.96534375031117</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>24.28346184967115</v>
+        <v>24.27592724593609</v>
       </c>
       <c r="C11">
-        <v>14.16016122431534</v>
+        <v>14.15056750296545</v>
       </c>
       <c r="D11">
-        <v>9.593148985304257</v>
+        <v>9.591999217785679</v>
       </c>
       <c r="E11">
-        <v>9.394376372609171</v>
+        <v>9.391674728716868</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>81.61611684500801</v>
+        <v>81.27116606304601</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>81.58834319293351</v>
       </c>
       <c r="I11">
-        <v>5.339372626690341</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>20.50197340298444</v>
+        <v>5.336953401442147</v>
       </c>
       <c r="K11">
-        <v>10.56968527175439</v>
+        <v>20.49368973858227</v>
       </c>
       <c r="L11">
-        <v>17.70458594578778</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>10.56804893795006</v>
+      </c>
+      <c r="M11">
+        <v>17.69980572300764</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>24.68118274997527</v>
+        <v>24.67318614298723</v>
       </c>
       <c r="C12">
-        <v>14.40579727869631</v>
+        <v>14.39571953061223</v>
       </c>
       <c r="D12">
-        <v>9.72184482522696</v>
+        <v>9.720619287958291</v>
       </c>
       <c r="E12">
-        <v>9.48183650922309</v>
+        <v>9.479035260390589</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>82.72798975150629</v>
+        <v>82.41455435153964</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>82.69896476748197</v>
       </c>
       <c r="I12">
-        <v>5.351338982065233</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>20.83876567997488</v>
+        <v>5.348824969547917</v>
       </c>
       <c r="K12">
-        <v>10.73324286666633</v>
+        <v>20.83003072451385</v>
       </c>
       <c r="L12">
-        <v>17.98173841024071</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>10.73150398166576</v>
+      </c>
+      <c r="M12">
+        <v>17.97669435224071</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>24.59554518266223</v>
+        <v>24.58764955875897</v>
       </c>
       <c r="C13">
-        <v>14.35285171147297</v>
+        <v>14.3428794561297</v>
       </c>
       <c r="D13">
-        <v>9.694120711561698</v>
+        <v>9.692911799764783</v>
       </c>
       <c r="E13">
-        <v>9.462968604821512</v>
+        <v>9.460188966861066</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>82.48861528547584</v>
+        <v>82.16844639303726</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>82.45986224225641</v>
       </c>
       <c r="I13">
-        <v>5.348745077147024</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>20.7662421201172</v>
+        <v>5.346251596022846</v>
       </c>
       <c r="K13">
-        <v>10.69805358405214</v>
+        <v>20.75760566988386</v>
       </c>
       <c r="L13">
-        <v>17.92209056958143</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>10.696337170757</v>
+      </c>
+      <c r="M13">
+        <v>17.91710415951627</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>24.3161928174924</v>
+        <v>24.30862085938643</v>
       </c>
       <c r="C14">
-        <v>14.18035171054664</v>
+        <v>14.17071871920895</v>
       </c>
       <c r="D14">
-        <v>9.603734065560188</v>
+        <v>9.6025781998328</v>
       </c>
       <c r="E14">
-        <v>9.401557729572271</v>
+        <v>9.398847960545135</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>81.70763456638332</v>
+        <v>81.36530100314117</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>81.67975903601985</v>
       </c>
       <c r="I14">
-        <v>5.340349680425128</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>20.52968793598893</v>
+        <v>5.337922708524382</v>
       </c>
       <c r="K14">
-        <v>10.5831580034918</v>
+        <v>20.5213677225827</v>
       </c>
       <c r="L14">
-        <v>17.72740749843123</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>10.58151340273737</v>
+      </c>
+      <c r="M14">
+        <v>17.72260593426122</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>24.14500579506413</v>
+        <v>24.13762790286439</v>
       </c>
       <c r="C15">
-        <v>14.07480096012681</v>
+        <v>14.06537225555324</v>
       </c>
       <c r="D15">
-        <v>9.548385689900195</v>
+        <v>9.547261451674789</v>
       </c>
       <c r="E15">
-        <v>9.364031560462362</v>
+        <v>9.361364148813111</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>81.22895992861574</v>
+        <v>80.87289041024678</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>81.20161511279989</v>
       </c>
       <c r="I15">
-        <v>5.335254912105023</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>20.38474158606467</v>
+        <v>5.332868350616687</v>
       </c>
       <c r="K15">
-        <v>10.51266906117517</v>
+        <v>20.37661137626416</v>
       </c>
       <c r="L15">
-        <v>17.60802217637185</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>10.51106736193114</v>
+      </c>
+      <c r="M15">
+        <v>17.60333150731652</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>23.16198707684547</v>
+        <v>23.15566321454713</v>
       </c>
       <c r="C16">
-        <v>13.47093395525727</v>
+        <v>13.46262739453744</v>
       </c>
       <c r="D16">
-        <v>9.231253779739115</v>
+        <v>9.23029891726391</v>
       </c>
       <c r="E16">
-        <v>9.150224822591966</v>
+        <v>9.147794485122891</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>78.47937149165656</v>
+        <v>78.04207162548275</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>78.45497890881838</v>
       </c>
       <c r="I16">
-        <v>5.306733558289451</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>19.5525676350183</v>
+        <v>5.304574144924429</v>
       </c>
       <c r="K16">
-        <v>10.12893750801346</v>
+        <v>19.54547518695936</v>
       </c>
       <c r="L16">
-        <v>16.92121954794801</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>10.128559081574</v>
+      </c>
+      <c r="M16">
+        <v>16.91713236089839</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>22.55628449795873</v>
+        <v>22.55056133003031</v>
       </c>
       <c r="C17">
-        <v>13.10068261535897</v>
+        <v>13.09302642632094</v>
       </c>
       <c r="D17">
-        <v>9.036553387193724</v>
+        <v>9.035693176163681</v>
       </c>
       <c r="E17">
-        <v>9.020037318233008</v>
+        <v>9.017748408162843</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>76.78493904673009</v>
+        <v>76.29548398361973</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>76.76229270558152</v>
       </c>
       <c r="I17">
-        <v>5.289783084221797</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>19.03989839229483</v>
+        <v>5.287759659153815</v>
       </c>
       <c r="K17">
-        <v>9.946836960973974</v>
+        <v>19.03340247512709</v>
       </c>
       <c r="L17">
-        <v>16.49695419773551</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>9.94654413911865</v>
+      </c>
+      <c r="M17">
+        <v>16.49321221578347</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>22.20661527863944</v>
+        <v>22.20122281465207</v>
       </c>
       <c r="C18">
-        <v>12.88754550827839</v>
+        <v>12.8802512888688</v>
       </c>
       <c r="D18">
-        <v>8.924444390988125</v>
+        <v>8.923635688062745</v>
       </c>
       <c r="E18">
-        <v>8.945469694493456</v>
+        <v>8.943261021586572</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>75.8068732372101</v>
+        <v>75.28653435214812</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>75.78521266850416</v>
       </c>
       <c r="I18">
-        <v>5.280214233971753</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>18.74394753935115</v>
+        <v>5.278268000971488</v>
       </c>
       <c r="K18">
-        <v>9.842610076223764</v>
+        <v>18.73778192099956</v>
       </c>
       <c r="L18">
-        <v>16.25164260226841</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>9.842362468851402</v>
+      </c>
+      <c r="M18">
+        <v>16.2480912325623</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>22.08797552356259</v>
+        <v>22.0826926633533</v>
       </c>
       <c r="C19">
-        <v>12.81532822974872</v>
+        <v>12.80815464618383</v>
       </c>
       <c r="D19">
-        <v>8.886459569937958</v>
+        <v>8.885667842489813</v>
       </c>
       <c r="E19">
-        <v>8.920272258271709</v>
+        <v>8.918090592823322</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>75.47506377858252</v>
+        <v>74.94411298686714</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>75.45373422486699</v>
       </c>
       <c r="I19">
-        <v>5.277003643545599</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>18.6435337842846</v>
+        <v>5.275083388341626</v>
       </c>
       <c r="K19">
-        <v>9.807403077593884</v>
+        <v>18.63747796241956</v>
       </c>
       <c r="L19">
-        <v>16.16834536497052</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>9.807170132126224</v>
+      </c>
+      <c r="M19">
+        <v>16.16485727527132</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>22.62088900589468</v>
+        <v>22.61510346757618</v>
       </c>
       <c r="C20">
-        <v>13.14010959970803</v>
+        <v>13.13238546927784</v>
       </c>
       <c r="D20">
-        <v>9.057290873789494</v>
+        <v>9.056420900158335</v>
       </c>
       <c r="E20">
-        <v>9.033862684836059</v>
+        <v>9.031558841820507</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>76.9656598870445</v>
+        <v>76.48184775399649</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>76.94282969159012</v>
       </c>
       <c r="I20">
-        <v>5.291568370202712</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>19.0945783414898</v>
+        <v>5.289530579382599</v>
       </c>
       <c r="K20">
-        <v>9.966167449821329</v>
+        <v>19.08802028828311</v>
       </c>
       <c r="L20">
-        <v>16.54224659378092</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>9.965865942363308</v>
+      </c>
+      <c r="M20">
+        <v>16.53846871186481</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>24.39825898162803</v>
+        <v>24.39059284370078</v>
       </c>
       <c r="C21">
-        <v>14.23099437563175</v>
+        <v>14.22126248222921</v>
       </c>
       <c r="D21">
-        <v>9.630278958838264</v>
+        <v>9.629107695975888</v>
       </c>
       <c r="E21">
-        <v>9.419576538233088</v>
+        <v>9.416846341333049</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>81.93708557651314</v>
+        <v>81.60129537563387</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>81.9089537520758</v>
       </c>
       <c r="I21">
-        <v>5.342805540186752</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>20.59917811378519</v>
+        <v>5.340359102903699</v>
       </c>
       <c r="K21">
-        <v>10.61692821425569</v>
+        <v>20.59076579966131</v>
       </c>
       <c r="L21">
-        <v>17.78461762557226</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>10.6152627511329</v>
+      </c>
+      <c r="M21">
+        <v>17.77976226234845</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>25.55562148689915</v>
+        <v>25.54654462241714</v>
       </c>
       <c r="C22">
-        <v>14.94819270083262</v>
+        <v>14.93699620731521</v>
       </c>
       <c r="D22">
-        <v>10.0052865754186</v>
+        <v>10.00388101292735</v>
       </c>
       <c r="E22">
-        <v>9.675550153064433</v>
+        <v>9.672522670530379</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>85.17084515170514</v>
+        <v>84.92457475245605</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>85.13895916067975</v>
       </c>
       <c r="I22">
-        <v>5.378368572150684</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>21.5794882691951</v>
+        <v>5.375640949918377</v>
       </c>
       <c r="K22">
-        <v>11.09167533779667</v>
+        <v>21.56970386697574</v>
       </c>
       <c r="L22">
-        <v>18.58990154147809</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>11.08969412220011</v>
+      </c>
+      <c r="M22">
+        <v>18.58424128044629</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>24.93790291002785</v>
+        <v>24.92959853566019</v>
       </c>
       <c r="C23">
-        <v>14.56469825979186</v>
+        <v>14.55430000326263</v>
       </c>
       <c r="D23">
-        <v>9.804994910157291</v>
+        <v>9.803718485631103</v>
       </c>
       <c r="E23">
-        <v>9.538511934276885</v>
+        <v>9.535645340396592</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>83.44544482989808</v>
+        <v>83.15202548440166</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>83.41559610633522</v>
       </c>
       <c r="I23">
-        <v>5.359171755076363</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>21.05619184365451</v>
+        <v>5.356595786792533</v>
       </c>
       <c r="K23">
-        <v>10.83863926827261</v>
+        <v>21.04715711872449</v>
       </c>
       <c r="L23">
-        <v>18.16045352020016</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>10.83683170288408</v>
+      </c>
+      <c r="M23">
+        <v>18.15523382568869</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>22.59168587455781</v>
+        <v>22.58592857901714</v>
       </c>
       <c r="C24">
-        <v>13.12228557492068</v>
+        <v>13.11459219753985</v>
       </c>
       <c r="D24">
-        <v>9.047916011203659</v>
+        <v>9.0470504601934</v>
       </c>
       <c r="E24">
-        <v>9.027611378626323</v>
+        <v>9.025314290046731</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>76.88396834194002</v>
+        <v>76.39760784821672</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>76.86122132237539</v>
       </c>
       <c r="I24">
-        <v>5.290760698321685</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>19.06986137357034</v>
+        <v>5.288729405290776</v>
       </c>
       <c r="K24">
-        <v>9.957426702906808</v>
+        <v>19.06333145103216</v>
       </c>
       <c r="L24">
-        <v>16.52177429775718</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>9.957129134548628</v>
+      </c>
+      <c r="M24">
+        <v>16.5180126703752</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>20.00949119853395</v>
+        <v>20.00592699176084</v>
       </c>
       <c r="C25">
-        <v>11.55766156269708</v>
+        <v>11.55243403149787</v>
       </c>
       <c r="D25">
-        <v>8.226288072442795</v>
+        <v>8.2257561689766</v>
       </c>
       <c r="E25">
-        <v>8.488250608468668</v>
+        <v>8.486527511492149</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>69.66942335358195</v>
+        <v>68.94063666134772</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>69.65365902967862</v>
       </c>
       <c r="I25">
-        <v>5.223722750043872</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>16.8839155685309</v>
+        <v>5.222241097326878</v>
       </c>
       <c r="K25">
-        <v>9.20487463710481</v>
+        <v>16.87960882769054</v>
       </c>
       <c r="L25">
-        <v>14.70342794586983</v>
+        <v>9.204846252903137</v>
+      </c>
+      <c r="M25">
+        <v>14.70094265403128</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_22/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_22/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.03375675014966</v>
+        <v>28.23895050776481</v>
       </c>
       <c r="C2">
-        <v>10.37132996294464</v>
+        <v>14.89676228359698</v>
       </c>
       <c r="D2">
-        <v>7.611568208934788</v>
+        <v>7.481500271877889</v>
       </c>
       <c r="E2">
-        <v>8.096265015312296</v>
+        <v>6.56295306704799</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>63.24291128989101</v>
+        <v>2.153518524571451</v>
       </c>
       <c r="H2">
-        <v>64.17294496480784</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>5.177251013631038</v>
+        <v>5.015545408938267</v>
       </c>
       <c r="K2">
-        <v>15.20803480625066</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>8.662433921643242</v>
+        <v>8.240202894018067</v>
       </c>
       <c r="M2">
-        <v>13.30000179820612</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>17.40545412353054</v>
+      </c>
+      <c r="N2">
+        <v>17.31073609101191</v>
+      </c>
+      <c r="O2">
+        <v>38.21263762255924</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.64187888973472</v>
+        <v>26.77987651359323</v>
       </c>
       <c r="C3">
-        <v>9.542873369078372</v>
+        <v>13.81141694390313</v>
       </c>
       <c r="D3">
-        <v>7.188340479473042</v>
+        <v>7.408095506098775</v>
       </c>
       <c r="E3">
-        <v>7.834836299169336</v>
+        <v>6.584524633761426</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>59.23298831605456</v>
+        <v>2.167017627098395</v>
       </c>
       <c r="H3">
-        <v>60.33334977789478</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>5.148555659266902</v>
+        <v>4.921634185226735</v>
       </c>
       <c r="K3">
-        <v>14.02555114465556</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>8.300958332478722</v>
+        <v>8.153001283784484</v>
       </c>
       <c r="M3">
-        <v>12.42443001959818</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>16.85227582110201</v>
+      </c>
+      <c r="N3">
+        <v>17.464937118365</v>
+      </c>
+      <c r="O3">
+        <v>37.24443427590981</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.75748596338153</v>
+        <v>25.87181738286652</v>
       </c>
       <c r="C4">
-        <v>9.018028800631376</v>
+        <v>13.14676532669297</v>
       </c>
       <c r="D4">
-        <v>6.925043454918252</v>
+        <v>7.367403563391894</v>
       </c>
       <c r="E4">
-        <v>7.675684019531849</v>
+        <v>6.598538354612557</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>56.69382527739346</v>
+        <v>2.175469310671819</v>
       </c>
       <c r="H4">
-        <v>57.91112682986833</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>5.131641872579204</v>
+        <v>4.863505044782597</v>
       </c>
       <c r="K4">
-        <v>13.27235825675709</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>8.082004713339876</v>
+        <v>8.104300274413854</v>
       </c>
       <c r="M4">
-        <v>12.05493037677928</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>16.51877601958723</v>
+      </c>
+      <c r="N4">
+        <v>17.56487423252153</v>
+      </c>
+      <c r="O4">
+        <v>36.673500191579</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.38931311586327</v>
+        <v>25.49904027563061</v>
       </c>
       <c r="C5">
-        <v>8.799779241197729</v>
+        <v>12.87519096905128</v>
       </c>
       <c r="D5">
-        <v>6.816924668864487</v>
+        <v>7.351887546742191</v>
       </c>
       <c r="E5">
-        <v>7.611166218040426</v>
+        <v>6.604439364663876</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>55.63942245355895</v>
+        <v>2.178958518575356</v>
       </c>
       <c r="H5">
-        <v>56.90762584242073</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>5.124903577498655</v>
+        <v>4.83968540378886</v>
       </c>
       <c r="K5">
-        <v>12.95825816517899</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>7.993556888811423</v>
+        <v>8.085635558098049</v>
       </c>
       <c r="M5">
-        <v>11.90585970669772</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>16.3844981821854</v>
+      </c>
+      <c r="N5">
+        <v>17.60687592311355</v>
+      </c>
+      <c r="O5">
+        <v>36.44666401046758</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.32770158102899</v>
+        <v>25.4369870831542</v>
       </c>
       <c r="C6">
-        <v>8.763266779692486</v>
+        <v>12.82973815665923</v>
       </c>
       <c r="D6">
-        <v>6.798923725753673</v>
+        <v>7.349374524696886</v>
       </c>
       <c r="E6">
-        <v>7.600473553787136</v>
+        <v>6.605430639633367</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>55.46314731001713</v>
+        <v>2.179540732990959</v>
       </c>
       <c r="H6">
-        <v>56.74000327831249</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>5.123793379004414</v>
+        <v>4.835721857638448</v>
       </c>
       <c r="K6">
-        <v>12.90565992480106</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>7.978918277137447</v>
+        <v>8.082606613657196</v>
       </c>
       <c r="M6">
-        <v>11.88119986537879</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>16.36230220872299</v>
+      </c>
+      <c r="N6">
+        <v>17.61392615603957</v>
+      </c>
+      <c r="O6">
+        <v>36.40934716434601</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.7525524691204</v>
+        <v>25.86680055560602</v>
       </c>
       <c r="C7">
-        <v>9.015103488208426</v>
+        <v>13.14312681561278</v>
       </c>
       <c r="D7">
-        <v>6.923588582620012</v>
+        <v>7.367190036915501</v>
       </c>
       <c r="E7">
-        <v>7.674812540278849</v>
+        <v>6.598617170711159</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>56.6796851101475</v>
+        <v>2.175516179742093</v>
       </c>
       <c r="H7">
-        <v>57.89765980264341</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>5.131550401724788</v>
+        <v>4.863184354325042</v>
       </c>
       <c r="K7">
-        <v>13.26815163866595</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>8.080808678774252</v>
+        <v>8.104043819074395</v>
       </c>
       <c r="M7">
-        <v>12.05291376594749</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>16.51695840419811</v>
+      </c>
+      <c r="N7">
+        <v>17.56543556907751</v>
+      </c>
+      <c r="O7">
+        <v>36.67041753776751</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.55982082791615</v>
+        <v>27.73855717243505</v>
       </c>
       <c r="C8">
-        <v>10.08883870606987</v>
+        <v>14.52862491259231</v>
       </c>
       <c r="D8">
-        <v>7.466365508428728</v>
+        <v>7.455260123730641</v>
       </c>
       <c r="E8">
-        <v>8.005833745479864</v>
+        <v>6.570229425548233</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>61.87602860320884</v>
+        <v>2.158141701217505</v>
       </c>
       <c r="H8">
-        <v>62.86230863153738</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>5.167195607675354</v>
+        <v>4.983252580640277</v>
       </c>
       <c r="K8">
-        <v>14.80572816658662</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>8.537183408014142</v>
+        <v>8.209108892480559</v>
       </c>
       <c r="M8">
-        <v>12.96156578855169</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>17.21348328575305</v>
+      </c>
+      <c r="N8">
+        <v>17.36278419698366</v>
+      </c>
+      <c r="O8">
+        <v>37.87385079927893</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.88468772445847</v>
+        <v>31.30312391513325</v>
       </c>
       <c r="C9">
-        <v>12.08211798140746</v>
+        <v>17.07901709940123</v>
       </c>
       <c r="D9">
-        <v>8.503641570986655</v>
+        <v>7.66436657413157</v>
       </c>
       <c r="E9">
-        <v>8.666837308010397</v>
+        <v>6.520828813047477</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>71.48145347327353</v>
+        <v>2.125160614695898</v>
       </c>
       <c r="H9">
-        <v>72.10558571404911</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>5.243917771366551</v>
+        <v>5.215780813336344</v>
       </c>
       <c r="K9">
-        <v>17.62358842958701</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>9.456238319157121</v>
+        <v>8.455278585798046</v>
       </c>
       <c r="M9">
-        <v>15.32170301072556</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>18.62576709585823</v>
+      </c>
+      <c r="N9">
+        <v>17.00950711052692</v>
+      </c>
+      <c r="O9">
+        <v>40.42622845931302</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>23.22455490876762</v>
+        <v>33.85255917755207</v>
       </c>
       <c r="C10">
-        <v>13.50479313515958</v>
+        <v>18.82554691872183</v>
       </c>
       <c r="D10">
-        <v>9.252492364316163</v>
+        <v>7.842699655259426</v>
       </c>
       <c r="E10">
-        <v>9.162679001075329</v>
+        <v>6.488656262319767</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>78.24082697802145</v>
+        <v>2.101268989353101</v>
       </c>
       <c r="H10">
-        <v>78.64769851390324</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>5.306518524761777</v>
+        <v>5.386197813724198</v>
       </c>
       <c r="K10">
-        <v>19.60377829521395</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>10.1494017447913</v>
+        <v>8.663256263103326</v>
       </c>
       <c r="M10">
-        <v>16.96534375031117</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>19.69046305709149</v>
+      </c>
+      <c r="N10">
+        <v>16.78087826381761</v>
+      </c>
+      <c r="O10">
+        <v>42.42963325178579</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>24.27592724593609</v>
+        <v>34.99845981537825</v>
       </c>
       <c r="C11">
-        <v>14.15056750296545</v>
+        <v>19.59587210367625</v>
       </c>
       <c r="D11">
-        <v>9.591999217785679</v>
+        <v>7.929829953302102</v>
       </c>
       <c r="E11">
-        <v>9.391674728716868</v>
+        <v>6.475007626796227</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>81.27116606304601</v>
+        <v>2.090387751248358</v>
       </c>
       <c r="H11">
-        <v>81.58834319293351</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>5.336953401442147</v>
+        <v>5.464028427945088</v>
       </c>
       <c r="K11">
-        <v>20.49368973858227</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>10.56804893795006</v>
+        <v>8.764444312876766</v>
       </c>
       <c r="M11">
-        <v>17.69980572300764</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>20.18117490488037</v>
+      </c>
+      <c r="N11">
+        <v>16.68472101112938</v>
+      </c>
+      <c r="O11">
+        <v>43.37244465046372</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>24.67318614298723</v>
+        <v>35.43063786114347</v>
       </c>
       <c r="C12">
-        <v>14.39571953061223</v>
+        <v>19.88444031187845</v>
       </c>
       <c r="D12">
-        <v>9.720619287958291</v>
+        <v>7.963749587671812</v>
       </c>
       <c r="E12">
-        <v>9.479035260390589</v>
+        <v>6.469991438704873</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>82.41455435153964</v>
+        <v>2.086256955225769</v>
       </c>
       <c r="H12">
-        <v>82.69896476748197</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>5.348824969547917</v>
+        <v>5.493586326739728</v>
       </c>
       <c r="K12">
-        <v>20.83003072451385</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>10.73150398166576</v>
+        <v>8.803775224157024</v>
       </c>
       <c r="M12">
-        <v>17.97669435224071</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>20.36800914744726</v>
+      </c>
+      <c r="N12">
+        <v>16.64955567333161</v>
+      </c>
+      <c r="O12">
+        <v>43.73439519283218</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>24.58764955875897</v>
+        <v>35.33763321371948</v>
       </c>
       <c r="C13">
-        <v>14.3428794561297</v>
+        <v>19.8224254830541</v>
       </c>
       <c r="D13">
-        <v>9.692911799764783</v>
+        <v>7.956402146282396</v>
       </c>
       <c r="E13">
-        <v>9.460188966861066</v>
+        <v>6.471064800932097</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>82.16844639303726</v>
+        <v>2.087147203820999</v>
       </c>
       <c r="H13">
-        <v>82.45986224225641</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>5.346251596022846</v>
+        <v>5.487215974972919</v>
       </c>
       <c r="K13">
-        <v>20.75760566988386</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>10.696337170757</v>
+        <v>8.795258348212137</v>
       </c>
       <c r="M13">
-        <v>17.91710415951627</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>20.32772392232621</v>
+      </c>
+      <c r="N13">
+        <v>16.65707154779781</v>
+      </c>
+      <c r="O13">
+        <v>43.65621578963624</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>24.30862085938643</v>
+        <v>35.03404859899409</v>
       </c>
       <c r="C14">
-        <v>14.17071871920895</v>
+        <v>19.61967350690151</v>
       </c>
       <c r="D14">
-        <v>9.6025781998328</v>
+        <v>7.932601609437574</v>
       </c>
       <c r="E14">
-        <v>9.398847960545135</v>
+        <v>6.47459182229467</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>81.36530100314117</v>
+        <v>2.090048168044802</v>
       </c>
       <c r="H14">
-        <v>81.67975903601985</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>5.337922708524382</v>
+        <v>5.466458203196326</v>
       </c>
       <c r="K14">
-        <v>20.5213677225827</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>10.58151340273737</v>
+        <v>8.767659357391002</v>
       </c>
       <c r="M14">
-        <v>17.72260593426122</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>20.19652484152039</v>
+      </c>
+      <c r="N14">
+        <v>16.68180217827612</v>
+      </c>
+      <c r="O14">
+        <v>43.40212103843599</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>24.13762790286439</v>
+        <v>34.8478757020468</v>
       </c>
       <c r="C15">
-        <v>14.06537225555324</v>
+        <v>19.4950845690257</v>
       </c>
       <c r="D15">
-        <v>9.547261451674789</v>
+        <v>7.918145590148769</v>
       </c>
       <c r="E15">
-        <v>9.361364148813111</v>
+        <v>6.476772402575593</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>80.87289041024678</v>
+        <v>2.091823475995863</v>
       </c>
       <c r="H15">
-        <v>81.20161511279989</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>5.332868350616687</v>
+        <v>5.453755914029565</v>
       </c>
       <c r="K15">
-        <v>20.37661137626416</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>10.51106736193114</v>
+        <v>8.750888321931098</v>
       </c>
       <c r="M15">
-        <v>17.60333150731652</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>20.11629720552145</v>
+      </c>
+      <c r="N15">
+        <v>16.69711675147682</v>
+      </c>
+      <c r="O15">
+        <v>43.2471364489701</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>23.15566321454713</v>
+        <v>33.77741106622263</v>
       </c>
       <c r="C16">
-        <v>13.46262739453744</v>
+        <v>18.7747455751397</v>
       </c>
       <c r="D16">
-        <v>9.23029891726391</v>
+        <v>7.837131391440058</v>
       </c>
       <c r="E16">
-        <v>9.147794485122891</v>
+        <v>6.48956891981612</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>78.04207162548275</v>
+        <v>2.101979152046177</v>
       </c>
       <c r="H16">
-        <v>78.45497890881838</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>5.304574144924429</v>
+        <v>5.381120897551828</v>
       </c>
       <c r="K16">
-        <v>19.54547518695936</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>10.128559081574</v>
+        <v>8.65678124803998</v>
       </c>
       <c r="M16">
-        <v>16.91713236089839</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>19.65852914199979</v>
+      </c>
+      <c r="N16">
+        <v>16.78732994351546</v>
+      </c>
+      <c r="O16">
+        <v>42.36868337537001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>22.55056133003031</v>
+        <v>33.11730212677651</v>
       </c>
       <c r="C17">
-        <v>13.09302642632094</v>
+        <v>18.32687244284368</v>
       </c>
       <c r="D17">
-        <v>9.035693176163681</v>
+        <v>7.789010985568674</v>
       </c>
       <c r="E17">
-        <v>9.017748408162843</v>
+        <v>6.49767853916617</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>76.29548398361973</v>
+        <v>2.108200426558118</v>
       </c>
       <c r="H17">
-        <v>76.76229270558152</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>5.287759659153815</v>
+        <v>5.336666973945647</v>
       </c>
       <c r="K17">
-        <v>19.03340247512709</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>9.94654413911865</v>
+        <v>8.600778819961659</v>
       </c>
       <c r="M17">
-        <v>16.49321221578347</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>19.3793878730113</v>
+      </c>
+      <c r="N17">
+        <v>16.84476059070391</v>
+      </c>
+      <c r="O17">
+        <v>41.83809132374117</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>22.20122281465207</v>
+        <v>32.73629952166642</v>
       </c>
       <c r="C18">
-        <v>12.8802512888688</v>
+        <v>18.06696831300328</v>
       </c>
       <c r="D18">
-        <v>8.923635688062745</v>
+        <v>7.761894499874776</v>
       </c>
       <c r="E18">
-        <v>8.943261021586572</v>
+        <v>6.502435114230651</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>75.28653435214812</v>
+        <v>2.111778109851202</v>
       </c>
       <c r="H18">
-        <v>75.78521266850416</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>5.278268000971488</v>
+        <v>5.311124261895361</v>
       </c>
       <c r="K18">
-        <v>18.73778192099956</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>9.842362468851402</v>
+        <v>8.569182240640401</v>
       </c>
       <c r="M18">
-        <v>16.2480912325623</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>19.21942468456962</v>
+      </c>
+      <c r="N18">
+        <v>16.87852349317416</v>
+      </c>
+      <c r="O18">
+        <v>41.53583909985704</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>22.0826926633533</v>
+        <v>32.60706555864389</v>
       </c>
       <c r="C19">
-        <v>12.80815464618383</v>
+        <v>17.97856486444396</v>
       </c>
       <c r="D19">
-        <v>8.885667842489813</v>
+        <v>7.752807965060233</v>
       </c>
       <c r="E19">
-        <v>8.918090592823322</v>
+        <v>6.504061156607004</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>74.94411298686714</v>
+        <v>2.112989580879007</v>
       </c>
       <c r="H19">
-        <v>75.45373422486699</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>5.275083388341626</v>
+        <v>5.302479286846537</v>
       </c>
       <c r="K19">
-        <v>18.63747796241956</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>9.807170132126224</v>
+        <v>8.558587857911155</v>
       </c>
       <c r="M19">
-        <v>16.16485727527132</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>19.16536343119842</v>
+      </c>
+      <c r="N19">
+        <v>16.89007718816705</v>
+      </c>
+      <c r="O19">
+        <v>41.43399437632863</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>22.61510346757618</v>
+        <v>33.1877076607846</v>
       </c>
       <c r="C20">
-        <v>13.13238546927784</v>
+        <v>18.37478499188535</v>
       </c>
       <c r="D20">
-        <v>9.056420900158335</v>
+        <v>7.794074996806575</v>
       </c>
       <c r="E20">
-        <v>9.031558841820507</v>
+        <v>6.496805653300432</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>76.48184775399649</v>
+        <v>2.107538283551536</v>
       </c>
       <c r="H20">
-        <v>76.94282969159012</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>5.289530579382599</v>
+        <v>5.341396207141973</v>
       </c>
       <c r="K20">
-        <v>19.08802028828311</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>9.965865942363308</v>
+        <v>8.606676320305034</v>
       </c>
       <c r="M20">
-        <v>16.53846871186481</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>19.40904119855524</v>
+      </c>
+      <c r="N20">
+        <v>16.83857062326245</v>
+      </c>
+      <c r="O20">
+        <v>41.89426789292497</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>24.39059284370078</v>
+        <v>35.12326369684955</v>
       </c>
       <c r="C21">
-        <v>14.22126248222921</v>
+        <v>19.6793088261607</v>
       </c>
       <c r="D21">
-        <v>9.629107695975888</v>
+        <v>7.939566751413415</v>
       </c>
       <c r="E21">
-        <v>9.416846341333049</v>
+        <v>6.473551623450506</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>81.60129537563387</v>
+        <v>2.089196438440224</v>
       </c>
       <c r="H21">
-        <v>81.9089537520758</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>5.340359102903699</v>
+        <v>5.472552585102634</v>
       </c>
       <c r="K21">
-        <v>20.59076579966131</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>10.6152627511329</v>
+        <v>8.775737757543149</v>
       </c>
       <c r="M21">
-        <v>17.77976226234845</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>20.23503268681964</v>
+      </c>
+      <c r="N21">
+        <v>16.67450328136895</v>
+      </c>
+      <c r="O21">
+        <v>43.47661727319839</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>25.54654462241714</v>
+        <v>36.37826702065388</v>
       </c>
       <c r="C22">
-        <v>14.93699620731521</v>
+        <v>20.51380569283514</v>
       </c>
       <c r="D22">
-        <v>10.00388101292735</v>
+        <v>8.040083561824069</v>
       </c>
       <c r="E22">
-        <v>9.672522670530379</v>
+        <v>6.459247975780475</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>84.92457475245605</v>
+        <v>2.07714394587656</v>
       </c>
       <c r="H22">
-        <v>85.13895916067975</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>5.375640949918377</v>
+        <v>5.558792499242141</v>
       </c>
       <c r="K22">
-        <v>21.56970386697574</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>11.08969412220011</v>
+        <v>8.892175167260643</v>
       </c>
       <c r="M22">
-        <v>18.58424128044629</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>20.78085163079732</v>
+      </c>
+      <c r="N22">
+        <v>16.57461838985021</v>
+      </c>
+      <c r="O22">
+        <v>44.53977572049669</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>24.92959853566019</v>
+        <v>35.70924958949905</v>
       </c>
       <c r="C23">
-        <v>14.55430000326263</v>
+        <v>20.06994593799653</v>
       </c>
       <c r="D23">
-        <v>9.803718485631103</v>
+        <v>7.985915950773188</v>
       </c>
       <c r="E23">
-        <v>9.535645340396592</v>
+        <v>6.466796170384841</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>83.15202548440166</v>
+        <v>2.083585702327677</v>
       </c>
       <c r="H23">
-        <v>83.41559610633522</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>5.356595786792533</v>
+        <v>5.5127010853203</v>
       </c>
       <c r="K23">
-        <v>21.04715711872449</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>10.83683170288408</v>
+        <v>8.829460815667257</v>
       </c>
       <c r="M23">
-        <v>18.15523382568869</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>20.48894391225434</v>
+      </c>
+      <c r="N23">
+        <v>16.6272116200823</v>
+      </c>
+      <c r="O23">
+        <v>43.96952932019483</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>22.58592857901714</v>
+        <v>33.15588199889666</v>
       </c>
       <c r="C24">
-        <v>13.11459219753985</v>
+        <v>18.35313127828696</v>
       </c>
       <c r="D24">
-        <v>9.0470504601934</v>
+        <v>7.791783853143102</v>
       </c>
       <c r="E24">
-        <v>9.025314290046731</v>
+        <v>6.497199992178691</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>76.39760784821672</v>
+        <v>2.107837634702742</v>
       </c>
       <c r="H24">
-        <v>76.86122132237539</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>5.288729405290776</v>
+        <v>5.339258078799903</v>
       </c>
       <c r="K24">
-        <v>19.06333145103216</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>9.957129134548628</v>
+        <v>8.604008196573544</v>
       </c>
       <c r="M24">
-        <v>16.5180126703752</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>19.39563332045499</v>
+      </c>
+      <c r="N24">
+        <v>16.84136679498035</v>
+      </c>
+      <c r="O24">
+        <v>41.86886179797622</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>20.00592699176084</v>
+        <v>30.3510449071887</v>
       </c>
       <c r="C25">
-        <v>11.55243403149787</v>
+        <v>16.41242941333596</v>
       </c>
       <c r="D25">
-        <v>8.2257561689766</v>
+        <v>7.603655352513491</v>
       </c>
       <c r="E25">
-        <v>8.486527511492149</v>
+        <v>6.533495105644096</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>68.94063666134772</v>
+        <v>2.133997185694187</v>
       </c>
       <c r="H25">
-        <v>69.65365902967862</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>5.222241097326878</v>
+        <v>5.153064223154351</v>
       </c>
       <c r="K25">
-        <v>16.87960882769054</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>9.204846252903137</v>
+        <v>8.384129170544917</v>
       </c>
       <c r="M25">
-        <v>14.70094265403128</v>
+        <v>18.23897560416949</v>
+      </c>
+      <c r="N25">
+        <v>17.09998145340951</v>
+      </c>
+      <c r="O25">
+        <v>39.71419856474348</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_22/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_22/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>28.23895050776481</v>
+        <v>24.40380468859917</v>
       </c>
       <c r="C2">
-        <v>14.89676228359698</v>
+        <v>12.67505639567606</v>
       </c>
       <c r="D2">
-        <v>7.481500271877889</v>
+        <v>8.053354537379739</v>
       </c>
       <c r="E2">
-        <v>6.56295306704799</v>
+        <v>7.311492140505965</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.153518524571451</v>
+        <v>54.35395237984713</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>16.07831986014754</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>5.015545408938267</v>
+        <v>5.188430772228001</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>8.240202894018067</v>
+        <v>7.804278037042659</v>
       </c>
       <c r="M2">
-        <v>17.40545412353054</v>
+        <v>15.37659452684995</v>
       </c>
       <c r="N2">
-        <v>17.31073609101191</v>
+        <v>14.77372384766108</v>
       </c>
       <c r="O2">
-        <v>38.21263762255924</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>26.77987651359323</v>
+        <v>23.02231234205217</v>
       </c>
       <c r="C3">
-        <v>13.81141694390313</v>
+        <v>11.80857139648945</v>
       </c>
       <c r="D3">
-        <v>7.408095506098775</v>
+        <v>7.96029708674445</v>
       </c>
       <c r="E3">
-        <v>6.584524633761426</v>
+        <v>7.361506881158824</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.167017627098395</v>
+        <v>52.67127590301855</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>15.87090834942105</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>4.921634185226735</v>
+        <v>5.136964305492095</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>8.153001283784484</v>
+        <v>7.709413528567929</v>
       </c>
       <c r="M3">
-        <v>16.85227582110201</v>
+        <v>14.83800021649596</v>
       </c>
       <c r="N3">
-        <v>17.464937118365</v>
+        <v>15.02884117900313</v>
       </c>
       <c r="O3">
-        <v>37.24443427590981</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>25.87181738286652</v>
+        <v>22.14925251804164</v>
       </c>
       <c r="C4">
-        <v>13.14676532669297</v>
+        <v>11.24896466758532</v>
       </c>
       <c r="D4">
-        <v>7.367403563391894</v>
+        <v>7.907585134756742</v>
       </c>
       <c r="E4">
-        <v>6.598538354612557</v>
+        <v>7.393553660448574</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.175469310671819</v>
+        <v>51.66893134523433</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>15.75558075400328</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>4.863505044782597</v>
+        <v>5.105190090510512</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>8.104300274413854</v>
+        <v>7.654874867127315</v>
       </c>
       <c r="M4">
-        <v>16.51877601958723</v>
+        <v>14.50802708275847</v>
       </c>
       <c r="N4">
-        <v>17.56487423252153</v>
+        <v>15.18884231154617</v>
       </c>
       <c r="O4">
-        <v>36.673500191579</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>25.49904027563061</v>
+        <v>21.78755218098544</v>
       </c>
       <c r="C5">
-        <v>12.87519096905128</v>
+        <v>11.01390112411091</v>
       </c>
       <c r="D5">
-        <v>7.351887546742191</v>
+        <v>7.887196975958704</v>
       </c>
       <c r="E5">
-        <v>6.604439364663876</v>
+        <v>7.406951058082427</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.178958518575356</v>
+        <v>51.26839527174892</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>15.71151292778165</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>4.83968540378886</v>
+        <v>5.092190732330769</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>8.085635558098049</v>
+        <v>7.633571685402628</v>
       </c>
       <c r="M5">
-        <v>16.3844981821854</v>
+        <v>14.37389424829585</v>
       </c>
       <c r="N5">
-        <v>17.60687592311355</v>
+        <v>15.25491450121029</v>
       </c>
       <c r="O5">
-        <v>36.44666401046758</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>25.4369870831542</v>
+        <v>21.72714547769817</v>
       </c>
       <c r="C6">
-        <v>12.82973815665923</v>
+        <v>10.97444276355047</v>
       </c>
       <c r="D6">
-        <v>7.349374524696886</v>
+        <v>7.883876900746214</v>
       </c>
       <c r="E6">
-        <v>6.605430639633367</v>
+        <v>7.409196156950168</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.179540732990959</v>
+        <v>51.20237066375545</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>15.70436960463475</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>4.835721857638448</v>
+        <v>5.090028908007834</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>8.082606613657196</v>
+        <v>7.630089655292868</v>
       </c>
       <c r="M6">
-        <v>16.36230220872299</v>
+        <v>14.35164648486545</v>
       </c>
       <c r="N6">
-        <v>17.61392615603957</v>
+        <v>15.26593906503388</v>
       </c>
       <c r="O6">
-        <v>36.40934716434601</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>25.86680055560602</v>
+        <v>22.14439799204695</v>
       </c>
       <c r="C7">
-        <v>13.14312681561278</v>
+        <v>11.24582304416749</v>
       </c>
       <c r="D7">
-        <v>7.367190036915501</v>
+        <v>7.907305777492396</v>
       </c>
       <c r="E7">
-        <v>6.598617170711159</v>
+        <v>7.393732971216892</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.175516179742093</v>
+        <v>51.66349723803015</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>15.75497470639005</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>4.863184354325042</v>
+        <v>5.105014992875578</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>8.104043819074395</v>
+        <v>7.654583847360977</v>
       </c>
       <c r="M7">
-        <v>16.51695840419811</v>
+        <v>14.50621655697199</v>
       </c>
       <c r="N7">
-        <v>17.56543556907751</v>
+        <v>15.18972982563552</v>
       </c>
       <c r="O7">
-        <v>36.67041753776751</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>27.73855717243505</v>
+        <v>23.93278279435517</v>
       </c>
       <c r="C8">
-        <v>14.52862491259231</v>
+        <v>12.38196394569587</v>
       </c>
       <c r="D8">
-        <v>7.455260123730641</v>
+        <v>8.020337611005807</v>
       </c>
       <c r="E8">
-        <v>6.570229425548233</v>
+        <v>7.328460650751251</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.158141701217505</v>
+        <v>53.76746841776472</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>16.00425254209871</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>4.983252580640277</v>
+        <v>5.170716424594976</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>8.209108892480559</v>
+        <v>7.77079263979619</v>
       </c>
       <c r="M8">
-        <v>17.21348328575305</v>
+        <v>15.19082211536332</v>
       </c>
       <c r="N8">
-        <v>17.36278419698366</v>
+        <v>14.86100710381575</v>
       </c>
       <c r="O8">
-        <v>37.87385079927893</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>31.30312391513325</v>
+        <v>27.23306523086817</v>
       </c>
       <c r="C9">
-        <v>17.07901709940123</v>
+        <v>14.39530398641303</v>
       </c>
       <c r="D9">
-        <v>7.66436657413157</v>
+        <v>8.278023303060863</v>
       </c>
       <c r="E9">
-        <v>6.520828813047477</v>
+        <v>7.210998968946848</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.125160614695898</v>
+        <v>58.1316417100061</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>16.5926819001542</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>5.215780813336344</v>
+        <v>5.298564280322245</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>8.455278585798046</v>
+        <v>8.028599633054064</v>
       </c>
       <c r="M9">
-        <v>18.62576709585823</v>
+        <v>16.53341206773478</v>
       </c>
       <c r="N9">
-        <v>17.00950711052692</v>
+        <v>14.24184044928469</v>
       </c>
       <c r="O9">
-        <v>40.42622845931302</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>33.85255917755207</v>
+        <v>29.52406318616507</v>
       </c>
       <c r="C10">
-        <v>18.82554691872183</v>
+        <v>15.7502065232668</v>
       </c>
       <c r="D10">
-        <v>7.842699655259426</v>
+        <v>8.490625381792423</v>
       </c>
       <c r="E10">
-        <v>6.488656262319767</v>
+        <v>7.13102650366961</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.101268989353101</v>
+        <v>61.47857054658051</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>17.09159458249769</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>5.386197813724198</v>
+        <v>5.392510555872975</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>8.663256263103326</v>
+        <v>8.237015820840258</v>
       </c>
       <c r="M10">
-        <v>19.69046305709149</v>
+        <v>17.51388493556614</v>
       </c>
       <c r="N10">
-        <v>16.78087826381761</v>
+        <v>13.8008246540719</v>
       </c>
       <c r="O10">
-        <v>42.42963325178579</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>34.99845981537825</v>
+        <v>30.53704533448983</v>
       </c>
       <c r="C11">
-        <v>19.59587210367625</v>
+        <v>16.3412447152345</v>
       </c>
       <c r="D11">
-        <v>7.929829953302102</v>
+        <v>8.592713777617039</v>
       </c>
       <c r="E11">
-        <v>6.475007626796227</v>
+        <v>7.096001614420132</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.090387751248358</v>
+        <v>63.03211943396544</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>17.33437312306575</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>5.464028427945088</v>
+        <v>5.435417759763445</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>8.764444312876766</v>
+        <v>8.336158348300241</v>
       </c>
       <c r="M11">
-        <v>20.18117490488037</v>
+        <v>17.95788467235299</v>
       </c>
       <c r="N11">
-        <v>16.68472101112938</v>
+        <v>13.60287456589772</v>
       </c>
       <c r="O11">
-        <v>43.37244465046372</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>35.43063786114347</v>
+        <v>30.91649883272902</v>
       </c>
       <c r="C12">
-        <v>19.88444031187845</v>
+        <v>16.5615692307822</v>
       </c>
       <c r="D12">
-        <v>7.963749587671812</v>
+        <v>8.632174234127062</v>
       </c>
       <c r="E12">
-        <v>6.469991438704873</v>
+        <v>7.082932521152038</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.086256955225769</v>
+        <v>63.62501903042129</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>17.42870354281703</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>5.493586326739728</v>
+        <v>5.451706225146757</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>8.803775224157024</v>
+        <v>8.374344347064886</v>
       </c>
       <c r="M12">
-        <v>20.36800914744726</v>
+        <v>18.12569787210471</v>
       </c>
       <c r="N12">
-        <v>16.64955567333161</v>
+        <v>13.52827547833104</v>
       </c>
       <c r="O12">
-        <v>43.73439519283218</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>35.33763321371948</v>
+        <v>30.83495931752556</v>
       </c>
       <c r="C13">
-        <v>19.8224254830541</v>
+        <v>16.51427097721729</v>
       </c>
       <c r="D13">
-        <v>7.956402146282396</v>
+        <v>8.623639551413484</v>
       </c>
       <c r="E13">
-        <v>6.471064800932097</v>
+        <v>7.085738561396986</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.087147203820999</v>
+        <v>63.49711921158367</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>17.40827920349872</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>5.487215974972919</v>
+        <v>5.448196134986166</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>8.795258348212137</v>
+        <v>8.366091355012593</v>
       </c>
       <c r="M13">
-        <v>20.32772392232621</v>
+        <v>18.08957066879834</v>
       </c>
       <c r="N13">
-        <v>16.65707154779781</v>
+        <v>13.5443260485973</v>
       </c>
       <c r="O13">
-        <v>43.65621578963624</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>35.03404859899409</v>
+        <v>30.568345639172</v>
       </c>
       <c r="C14">
-        <v>19.61967350690151</v>
+        <v>16.35943993929754</v>
       </c>
       <c r="D14">
-        <v>7.932601609437574</v>
+        <v>8.595943962860094</v>
       </c>
       <c r="E14">
-        <v>6.47459182229467</v>
+        <v>7.094922525952052</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.090048168044802</v>
+        <v>63.08080413626789</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>17.34208499920517</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>5.466458203196326</v>
+        <v>5.436756911472791</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>8.767659357391002</v>
+        <v>8.33928692041113</v>
       </c>
       <c r="M14">
-        <v>20.19652484152039</v>
+        <v>17.97169723677271</v>
       </c>
       <c r="N14">
-        <v>16.68180217827612</v>
+        <v>13.59673015861228</v>
       </c>
       <c r="O14">
-        <v>43.40212103843599</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>34.8478757020468</v>
+        <v>30.40450057844684</v>
       </c>
       <c r="C15">
-        <v>19.4950845690257</v>
+        <v>16.26415189121967</v>
       </c>
       <c r="D15">
-        <v>7.918145590148769</v>
+        <v>8.579084964063798</v>
       </c>
       <c r="E15">
-        <v>6.476772402575593</v>
+        <v>7.100573226250232</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.091823475995863</v>
+        <v>62.82640494221804</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>17.30185488841936</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>5.453755914029565</v>
+        <v>5.429755835998832</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>8.750888321931098</v>
+        <v>8.322952812230451</v>
       </c>
       <c r="M15">
-        <v>20.11629720552145</v>
+        <v>17.89945434284492</v>
       </c>
       <c r="N15">
-        <v>16.69711675147682</v>
+        <v>13.62887545638572</v>
       </c>
       <c r="O15">
-        <v>43.2471364489701</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>33.77741106622263</v>
+        <v>29.4572783871452</v>
       </c>
       <c r="C16">
-        <v>18.7747455751397</v>
+        <v>15.71108395990888</v>
       </c>
       <c r="D16">
-        <v>7.837131391440058</v>
+        <v>8.484064196444589</v>
       </c>
       <c r="E16">
-        <v>6.48956891981612</v>
+        <v>7.133342654691092</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.101979152046177</v>
+        <v>61.37767643355899</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>17.07605680725769</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>5.381120897551828</v>
+        <v>5.389711208502113</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>8.65678124803998</v>
+        <v>8.230625412536449</v>
       </c>
       <c r="M16">
-        <v>19.65852914199979</v>
+        <v>17.4848246621069</v>
       </c>
       <c r="N16">
-        <v>16.78732994351546</v>
+        <v>13.81381280930285</v>
       </c>
       <c r="O16">
-        <v>42.36868337537001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>33.11730212677651</v>
+        <v>28.86873083334147</v>
       </c>
       <c r="C17">
-        <v>18.32687244284368</v>
+        <v>15.36541367676523</v>
       </c>
       <c r="D17">
-        <v>7.789010985568674</v>
+        <v>8.427167945166996</v>
       </c>
       <c r="E17">
-        <v>6.49767853916617</v>
+        <v>7.153792030029877</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.108200426558118</v>
+        <v>60.49694094520179</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>16.94167106994802</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>5.336666973945647</v>
+        <v>5.365199412567089</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>8.600778819961659</v>
+        <v>8.175108145899957</v>
       </c>
       <c r="M17">
-        <v>19.3793878730113</v>
+        <v>17.22991493598886</v>
       </c>
       <c r="N17">
-        <v>16.84476059070391</v>
+        <v>13.92793219577885</v>
       </c>
       <c r="O17">
-        <v>41.83809132374117</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>32.73629952166642</v>
+        <v>28.52745762178333</v>
       </c>
       <c r="C18">
-        <v>18.06696831300328</v>
+        <v>15.16420062626703</v>
       </c>
       <c r="D18">
-        <v>7.761894499874776</v>
+        <v>8.394946675471406</v>
       </c>
       <c r="E18">
-        <v>6.502435114230651</v>
+        <v>7.165681536087708</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.111778109851202</v>
+        <v>59.9932695824668</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>16.86585725383546</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>5.311124261895361</v>
+        <v>5.351115848954103</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>8.569182240640401</v>
+        <v>8.143582522728401</v>
       </c>
       <c r="M18">
-        <v>19.21942468456962</v>
+        <v>17.08310721993405</v>
       </c>
       <c r="N18">
-        <v>16.87852349317416</v>
+        <v>13.9938232775568</v>
       </c>
       <c r="O18">
-        <v>41.53583909985704</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>32.60706555864389</v>
+        <v>28.41143419528312</v>
       </c>
       <c r="C19">
-        <v>17.97856486444396</v>
+        <v>15.0956580657058</v>
       </c>
       <c r="D19">
-        <v>7.752807965060233</v>
+        <v>8.38412284466283</v>
       </c>
       <c r="E19">
-        <v>6.504061156607004</v>
+        <v>7.169729057033761</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.112989580879007</v>
+        <v>59.82323129925452</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>16.84043893668041</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>5.302479286846537</v>
+        <v>5.346349520684305</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>8.558587857911155</v>
+        <v>8.132977757421855</v>
       </c>
       <c r="M19">
-        <v>19.16536343119842</v>
+        <v>17.0333693135573</v>
       </c>
       <c r="N19">
-        <v>16.89007718816705</v>
+        <v>14.01617701577741</v>
       </c>
       <c r="O19">
-        <v>41.43399437632863</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>33.1877076607846</v>
+        <v>28.93166775101686</v>
       </c>
       <c r="C20">
-        <v>18.37478499188535</v>
+        <v>15.40245745572272</v>
       </c>
       <c r="D20">
-        <v>7.794074996806575</v>
+        <v>8.433172294970714</v>
       </c>
       <c r="E20">
-        <v>6.496805653300432</v>
+        <v>7.151601963158319</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.107538283551536</v>
+        <v>60.59039544798129</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>16.95582251789565</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>5.341396207141973</v>
+        <v>5.36780707761134</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>8.606676320305034</v>
+        <v>8.18097585844875</v>
       </c>
       <c r="M20">
-        <v>19.40904119855524</v>
+        <v>17.25707051925553</v>
       </c>
       <c r="N20">
-        <v>16.83857062326245</v>
+        <v>13.91575802560676</v>
       </c>
       <c r="O20">
-        <v>41.89426789292497</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>35.12326369684955</v>
+        <v>30.64676815232058</v>
       </c>
       <c r="C21">
-        <v>19.6793088261607</v>
+        <v>16.4050109630493</v>
       </c>
       <c r="D21">
-        <v>7.939566751413415</v>
+        <v>8.604056816071346</v>
       </c>
       <c r="E21">
-        <v>6.473551623450506</v>
+        <v>7.092219710321211</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.089196438440224</v>
+        <v>63.20295929730152</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>17.36146180575063</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>5.472552585102634</v>
+        <v>5.440115652485247</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>8.775737757543149</v>
+        <v>8.347142405884991</v>
       </c>
       <c r="M21">
-        <v>20.23503268681964</v>
+        <v>18.00632828649632</v>
       </c>
       <c r="N21">
-        <v>16.67450328136895</v>
+        <v>13.58132819735417</v>
       </c>
       <c r="O21">
-        <v>43.47661727319839</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>36.37826702065388</v>
+        <v>31.75112712562088</v>
       </c>
       <c r="C22">
-        <v>20.51380569283514</v>
+        <v>17.03998515156461</v>
       </c>
       <c r="D22">
-        <v>8.040083561824069</v>
+        <v>8.720429997835232</v>
       </c>
       <c r="E22">
-        <v>6.459247975780475</v>
+        <v>7.054541083365448</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.07714394587656</v>
+        <v>64.93740900991428</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>17.64059905530353</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>5.558792499242141</v>
+        <v>5.487618382332455</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>8.892175167260643</v>
+        <v>8.459501546962329</v>
       </c>
       <c r="M22">
-        <v>20.78085163079732</v>
+        <v>18.49415514722401</v>
       </c>
       <c r="N22">
-        <v>16.57461838985021</v>
+        <v>13.36485039474267</v>
       </c>
       <c r="O22">
-        <v>44.53977572049669</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>35.70924958949905</v>
+        <v>31.16037622883523</v>
       </c>
       <c r="C23">
-        <v>20.06994593799653</v>
+        <v>16.70288599803404</v>
       </c>
       <c r="D23">
-        <v>7.985915950773188</v>
+        <v>8.657879535891498</v>
       </c>
       <c r="E23">
-        <v>6.466796170384841</v>
+        <v>7.074547540255738</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.083585702327677</v>
+        <v>64.009153440513</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>17.49029128854869</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>5.5127010853203</v>
+        <v>5.462236970039752</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>8.829460815667257</v>
+        <v>8.399181621408504</v>
       </c>
       <c r="M23">
-        <v>20.48894391225434</v>
+        <v>18.23396443931376</v>
       </c>
       <c r="N23">
-        <v>16.6272116200823</v>
+        <v>13.48020435209319</v>
       </c>
       <c r="O23">
-        <v>43.96952932019483</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>33.15588199889666</v>
+        <v>28.90322303630995</v>
       </c>
       <c r="C24">
-        <v>18.35313127828696</v>
+        <v>15.38571770720775</v>
       </c>
       <c r="D24">
-        <v>7.791783853143102</v>
+        <v>8.430456206976416</v>
       </c>
       <c r="E24">
-        <v>6.497199992178691</v>
+        <v>7.152591678410721</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.107837634702742</v>
+        <v>60.54813634401312</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>16.94942015220533</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>5.339258078799903</v>
+        <v>5.366628126644444</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>8.604008196573544</v>
+        <v>8.178321846070315</v>
       </c>
       <c r="M24">
-        <v>19.39563332045499</v>
+        <v>17.24479427709462</v>
       </c>
       <c r="N24">
-        <v>16.84136679498035</v>
+        <v>13.92126108673455</v>
       </c>
       <c r="O24">
-        <v>41.86886179797622</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>30.3510449071887</v>
+        <v>26.36344431997002</v>
       </c>
       <c r="C25">
-        <v>16.41242941333596</v>
+        <v>13.87298402298087</v>
       </c>
       <c r="D25">
-        <v>7.603655352513491</v>
+        <v>8.204322779528091</v>
       </c>
       <c r="E25">
-        <v>6.533495105644096</v>
+        <v>7.241657997450271</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.133997185694187</v>
+        <v>56.92620035174409</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>16.42223581598208</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>5.153064223154351</v>
+        <v>5.264025095752004</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>8.384129170544917</v>
+        <v>7.95557814638647</v>
       </c>
       <c r="M25">
-        <v>18.23897560416949</v>
+        <v>16.17090244524443</v>
       </c>
       <c r="N25">
-        <v>17.09998145340951</v>
+        <v>14.4067862439826</v>
       </c>
       <c r="O25">
-        <v>39.71419856474348</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_22/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_22/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.40380468859917</v>
+        <v>25.93855173630075</v>
       </c>
       <c r="C2">
-        <v>12.67505639567606</v>
+        <v>7.281048931762184</v>
       </c>
       <c r="D2">
-        <v>8.053354537379739</v>
+        <v>12.81472341064355</v>
       </c>
       <c r="E2">
-        <v>7.311492140505965</v>
+        <v>12.46156716183474</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>54.35395237984713</v>
+        <v>66.66898528846623</v>
       </c>
       <c r="H2">
-        <v>16.07831986014754</v>
+        <v>23.6134587998259</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>5.188430772228001</v>
+        <v>7.805370772747803</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>7.804278037042659</v>
+        <v>12.90968755769887</v>
       </c>
       <c r="M2">
-        <v>15.37659452684995</v>
+        <v>21.68533418851077</v>
       </c>
       <c r="N2">
-        <v>14.77372384766108</v>
+        <v>22.56163371710123</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.02231234205217</v>
+        <v>25.69182149556792</v>
       </c>
       <c r="C3">
-        <v>11.80857139648945</v>
+        <v>6.909330383966485</v>
       </c>
       <c r="D3">
-        <v>7.96029708674445</v>
+        <v>12.83149741986555</v>
       </c>
       <c r="E3">
-        <v>7.361506881158824</v>
+        <v>12.48250287686244</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>52.67127590301855</v>
+        <v>66.53820328437678</v>
       </c>
       <c r="H3">
-        <v>15.87090834942105</v>
+        <v>23.64253773236256</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>5.136964305492095</v>
+        <v>7.791883255362388</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>7.709413528567929</v>
+        <v>12.92510626394327</v>
       </c>
       <c r="M3">
-        <v>14.83800021649596</v>
+        <v>21.65132401001095</v>
       </c>
       <c r="N3">
-        <v>15.02884117900313</v>
+        <v>22.63129885194341</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.14925251804164</v>
+        <v>25.54586903253012</v>
       </c>
       <c r="C4">
-        <v>11.24896466758532</v>
+        <v>6.67242734240467</v>
       </c>
       <c r="D4">
-        <v>7.907585134756742</v>
+        <v>12.84377687596253</v>
       </c>
       <c r="E4">
-        <v>7.393553660448574</v>
+        <v>12.49610575424739</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>51.66893134523433</v>
+        <v>66.4751484562546</v>
       </c>
       <c r="H4">
-        <v>15.75558075400328</v>
+        <v>23.6648869339852</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>5.105190090510512</v>
+        <v>7.783383981621722</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>7.654874867127315</v>
+        <v>12.93639489805079</v>
       </c>
       <c r="M4">
-        <v>14.50802708275847</v>
+        <v>21.63462894771272</v>
       </c>
       <c r="N4">
-        <v>15.18884231154617</v>
+        <v>22.67609245782819</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.78755218098544</v>
+        <v>25.4878466240949</v>
       </c>
       <c r="C5">
-        <v>11.01390112411091</v>
+        <v>6.573841302988503</v>
       </c>
       <c r="D5">
-        <v>7.887196975958704</v>
+        <v>12.8492785794027</v>
       </c>
       <c r="E5">
-        <v>7.406951058082427</v>
+        <v>12.50183770669634</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>51.26839527174892</v>
+        <v>66.45379611712264</v>
       </c>
       <c r="H5">
-        <v>15.71151292778165</v>
+        <v>23.67512220337397</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>5.092190732330769</v>
+        <v>7.779865596793141</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>7.633571685402628</v>
+        <v>12.94145328109762</v>
       </c>
       <c r="M5">
-        <v>14.37389424829585</v>
+        <v>21.62888311933336</v>
       </c>
       <c r="N5">
-        <v>15.25491450121029</v>
+        <v>22.69485507474165</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.72714547769817</v>
+        <v>25.47830161649043</v>
       </c>
       <c r="C6">
-        <v>10.97444276355047</v>
+        <v>6.557351908486068</v>
       </c>
       <c r="D6">
-        <v>7.883876900746214</v>
+        <v>12.85022218714429</v>
       </c>
       <c r="E6">
-        <v>7.409196156950168</v>
+        <v>12.5028009033015</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>51.20237066375545</v>
+        <v>66.45051298784578</v>
       </c>
       <c r="H6">
-        <v>15.70436960463475</v>
+        <v>23.67688980145436</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>5.090028908007834</v>
+        <v>7.779278055962719</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>7.630089655292868</v>
+        <v>12.94232089728915</v>
       </c>
       <c r="M6">
-        <v>14.35164648486545</v>
+        <v>21.6279930216823</v>
       </c>
       <c r="N6">
-        <v>15.26593906503388</v>
+        <v>22.69800136168992</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.14439799204695</v>
+        <v>25.54508055478894</v>
       </c>
       <c r="C7">
-        <v>11.24582304416749</v>
+        <v>6.671105869236051</v>
       </c>
       <c r="D7">
-        <v>7.907305777492396</v>
+        <v>12.84384905890584</v>
       </c>
       <c r="E7">
-        <v>7.393732971216892</v>
+        <v>12.49618229276344</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>51.66349723803015</v>
+        <v>66.47484290141603</v>
       </c>
       <c r="H7">
-        <v>15.75497470639005</v>
+        <v>23.6650204075479</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>5.105014992875578</v>
+        <v>7.783336753681207</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>7.654583847360977</v>
+        <v>12.93646126191271</v>
       </c>
       <c r="M7">
-        <v>14.50621655697199</v>
+        <v>21.63454717003315</v>
       </c>
       <c r="N7">
-        <v>15.18972982563552</v>
+        <v>22.67634343517949</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.93278279435517</v>
+        <v>25.85236667708597</v>
       </c>
       <c r="C8">
-        <v>12.38196394569587</v>
+        <v>7.154752354197578</v>
       </c>
       <c r="D8">
-        <v>8.020337611005807</v>
+        <v>12.82009601058805</v>
       </c>
       <c r="E8">
-        <v>7.328460650751251</v>
+        <v>12.46863080283379</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>53.76746841776472</v>
+        <v>66.62031738203943</v>
       </c>
       <c r="H8">
-        <v>16.00425254209871</v>
+        <v>23.62255097904882</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>5.170716424594976</v>
+        <v>7.800765452695443</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>7.77079263979619</v>
+        <v>12.91462598171944</v>
       </c>
       <c r="M8">
-        <v>15.19082211536332</v>
+        <v>21.67274138507576</v>
       </c>
       <c r="N8">
-        <v>14.86100710381575</v>
+        <v>22.58523594082799</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.23306523086817</v>
+        <v>26.4961007965651</v>
       </c>
       <c r="C9">
-        <v>14.39530398641303</v>
+        <v>8.029599759403579</v>
       </c>
       <c r="D9">
-        <v>8.278023303060863</v>
+        <v>12.78923505594732</v>
       </c>
       <c r="E9">
-        <v>7.210998968946848</v>
+        <v>12.42051630621096</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>58.1316417100061</v>
+        <v>67.04196499098084</v>
       </c>
       <c r="H9">
-        <v>16.5926819001542</v>
+        <v>23.57503043448321</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>5.298564280322245</v>
+        <v>7.833218481896048</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>8.028599633054064</v>
+        <v>12.88625216441348</v>
       </c>
       <c r="M9">
-        <v>16.53341206773478</v>
+        <v>21.78063160020079</v>
       </c>
       <c r="N9">
-        <v>14.24184044928469</v>
+        <v>22.42253857663123</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>29.52406318616507</v>
+        <v>26.99020832511087</v>
       </c>
       <c r="C10">
-        <v>15.7502065232668</v>
+        <v>8.62227382650571</v>
       </c>
       <c r="D10">
-        <v>8.490625381792423</v>
+        <v>12.77615115256752</v>
       </c>
       <c r="E10">
-        <v>7.13102650366961</v>
+        <v>12.38873951543222</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>61.47857054658051</v>
+        <v>67.4339962553161</v>
       </c>
       <c r="H10">
-        <v>17.09159458249769</v>
+        <v>23.56204037163194</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>5.392510555872975</v>
+        <v>7.856017517743505</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>8.237015820840258</v>
+        <v>12.87420004191777</v>
       </c>
       <c r="M10">
-        <v>17.51388493556614</v>
+        <v>21.87965449413405</v>
       </c>
       <c r="N10">
-        <v>13.8008246540719</v>
+        <v>22.31265810248163</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>30.53704533448983</v>
+        <v>27.21871711683113</v>
       </c>
       <c r="C11">
-        <v>16.3412447152345</v>
+        <v>8.880216812965665</v>
       </c>
       <c r="D11">
-        <v>8.592713777617039</v>
+        <v>12.77228114155153</v>
       </c>
       <c r="E11">
-        <v>7.096001614420132</v>
+        <v>12.37505241127177</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>63.03211943396544</v>
+        <v>67.62992172715278</v>
       </c>
       <c r="H11">
-        <v>17.33437312306575</v>
+        <v>23.56091124583913</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>5.435417759763445</v>
+        <v>7.866164206158206</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>8.336158348300241</v>
+        <v>12.87062292472435</v>
       </c>
       <c r="M11">
-        <v>17.95788467235299</v>
+        <v>21.9289009025211</v>
       </c>
       <c r="N11">
-        <v>13.60287456589772</v>
+        <v>22.26475006883747</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>30.91649883272902</v>
+        <v>27.30571090109926</v>
       </c>
       <c r="C12">
-        <v>16.5615692307822</v>
+        <v>8.976163782881272</v>
       </c>
       <c r="D12">
-        <v>8.632174234127062</v>
+        <v>12.77111484806308</v>
       </c>
       <c r="E12">
-        <v>7.082932521152038</v>
+        <v>12.36997942560767</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>63.62501903042129</v>
+        <v>67.70661223283494</v>
       </c>
       <c r="H12">
-        <v>17.42870354281703</v>
+        <v>23.56117205611853</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>5.451706225146757</v>
+        <v>7.869974261562307</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>8.374344347064886</v>
+        <v>12.86954188641384</v>
       </c>
       <c r="M12">
-        <v>18.12569787210471</v>
+        <v>21.94814424557268</v>
       </c>
       <c r="N12">
-        <v>13.52827547833104</v>
+        <v>22.24690605083865</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>30.83495931752556</v>
+        <v>27.28695585804311</v>
       </c>
       <c r="C13">
-        <v>16.51427097721729</v>
+        <v>8.955577583401377</v>
       </c>
       <c r="D13">
-        <v>8.623639551413484</v>
+        <v>12.77135272734982</v>
       </c>
       <c r="E13">
-        <v>7.085738561396986</v>
+        <v>12.37106709777552</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>63.49711921158367</v>
+        <v>67.68998501449735</v>
       </c>
       <c r="H13">
-        <v>17.40827920349872</v>
+        <v>23.5610852573758</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>5.448196134986166</v>
+        <v>7.86915513284667</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>8.366091355012593</v>
+        <v>12.86976254987262</v>
       </c>
       <c r="M13">
-        <v>18.08957066879834</v>
+        <v>21.94397354791393</v>
       </c>
       <c r="N13">
-        <v>13.5443260485973</v>
+        <v>22.2507358537515</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>30.568345639172</v>
+        <v>27.22586530860271</v>
       </c>
       <c r="C14">
-        <v>16.35943993929754</v>
+        <v>8.888145375516649</v>
       </c>
       <c r="D14">
-        <v>8.595943962860094</v>
+        <v>12.77217919494073</v>
       </c>
       <c r="E14">
-        <v>7.094922525952052</v>
+        <v>12.37463285126596</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>63.08080413626789</v>
+        <v>67.63618123648189</v>
       </c>
       <c r="H14">
-        <v>17.34208499920517</v>
+        <v>23.56091890202758</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>5.436756911472791</v>
+        <v>7.866478308349271</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>8.33928692041113</v>
+        <v>12.87052850786803</v>
       </c>
       <c r="M14">
-        <v>17.97169723677271</v>
+        <v>21.93047219864984</v>
       </c>
       <c r="N14">
-        <v>13.59673015861228</v>
+        <v>22.26327606961401</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.40450057844684</v>
+        <v>27.18850358523187</v>
       </c>
       <c r="C15">
-        <v>16.26415189121967</v>
+        <v>8.846614451126493</v>
       </c>
       <c r="D15">
-        <v>8.579084964063798</v>
+        <v>12.77272438727238</v>
       </c>
       <c r="E15">
-        <v>7.100573226250232</v>
+        <v>12.37683129300534</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>62.82640494221804</v>
+        <v>67.60354915125137</v>
       </c>
       <c r="H15">
-        <v>17.30185488841936</v>
+        <v>23.56090667680081</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>5.429755835998832</v>
+        <v>7.864834473922934</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>8.322952812230451</v>
+        <v>12.87103328693824</v>
       </c>
       <c r="M15">
-        <v>17.89945434284492</v>
+        <v>21.92227940675879</v>
       </c>
       <c r="N15">
-        <v>13.62887545638572</v>
+        <v>22.2709960565268</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.4572783871452</v>
+        <v>26.97534353502755</v>
       </c>
       <c r="C16">
-        <v>15.71108395990888</v>
+        <v>8.605177135073832</v>
       </c>
       <c r="D16">
-        <v>8.484064196444589</v>
+        <v>12.77644594709986</v>
       </c>
       <c r="E16">
-        <v>7.133342654691092</v>
+        <v>12.38964942100547</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>61.37767643355899</v>
+        <v>67.42154339841736</v>
       </c>
       <c r="H16">
-        <v>17.07605680725769</v>
+        <v>23.56221044509468</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>5.389711208502113</v>
+        <v>7.855349889360235</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>8.230625412536449</v>
+        <v>12.87447211968044</v>
       </c>
       <c r="M16">
-        <v>17.4848246621069</v>
+        <v>21.87651987702309</v>
       </c>
       <c r="N16">
-        <v>13.81381280930285</v>
+        <v>22.31583071867147</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>28.86873083334147</v>
+        <v>26.84548062804306</v>
       </c>
       <c r="C17">
-        <v>15.36541367676523</v>
+        <v>8.454034135362457</v>
       </c>
       <c r="D17">
-        <v>8.427167945166996</v>
+        <v>12.779262134432</v>
       </c>
       <c r="E17">
-        <v>7.153792030029877</v>
+        <v>12.39770938345923</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>60.49694094520179</v>
+        <v>67.31437255536025</v>
       </c>
       <c r="H17">
-        <v>16.94167106994802</v>
+        <v>23.56423539561496</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>5.365199412567089</v>
+        <v>7.849473878425939</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>8.175108145899957</v>
+        <v>12.87706945929462</v>
       </c>
       <c r="M17">
-        <v>17.22991493598886</v>
+        <v>21.84951738394438</v>
       </c>
       <c r="N17">
-        <v>13.92793219577885</v>
+        <v>22.3438666369237</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>28.52745762178333</v>
+        <v>26.77114315305297</v>
       </c>
       <c r="C18">
-        <v>15.16420062626703</v>
+        <v>8.366004939066066</v>
       </c>
       <c r="D18">
-        <v>8.394946675471406</v>
+        <v>12.78107790825644</v>
       </c>
       <c r="E18">
-        <v>7.165681536087708</v>
+        <v>12.40241760554647</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>59.9932695824668</v>
+        <v>67.25438838025821</v>
       </c>
       <c r="H18">
-        <v>16.86585725383546</v>
+        <v>23.56584998237829</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>5.351115848954103</v>
+        <v>7.84607299976596</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>8.143582522728401</v>
+        <v>12.87874276333743</v>
       </c>
       <c r="M18">
-        <v>17.08310721993405</v>
+        <v>21.83438222364431</v>
       </c>
       <c r="N18">
-        <v>13.9938232775568</v>
+        <v>22.36018772343297</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.41143419528312</v>
+        <v>26.74603722306474</v>
       </c>
       <c r="C19">
-        <v>15.0956580657058</v>
+        <v>8.336013342132045</v>
       </c>
       <c r="D19">
-        <v>8.38412284466283</v>
+        <v>12.78172636134343</v>
       </c>
       <c r="E19">
-        <v>7.169729057033761</v>
+        <v>12.40402416801615</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>59.82323129925452</v>
+        <v>67.23436436326998</v>
       </c>
       <c r="H19">
-        <v>16.84043893668041</v>
+        <v>23.56647388605519</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>5.346349520684305</v>
+        <v>7.844917886533058</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>8.132977757421855</v>
+        <v>12.8793401373756</v>
       </c>
       <c r="M19">
-        <v>17.0333693135573</v>
+        <v>21.82932599372523</v>
       </c>
       <c r="N19">
-        <v>14.01617701577741</v>
+        <v>22.36574738191007</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>28.93166775101686</v>
+        <v>26.85926842936557</v>
       </c>
       <c r="C20">
-        <v>15.40245745572272</v>
+        <v>8.470237383749915</v>
       </c>
       <c r="D20">
-        <v>8.433172294970714</v>
+        <v>12.7789420646054</v>
       </c>
       <c r="E20">
-        <v>7.151601963158319</v>
+        <v>12.39684390262955</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>60.59039544798129</v>
+        <v>67.32560972813934</v>
       </c>
       <c r="H20">
-        <v>16.95582251789565</v>
+        <v>23.56397326619324</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>5.36780707761134</v>
+        <v>7.850101578741691</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>8.18097585844875</v>
+        <v>12.87677440574747</v>
       </c>
       <c r="M20">
-        <v>17.25707051925553</v>
+        <v>21.85235092969391</v>
       </c>
       <c r="N20">
-        <v>13.91575802560676</v>
+        <v>22.34086193230156</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>30.64676815232058</v>
+        <v>27.24379712992094</v>
       </c>
       <c r="C21">
-        <v>16.4050109630493</v>
+        <v>8.907999184566382</v>
       </c>
       <c r="D21">
-        <v>8.604056816071346</v>
+        <v>12.77192832321869</v>
       </c>
       <c r="E21">
-        <v>7.092219710321211</v>
+        <v>12.37358252065988</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>63.20295929730152</v>
+        <v>67.65191719192192</v>
       </c>
       <c r="H21">
-        <v>17.36146180575063</v>
+        <v>23.56094907568755</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>5.440115652485247</v>
+        <v>7.86726543224855</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>8.347142405884991</v>
+        <v>12.87029610776505</v>
       </c>
       <c r="M21">
-        <v>18.00632828649632</v>
+        <v>21.93442180657604</v>
       </c>
       <c r="N21">
-        <v>13.58132819735417</v>
+        <v>22.2595846320189</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>31.75112712562088</v>
+        <v>27.49776975750614</v>
       </c>
       <c r="C22">
-        <v>17.03998515156461</v>
+        <v>9.183997655818057</v>
       </c>
       <c r="D22">
-        <v>8.720429997835232</v>
+        <v>12.76908822668843</v>
       </c>
       <c r="E22">
-        <v>7.054541083365448</v>
+        <v>12.35902095484134</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>64.93740900991428</v>
+        <v>67.87971953622437</v>
       </c>
       <c r="H22">
-        <v>17.64059905530353</v>
+        <v>23.56298525515818</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>5.487618382332455</v>
+        <v>7.878294893204271</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>8.459501546962329</v>
+        <v>12.86765628622645</v>
       </c>
       <c r="M22">
-        <v>18.49415514722401</v>
+        <v>21.9915220267736</v>
       </c>
       <c r="N22">
-        <v>13.36485039474267</v>
+        <v>22.20820008847101</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.16037622883523</v>
+        <v>27.36200105531922</v>
       </c>
       <c r="C23">
-        <v>16.70288599803404</v>
+        <v>9.037631551462619</v>
       </c>
       <c r="D23">
-        <v>8.657879535891498</v>
+        <v>12.77044456788231</v>
       </c>
       <c r="E23">
-        <v>7.074547540255738</v>
+        <v>12.36673422720715</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>64.009153440513</v>
+        <v>67.75681801459072</v>
       </c>
       <c r="H23">
-        <v>17.49029128854869</v>
+        <v>23.56153110444071</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>5.462236970039752</v>
+        <v>7.872425462674261</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>8.399181621408504</v>
+        <v>12.86891951975222</v>
       </c>
       <c r="M23">
-        <v>18.23396443931376</v>
+        <v>21.96073300498399</v>
       </c>
       <c r="N23">
-        <v>13.48020435209319</v>
+        <v>22.23546656263386</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>28.90322303630995</v>
+        <v>26.85303395430309</v>
       </c>
       <c r="C24">
-        <v>15.38571770720775</v>
+        <v>8.462915426608951</v>
       </c>
       <c r="D24">
-        <v>8.430456206976416</v>
+        <v>12.77908615544459</v>
       </c>
       <c r="E24">
-        <v>7.152591678410721</v>
+        <v>12.39723495460313</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>60.54813634401312</v>
+        <v>67.32052432337476</v>
       </c>
       <c r="H24">
-        <v>16.94942015220533</v>
+        <v>23.56409037193325</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>5.366628126644444</v>
+        <v>7.849817866086685</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>8.178321846070315</v>
+        <v>12.87690723856179</v>
       </c>
       <c r="M24">
-        <v>17.24479427709462</v>
+        <v>21.85106867147666</v>
       </c>
       <c r="N24">
-        <v>13.92126108673455</v>
+        <v>22.34221972724708</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.36344431997002</v>
+        <v>26.31794719926099</v>
       </c>
       <c r="C25">
-        <v>13.87298402298087</v>
+        <v>7.801407630033966</v>
       </c>
       <c r="D25">
-        <v>8.204322779528091</v>
+        <v>12.79589988773857</v>
       </c>
       <c r="E25">
-        <v>7.241657997450271</v>
+        <v>12.43290278925087</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>56.92620035174409</v>
+        <v>66.91337310750069</v>
       </c>
       <c r="H25">
-        <v>16.42223581598208</v>
+        <v>23.58404362717862</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>5.264025095752004</v>
+        <v>7.8246229555873</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>7.95557814638647</v>
+        <v>12.89238254295334</v>
       </c>
       <c r="M25">
-        <v>16.17090244524443</v>
+        <v>21.74794622920801</v>
       </c>
       <c r="N25">
-        <v>14.4067862439826</v>
+        <v>22.46485168076452</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_22/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_22/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.93855173630075</v>
+        <v>24.40380468859915</v>
       </c>
       <c r="C2">
-        <v>7.281048931762184</v>
+        <v>12.67505639567602</v>
       </c>
       <c r="D2">
-        <v>12.81472341064355</v>
+        <v>8.053354537379843</v>
       </c>
       <c r="E2">
-        <v>12.46156716183474</v>
+        <v>7.311492140505964</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>66.66898528846623</v>
+        <v>54.35395237984706</v>
       </c>
       <c r="H2">
-        <v>23.6134587998259</v>
+        <v>16.07831986014753</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>7.805370772747803</v>
+        <v>5.188430772227937</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>12.90968755769887</v>
+        <v>7.804278037042669</v>
       </c>
       <c r="M2">
-        <v>21.68533418851077</v>
+        <v>15.37659452684994</v>
       </c>
       <c r="N2">
-        <v>22.56163371710123</v>
+        <v>14.77372384766104</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>25.69182149556792</v>
+        <v>23.02231234205217</v>
       </c>
       <c r="C3">
-        <v>6.909330383966485</v>
+        <v>11.80857139648942</v>
       </c>
       <c r="D3">
-        <v>12.83149741986555</v>
+        <v>7.960297086744436</v>
       </c>
       <c r="E3">
-        <v>12.48250287686244</v>
+        <v>7.361506881158819</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>66.53820328437678</v>
+        <v>52.67127590301867</v>
       </c>
       <c r="H3">
-        <v>23.64253773236256</v>
+        <v>15.87090834942109</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>7.791883255362388</v>
+        <v>5.136964305492129</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>12.92510626394327</v>
+        <v>7.709413528567927</v>
       </c>
       <c r="M3">
-        <v>21.65132401001095</v>
+        <v>14.83800021649598</v>
       </c>
       <c r="N3">
-        <v>22.63129885194341</v>
+        <v>15.02884117900317</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>25.54586903253012</v>
+        <v>22.1492525180416</v>
       </c>
       <c r="C4">
-        <v>6.67242734240467</v>
+        <v>11.24896466758536</v>
       </c>
       <c r="D4">
-        <v>12.84377687596253</v>
+        <v>7.907585134757047</v>
       </c>
       <c r="E4">
-        <v>12.49610575424739</v>
+        <v>7.393553660448637</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>66.4751484562546</v>
+        <v>51.66893134523396</v>
       </c>
       <c r="H4">
-        <v>23.6648869339852</v>
+        <v>15.75558075400326</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>7.783383981621722</v>
+        <v>5.105190090510315</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>12.93639489805079</v>
+        <v>7.65487486712724</v>
       </c>
       <c r="M4">
-        <v>21.63462894771272</v>
+        <v>14.5080270827584</v>
       </c>
       <c r="N4">
-        <v>22.67609245782819</v>
+        <v>15.18884231154613</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>25.4878466240949</v>
+        <v>21.78755218098539</v>
       </c>
       <c r="C5">
-        <v>6.573841302988503</v>
+        <v>11.013901124111</v>
       </c>
       <c r="D5">
-        <v>12.8492785794027</v>
+        <v>7.887196975958635</v>
       </c>
       <c r="E5">
-        <v>12.50183770669634</v>
+        <v>7.406951058082494</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>66.45379611712264</v>
+        <v>51.26839527174882</v>
       </c>
       <c r="H5">
-        <v>23.67512220337397</v>
+        <v>15.71151292778165</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>7.779865596793141</v>
+        <v>5.092190732330771</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>12.94145328109762</v>
+        <v>7.633571685402629</v>
       </c>
       <c r="M5">
-        <v>21.62888311933336</v>
+        <v>14.37389424829584</v>
       </c>
       <c r="N5">
-        <v>22.69485507474165</v>
+        <v>15.25491450121029</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>25.47830161649043</v>
+        <v>21.72714547769814</v>
       </c>
       <c r="C6">
-        <v>6.557351908486068</v>
+        <v>10.97444276355057</v>
       </c>
       <c r="D6">
-        <v>12.85022218714429</v>
+        <v>7.883876900746316</v>
       </c>
       <c r="E6">
-        <v>12.5028009033015</v>
+        <v>7.409196156950235</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>66.45051298784578</v>
+        <v>51.20237066375515</v>
       </c>
       <c r="H6">
-        <v>23.67688980145436</v>
+        <v>15.70436960463468</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>7.779278055962719</v>
+        <v>5.090028908007866</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>12.94232089728915</v>
+        <v>7.630089655292813</v>
       </c>
       <c r="M6">
-        <v>21.6279930216823</v>
+        <v>14.35164648486543</v>
       </c>
       <c r="N6">
-        <v>22.69800136168992</v>
+        <v>15.26593906503384</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>25.54508055478894</v>
+        <v>22.14439799204695</v>
       </c>
       <c r="C7">
-        <v>6.671105869236051</v>
+        <v>11.24582304416753</v>
       </c>
       <c r="D7">
-        <v>12.84384905890584</v>
+        <v>7.907305777492338</v>
       </c>
       <c r="E7">
-        <v>12.49618229276344</v>
+        <v>7.393732971216826</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>66.47484290141603</v>
+        <v>51.66349723803012</v>
       </c>
       <c r="H7">
-        <v>23.6650204075479</v>
+        <v>15.75497470639005</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>7.783336753681207</v>
+        <v>5.105014992875543</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>12.93646126191271</v>
+        <v>7.654583847360925</v>
       </c>
       <c r="M7">
-        <v>21.63454717003315</v>
+        <v>14.50621655697198</v>
       </c>
       <c r="N7">
-        <v>22.67634343517949</v>
+        <v>15.18972982563549</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.85236667708597</v>
+        <v>23.93278279435515</v>
       </c>
       <c r="C8">
-        <v>7.154752354197578</v>
+        <v>12.38196394569599</v>
       </c>
       <c r="D8">
-        <v>12.82009601058805</v>
+        <v>8.020337611005916</v>
       </c>
       <c r="E8">
-        <v>12.46863080283379</v>
+        <v>7.328460650751451</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>66.62031738203943</v>
+        <v>53.76746841776474</v>
       </c>
       <c r="H8">
-        <v>23.62255097904882</v>
+        <v>16.00425254209868</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>7.800765452695443</v>
+        <v>5.170716424595038</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>12.91462598171944</v>
+        <v>7.770792639796244</v>
       </c>
       <c r="M8">
-        <v>21.67274138507576</v>
+        <v>15.19082211536334</v>
       </c>
       <c r="N8">
-        <v>22.58523594082799</v>
+        <v>14.86100710381579</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>26.4961007965651</v>
+        <v>27.23306523086816</v>
       </c>
       <c r="C9">
-        <v>8.029599759403579</v>
+        <v>14.39530398641289</v>
       </c>
       <c r="D9">
-        <v>12.78923505594732</v>
+        <v>8.278023303060893</v>
       </c>
       <c r="E9">
-        <v>12.42051630621096</v>
+        <v>7.210998968946781</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>67.04196499098084</v>
+        <v>58.13164171000628</v>
       </c>
       <c r="H9">
-        <v>23.57503043448321</v>
+        <v>16.59268190015424</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>7.833218481896048</v>
+        <v>5.298564280322216</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>12.88625216441348</v>
+        <v>8.028599633054155</v>
       </c>
       <c r="M9">
-        <v>21.78063160020079</v>
+        <v>16.53341206773479</v>
       </c>
       <c r="N9">
-        <v>22.42253857663123</v>
+        <v>14.24184044928481</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.99020832511087</v>
+        <v>29.52406318616509</v>
       </c>
       <c r="C10">
-        <v>8.62227382650571</v>
+        <v>15.75020652326689</v>
       </c>
       <c r="D10">
-        <v>12.77615115256752</v>
+        <v>8.490625381792414</v>
       </c>
       <c r="E10">
-        <v>12.38873951543222</v>
+        <v>7.131026503669675</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>67.4339962553161</v>
+        <v>61.47857054658048</v>
       </c>
       <c r="H10">
-        <v>23.56204037163194</v>
+        <v>17.09159458249768</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>7.856017517743505</v>
+        <v>5.392510555873005</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>12.87420004191777</v>
+        <v>8.237015820840238</v>
       </c>
       <c r="M10">
-        <v>21.87965449413405</v>
+        <v>17.51388493556616</v>
       </c>
       <c r="N10">
-        <v>22.31265810248163</v>
+        <v>13.80082465407193</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.21871711683113</v>
+        <v>30.53704533448983</v>
       </c>
       <c r="C11">
-        <v>8.880216812965665</v>
+        <v>16.34124471523437</v>
       </c>
       <c r="D11">
-        <v>12.77228114155153</v>
+        <v>8.592713777617043</v>
       </c>
       <c r="E11">
-        <v>12.37505241127177</v>
+        <v>7.096001614420191</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>67.62992172715278</v>
+        <v>63.03211943396554</v>
       </c>
       <c r="H11">
-        <v>23.56091124583913</v>
+        <v>17.33437312306582</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>7.866164206158206</v>
+        <v>5.435417759763475</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>12.87062292472435</v>
+        <v>8.336158348300307</v>
       </c>
       <c r="M11">
-        <v>21.9289009025211</v>
+        <v>17.95788467235302</v>
       </c>
       <c r="N11">
-        <v>22.26475006883747</v>
+        <v>13.60287456589779</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.30571090109926</v>
+        <v>30.91649883272903</v>
       </c>
       <c r="C12">
-        <v>8.976163782881272</v>
+        <v>16.56156923078211</v>
       </c>
       <c r="D12">
-        <v>12.77111484806308</v>
+        <v>8.632174234126991</v>
       </c>
       <c r="E12">
-        <v>12.36997942560767</v>
+        <v>7.082932521151982</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>67.70661223283494</v>
+        <v>63.62501903042129</v>
       </c>
       <c r="H12">
-        <v>23.56117205611853</v>
+        <v>17.42870354281703</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>7.869974261562307</v>
+        <v>5.451706225146688</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>12.86954188641384</v>
+        <v>8.374344347064893</v>
       </c>
       <c r="M12">
-        <v>21.94814424557268</v>
+        <v>18.12569787210472</v>
       </c>
       <c r="N12">
-        <v>22.24690605083865</v>
+        <v>13.52827547833093</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.28695585804311</v>
+        <v>30.83495931752561</v>
       </c>
       <c r="C13">
-        <v>8.955577583401377</v>
+        <v>16.51427097721735</v>
       </c>
       <c r="D13">
-        <v>12.77135272734982</v>
+        <v>8.623639551413422</v>
       </c>
       <c r="E13">
-        <v>12.37106709777552</v>
+        <v>7.085738561397051</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>67.68998501449735</v>
+        <v>63.49711921158375</v>
       </c>
       <c r="H13">
-        <v>23.5610852573758</v>
+        <v>17.40827920349862</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>7.86915513284667</v>
+        <v>5.448196134986234</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>12.86976254987262</v>
+        <v>8.366091355012585</v>
       </c>
       <c r="M13">
-        <v>21.94397354791393</v>
+        <v>18.08957066879833</v>
       </c>
       <c r="N13">
-        <v>22.2507358537515</v>
+        <v>13.54432604859721</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.22586530860271</v>
+        <v>30.56834563917199</v>
       </c>
       <c r="C14">
-        <v>8.888145375516649</v>
+        <v>16.35943993929745</v>
       </c>
       <c r="D14">
-        <v>12.77217919494073</v>
+        <v>8.595943962860005</v>
       </c>
       <c r="E14">
-        <v>12.37463285126596</v>
+        <v>7.094922525952109</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>67.63618123648189</v>
+        <v>63.08080413626789</v>
       </c>
       <c r="H14">
-        <v>23.56091890202758</v>
+        <v>17.34208499920517</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>7.866478308349271</v>
+        <v>5.436756911472826</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>12.87052850786803</v>
+        <v>8.3392869204111</v>
       </c>
       <c r="M14">
-        <v>21.93047219864984</v>
+        <v>17.97169723677269</v>
       </c>
       <c r="N14">
-        <v>22.26327606961401</v>
+        <v>13.5967301586123</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.18850358523187</v>
+        <v>30.40450057844683</v>
       </c>
       <c r="C15">
-        <v>8.846614451126493</v>
+        <v>16.26415189121932</v>
       </c>
       <c r="D15">
-        <v>12.77272438727238</v>
+        <v>8.579084964063567</v>
       </c>
       <c r="E15">
-        <v>12.37683129300534</v>
+        <v>7.100573226250042</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>67.60354915125137</v>
+        <v>62.826404942218</v>
       </c>
       <c r="H15">
-        <v>23.56090667680081</v>
+        <v>17.30185488841935</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>7.864834473922934</v>
+        <v>5.429755835998831</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>12.87103328693824</v>
+        <v>8.322952812230474</v>
       </c>
       <c r="M15">
-        <v>21.92227940675879</v>
+        <v>17.89945434284491</v>
       </c>
       <c r="N15">
-        <v>22.2709960565268</v>
+        <v>13.62887545638574</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.97534353502755</v>
+        <v>29.45727838714517</v>
       </c>
       <c r="C16">
-        <v>8.605177135073832</v>
+        <v>15.71108395990879</v>
       </c>
       <c r="D16">
-        <v>12.77644594709986</v>
+        <v>8.484064196444612</v>
       </c>
       <c r="E16">
-        <v>12.38964942100547</v>
+        <v>7.133342654691027</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>67.42154339841736</v>
+        <v>61.37767643355904</v>
       </c>
       <c r="H16">
-        <v>23.56221044509468</v>
+        <v>17.07605680725775</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>7.855349889360235</v>
+        <v>5.389711208502081</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>12.87447211968044</v>
+        <v>8.230625412536488</v>
       </c>
       <c r="M16">
-        <v>21.87651987702309</v>
+        <v>17.48482466210692</v>
       </c>
       <c r="N16">
-        <v>22.31583071867147</v>
+        <v>13.81381280930288</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.84548062804306</v>
+        <v>28.86873083334148</v>
       </c>
       <c r="C17">
-        <v>8.454034135362457</v>
+        <v>15.36541367676514</v>
       </c>
       <c r="D17">
-        <v>12.779262134432</v>
+        <v>8.427167945167083</v>
       </c>
       <c r="E17">
-        <v>12.39770938345923</v>
+        <v>7.153792030029879</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>67.31437255536025</v>
+        <v>60.49694094520169</v>
       </c>
       <c r="H17">
-        <v>23.56423539561496</v>
+        <v>16.94167106994795</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>7.849473878425939</v>
+        <v>5.365199412567089</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>12.87706945929462</v>
+        <v>8.175108145899992</v>
       </c>
       <c r="M17">
-        <v>21.84951738394438</v>
+        <v>17.22991493598886</v>
       </c>
       <c r="N17">
-        <v>22.3438666369237</v>
+        <v>13.92793219577881</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.77114315305297</v>
+        <v>28.52745762178331</v>
       </c>
       <c r="C18">
-        <v>8.366004939066066</v>
+        <v>15.16420062626718</v>
       </c>
       <c r="D18">
-        <v>12.78107790825644</v>
+        <v>8.394946675471333</v>
       </c>
       <c r="E18">
-        <v>12.40241760554647</v>
+        <v>7.165681536087838</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>67.25438838025821</v>
+        <v>59.99326958246664</v>
       </c>
       <c r="H18">
-        <v>23.56584998237829</v>
+        <v>16.8658572538354</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>7.84607299976596</v>
+        <v>5.351115848954271</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>12.87874276333743</v>
+        <v>8.143582522728467</v>
       </c>
       <c r="M18">
-        <v>21.83438222364431</v>
+        <v>17.08310721993405</v>
       </c>
       <c r="N18">
-        <v>22.36018772343297</v>
+        <v>13.99382327755671</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>26.74603722306474</v>
+        <v>28.41143419528312</v>
       </c>
       <c r="C19">
-        <v>8.336013342132045</v>
+        <v>15.0956580657058</v>
       </c>
       <c r="D19">
-        <v>12.78172636134343</v>
+        <v>8.384122844662851</v>
       </c>
       <c r="E19">
-        <v>12.40402416801615</v>
+        <v>7.169729057033761</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>67.23436436326998</v>
+        <v>59.82323129925452</v>
       </c>
       <c r="H19">
-        <v>23.56647388605519</v>
+        <v>16.84043893668052</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>7.844917886533058</v>
+        <v>5.346349520684339</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>12.8793401373756</v>
+        <v>8.132977757421886</v>
       </c>
       <c r="M19">
-        <v>21.82932599372523</v>
+        <v>17.03336931355734</v>
       </c>
       <c r="N19">
-        <v>22.36574738191007</v>
+        <v>14.01617701577747</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.85926842936557</v>
+        <v>28.93166775101685</v>
       </c>
       <c r="C20">
-        <v>8.470237383749915</v>
+        <v>15.40245745572268</v>
       </c>
       <c r="D20">
-        <v>12.7789420646054</v>
+        <v>8.433172294970495</v>
       </c>
       <c r="E20">
-        <v>12.39684390262955</v>
+        <v>7.151601963158055</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>67.32560972813934</v>
+        <v>60.59039544798141</v>
       </c>
       <c r="H20">
-        <v>23.56397326619324</v>
+        <v>16.95582251789567</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>7.850101578741691</v>
+        <v>5.367807077611309</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>12.87677440574747</v>
+        <v>8.180975858448683</v>
       </c>
       <c r="M20">
-        <v>21.85235092969391</v>
+        <v>17.25707051925552</v>
       </c>
       <c r="N20">
-        <v>22.34086193230156</v>
+        <v>13.91575802560682</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.24379712992094</v>
+        <v>30.64676815232059</v>
       </c>
       <c r="C21">
-        <v>8.907999184566382</v>
+        <v>16.40501096304926</v>
       </c>
       <c r="D21">
-        <v>12.77192832321869</v>
+        <v>8.604056816071367</v>
       </c>
       <c r="E21">
-        <v>12.37358252065988</v>
+        <v>7.09221971032122</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>67.65191719192192</v>
+        <v>63.20295929730159</v>
       </c>
       <c r="H21">
-        <v>23.56094907568755</v>
+        <v>17.36146180575063</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>7.86726543224855</v>
+        <v>5.44011565248518</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>12.87029610776505</v>
+        <v>8.347142405884981</v>
       </c>
       <c r="M21">
-        <v>21.93442180657604</v>
+        <v>18.00632828649634</v>
       </c>
       <c r="N21">
-        <v>22.2595846320189</v>
+        <v>13.58132819735418</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.49776975750614</v>
+        <v>31.75112712562087</v>
       </c>
       <c r="C22">
-        <v>9.183997655818057</v>
+        <v>17.03998515156449</v>
       </c>
       <c r="D22">
-        <v>12.76908822668843</v>
+        <v>8.720429997835188</v>
       </c>
       <c r="E22">
-        <v>12.35902095484134</v>
+        <v>7.054541083365383</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>67.87971953622437</v>
+        <v>64.93740900991429</v>
       </c>
       <c r="H22">
-        <v>23.56298525515818</v>
+        <v>17.64059905530355</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>7.878294893204271</v>
+        <v>5.487618382332355</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>12.86765628622645</v>
+        <v>8.459501546962317</v>
       </c>
       <c r="M22">
-        <v>21.9915220267736</v>
+        <v>18.49415514722401</v>
       </c>
       <c r="N22">
-        <v>22.20820008847101</v>
+        <v>13.36485039474266</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.36200105531922</v>
+        <v>31.16037622883526</v>
       </c>
       <c r="C23">
-        <v>9.037631551462619</v>
+        <v>16.70288599803404</v>
       </c>
       <c r="D23">
-        <v>12.77044456788231</v>
+        <v>8.657879535891448</v>
       </c>
       <c r="E23">
-        <v>12.36673422720715</v>
+        <v>7.07454754025561</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>67.75681801459072</v>
+        <v>64.00915344051315</v>
       </c>
       <c r="H23">
-        <v>23.56153110444071</v>
+        <v>17.49029128854866</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>7.872425462674261</v>
+        <v>5.46223697003972</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>12.86891951975222</v>
+        <v>8.399181621408431</v>
       </c>
       <c r="M23">
-        <v>21.96073300498399</v>
+        <v>18.23396443931374</v>
       </c>
       <c r="N23">
-        <v>22.23546656263386</v>
+        <v>13.48020435209317</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.85303395430309</v>
+        <v>28.90322303630993</v>
       </c>
       <c r="C24">
-        <v>8.462915426608951</v>
+        <v>15.38571770720792</v>
       </c>
       <c r="D24">
-        <v>12.77908615544459</v>
+        <v>8.430456206976544</v>
       </c>
       <c r="E24">
-        <v>12.39723495460313</v>
+        <v>7.152591678410905</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>67.32052432337476</v>
+        <v>60.5481363440133</v>
       </c>
       <c r="H24">
-        <v>23.56409037193325</v>
+        <v>16.94942015220541</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>7.849817866086685</v>
+        <v>5.366628126644416</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>12.87690723856179</v>
+        <v>8.178321846070316</v>
       </c>
       <c r="M24">
-        <v>21.85106867147666</v>
+        <v>17.24479427709466</v>
       </c>
       <c r="N24">
-        <v>22.34221972724708</v>
+        <v>13.92126108673465</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.31794719926099</v>
+        <v>26.36344431997</v>
       </c>
       <c r="C25">
-        <v>7.801407630033966</v>
+        <v>13.87298402298102</v>
       </c>
       <c r="D25">
-        <v>12.79589988773857</v>
+        <v>8.204322779528129</v>
       </c>
       <c r="E25">
-        <v>12.43290278925087</v>
+        <v>7.24165799745034</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>66.91337310750069</v>
+        <v>56.92620035174401</v>
       </c>
       <c r="H25">
-        <v>23.58404362717862</v>
+        <v>16.42223581598204</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>7.8246229555873</v>
+        <v>5.264025095752008</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>12.89238254295334</v>
+        <v>7.955578146386443</v>
       </c>
       <c r="M25">
-        <v>21.74794622920801</v>
+        <v>16.17090244524443</v>
       </c>
       <c r="N25">
-        <v>22.46485168076452</v>
+        <v>14.40678624398257</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_22/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_22/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.40380468859915</v>
+        <v>18.58774763331595</v>
       </c>
       <c r="C2">
-        <v>12.67505639567602</v>
+        <v>11.51052932100086</v>
       </c>
       <c r="D2">
-        <v>8.053354537379843</v>
+        <v>8.86780722082136</v>
       </c>
       <c r="E2">
-        <v>7.311492140505964</v>
+        <v>8.614674021403911</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>54.35395237984706</v>
+        <v>27.05486271994679</v>
       </c>
       <c r="H2">
-        <v>16.07831986014753</v>
+        <v>2.650423730756352</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>3.059730101537977</v>
       </c>
       <c r="J2">
-        <v>5.188430772227937</v>
+        <v>9.997292419679683</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>15.86507160833476</v>
       </c>
       <c r="L2">
-        <v>7.804278037042669</v>
+        <v>5.621096484382026</v>
       </c>
       <c r="M2">
-        <v>15.37659452684994</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>14.77372384766104</v>
+        <v>7.558537509493343</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>12.62583573886797</v>
+      </c>
+      <c r="P2">
+        <v>13.04121353220286</v>
+      </c>
+      <c r="Q2">
+        <v>16.8774942277076</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.02231234205217</v>
+        <v>17.41023507126117</v>
       </c>
       <c r="C3">
-        <v>11.80857139648942</v>
+        <v>10.98737833398436</v>
       </c>
       <c r="D3">
-        <v>7.960297086744436</v>
+        <v>8.704726065101907</v>
       </c>
       <c r="E3">
-        <v>7.361506881158819</v>
+        <v>8.563487504510746</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>52.67127590301867</v>
+        <v>26.4304228359971</v>
       </c>
       <c r="H3">
-        <v>15.87090834942109</v>
+        <v>2.850584589563791</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>3.209860226671449</v>
       </c>
       <c r="J3">
-        <v>5.136964305492129</v>
+        <v>9.968682360629849</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>15.90048686331879</v>
       </c>
       <c r="L3">
-        <v>7.709413528567927</v>
+        <v>5.550114484108661</v>
       </c>
       <c r="M3">
-        <v>14.83800021649598</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>15.02884117900317</v>
+        <v>7.385560717506802</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>12.07575401609377</v>
+      </c>
+      <c r="P3">
+        <v>13.13272983344697</v>
+      </c>
+      <c r="Q3">
+        <v>16.70718579917529</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.1492525180416</v>
+        <v>16.64343669036259</v>
       </c>
       <c r="C4">
-        <v>11.24896466758536</v>
+        <v>10.6542906158593</v>
       </c>
       <c r="D4">
-        <v>7.907585134757047</v>
+        <v>8.605168312883436</v>
       </c>
       <c r="E4">
-        <v>7.393553660448637</v>
+        <v>8.531277273048408</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>51.66893134523396</v>
+        <v>26.0505999927536</v>
       </c>
       <c r="H4">
-        <v>15.75558075400326</v>
+        <v>2.978063325885814</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>3.306271784448895</v>
       </c>
       <c r="J4">
-        <v>5.105190090510315</v>
+        <v>9.954075765076741</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>15.92655640817202</v>
       </c>
       <c r="L4">
-        <v>7.65487486712724</v>
+        <v>5.505114922989411</v>
       </c>
       <c r="M4">
-        <v>14.5080270827584</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>15.18884231154613</v>
+        <v>7.278184148376539</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>11.72539869905996</v>
+      </c>
+      <c r="P4">
+        <v>13.1912374815842</v>
+      </c>
+      <c r="Q4">
+        <v>16.60771933013606</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.78755218098539</v>
+        <v>16.31523789623056</v>
       </c>
       <c r="C5">
-        <v>11.013901124111</v>
+        <v>10.52189141641258</v>
       </c>
       <c r="D5">
-        <v>7.887196975958635</v>
+        <v>8.564062223964473</v>
       </c>
       <c r="E5">
-        <v>7.406951058082494</v>
+        <v>8.517239399174141</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>51.26839527174882</v>
+        <v>25.88609033089736</v>
       </c>
       <c r="H5">
-        <v>15.71151292778165</v>
+        <v>3.031482171050241</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>3.349332110218976</v>
       </c>
       <c r="J5">
-        <v>5.092190732330771</v>
+        <v>9.947050989024522</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>15.93395388037923</v>
       </c>
       <c r="L5">
-        <v>7.633571685402629</v>
+        <v>5.486416430046146</v>
       </c>
       <c r="M5">
-        <v>14.37389424829584</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>15.25491450121029</v>
+        <v>7.235161412628132</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>11.57878581410469</v>
+      </c>
+      <c r="P5">
+        <v>13.21612745513152</v>
+      </c>
+      <c r="Q5">
+        <v>16.56396563681427</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.72714547769814</v>
+        <v>16.25426069046312</v>
       </c>
       <c r="C6">
-        <v>10.97444276355057</v>
+        <v>10.50737002301926</v>
       </c>
       <c r="D6">
-        <v>7.883876900746316</v>
+        <v>8.556367528042978</v>
       </c>
       <c r="E6">
-        <v>7.409196156950235</v>
+        <v>8.514025575593484</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>51.20237066375515</v>
+        <v>25.84563016933117</v>
       </c>
       <c r="H6">
-        <v>15.70436960463468</v>
+        <v>3.040794297931026</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>3.360016177841738</v>
       </c>
       <c r="J6">
-        <v>5.090028908007866</v>
+        <v>9.94372058175764</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>15.93000790740722</v>
       </c>
       <c r="L6">
-        <v>7.630089655292813</v>
+        <v>5.483289035297548</v>
       </c>
       <c r="M6">
-        <v>14.35164648486543</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>15.26593906503384</v>
+        <v>7.229211320543549</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>11.55324042851271</v>
+      </c>
+      <c r="P6">
+        <v>13.22087734641118</v>
+      </c>
+      <c r="Q6">
+        <v>16.55126389940031</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.14439799204695</v>
+        <v>16.62352779319765</v>
       </c>
       <c r="C7">
-        <v>11.24582304416753</v>
+        <v>10.67307763289266</v>
       </c>
       <c r="D7">
-        <v>7.907305777492338</v>
+        <v>8.602226310221281</v>
       </c>
       <c r="E7">
-        <v>7.393732971216826</v>
+        <v>8.528733024172441</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>51.66349723803012</v>
+        <v>26.01256835177911</v>
       </c>
       <c r="H7">
-        <v>15.75497470639005</v>
+        <v>2.979774535630998</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>3.3160293503635</v>
       </c>
       <c r="J7">
-        <v>5.105014992875543</v>
+        <v>9.947963153954577</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>15.91236181429465</v>
       </c>
       <c r="L7">
-        <v>7.654583847360925</v>
+        <v>5.504873827758572</v>
       </c>
       <c r="M7">
-        <v>14.50621655697198</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>15.18972982563549</v>
+        <v>7.280880713602146</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>11.72067359798136</v>
+      </c>
+      <c r="P7">
+        <v>13.19322554012736</v>
+      </c>
+      <c r="Q7">
+        <v>16.59212379738426</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.93278279435515</v>
+        <v>18.17184813644666</v>
       </c>
       <c r="C8">
-        <v>12.38196394569599</v>
+        <v>11.35857581793229</v>
       </c>
       <c r="D8">
-        <v>8.020337611005916</v>
+        <v>8.808417211717206</v>
       </c>
       <c r="E8">
-        <v>7.328460650751451</v>
+        <v>8.59416410148935</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>53.76746841776474</v>
+        <v>26.79289537960813</v>
       </c>
       <c r="H8">
-        <v>16.00425254209868</v>
+        <v>2.719737227636534</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>3.122371703605586</v>
       </c>
       <c r="J8">
-        <v>5.170716424595038</v>
+        <v>9.978919636475679</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>15.8575390471918</v>
       </c>
       <c r="L8">
-        <v>7.770792639796244</v>
+        <v>5.596973885458999</v>
       </c>
       <c r="M8">
-        <v>15.19082211536334</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>14.86100710381579</v>
+        <v>7.503392548244009</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>12.43539332059845</v>
+      </c>
+      <c r="P8">
+        <v>13.07475619344631</v>
+      </c>
+      <c r="Q8">
+        <v>16.7981698677327</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.23306523086816</v>
+        <v>20.88413339786465</v>
       </c>
       <c r="C9">
-        <v>14.39530398641289</v>
+        <v>12.57123040227998</v>
       </c>
       <c r="D9">
-        <v>8.278023303060893</v>
+        <v>9.219664869956725</v>
       </c>
       <c r="E9">
-        <v>7.210998968946781</v>
+        <v>8.720459537680656</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>58.13164171000628</v>
+        <v>28.40585067242117</v>
       </c>
       <c r="H9">
-        <v>16.59268190015424</v>
+        <v>2.24382214673262</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>2.760730943073577</v>
       </c>
       <c r="J9">
-        <v>5.298564280322216</v>
+        <v>10.07427219725267</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>15.81113696322515</v>
       </c>
       <c r="L9">
-        <v>8.028599633054155</v>
+        <v>5.76641142854707</v>
       </c>
       <c r="M9">
-        <v>16.53341206773479</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>14.24184044928481</v>
+        <v>7.923067343341613</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>13.73543830800165</v>
+      </c>
+      <c r="P9">
+        <v>12.8576757901516</v>
+      </c>
+      <c r="Q9">
+        <v>17.26875282176168</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>29.52406318616509</v>
+        <v>22.61984203911474</v>
       </c>
       <c r="C10">
-        <v>15.75020652326689</v>
+        <v>13.43253073410242</v>
       </c>
       <c r="D10">
-        <v>8.490625381792414</v>
+        <v>9.467345680973024</v>
       </c>
       <c r="E10">
-        <v>7.131026503669675</v>
+        <v>8.766680258582621</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>61.47857054658048</v>
+        <v>29.41747808977906</v>
       </c>
       <c r="H10">
-        <v>17.09159458249768</v>
+        <v>1.94424667569516</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>2.525789793735803</v>
       </c>
       <c r="J10">
-        <v>5.392510555873005</v>
+        <v>10.12792956253986</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>15.73790210258771</v>
       </c>
       <c r="L10">
-        <v>8.237015820840238</v>
+        <v>5.896762396301112</v>
       </c>
       <c r="M10">
-        <v>17.51388493556616</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>13.80082465407193</v>
+        <v>8.154027650209409</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>14.55145621853242</v>
+      </c>
+      <c r="P10">
+        <v>12.72311398065895</v>
+      </c>
+      <c r="Q10">
+        <v>17.56089705907936</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>30.53704533448983</v>
+        <v>23.02229058133906</v>
       </c>
       <c r="C11">
-        <v>16.34124471523437</v>
+        <v>14.04724694701888</v>
       </c>
       <c r="D11">
-        <v>8.592713777617043</v>
+        <v>9.120650232770869</v>
       </c>
       <c r="E11">
-        <v>7.096001614420191</v>
+        <v>8.485426252321385</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>63.03211943396554</v>
+        <v>28.43523227589501</v>
       </c>
       <c r="H11">
-        <v>17.33437312306582</v>
+        <v>2.878951745600406</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>2.521801435614514</v>
       </c>
       <c r="J11">
-        <v>5.435417759763475</v>
+        <v>9.895216395336291</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>15.20703643673203</v>
       </c>
       <c r="L11">
-        <v>8.336158348300307</v>
+        <v>6.093447078351347</v>
       </c>
       <c r="M11">
-        <v>17.95788467235302</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>13.60287456589779</v>
+        <v>7.668075803667058</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>14.32940203009677</v>
+      </c>
+      <c r="P11">
+        <v>12.78619942085467</v>
+      </c>
+      <c r="Q11">
+        <v>17.06325798682266</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>30.91649883272903</v>
+        <v>23.02386399455257</v>
       </c>
       <c r="C12">
-        <v>16.56156923078211</v>
+        <v>14.36745236589647</v>
       </c>
       <c r="D12">
-        <v>8.632174234126991</v>
+        <v>8.77623957920461</v>
       </c>
       <c r="E12">
-        <v>7.082932521151982</v>
+        <v>8.333373216769074</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>63.62501903042129</v>
+        <v>27.41958928730742</v>
       </c>
       <c r="H12">
-        <v>17.42870354281703</v>
+        <v>4.22729810699241</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>2.53079575843041</v>
       </c>
       <c r="J12">
-        <v>5.451706225146688</v>
+        <v>9.691826191495498</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>14.79673379202316</v>
       </c>
       <c r="L12">
-        <v>8.374344347064893</v>
+        <v>6.272347841952873</v>
       </c>
       <c r="M12">
-        <v>18.12569787210472</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>13.52827547833093</v>
+        <v>7.21746172214605</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>13.96836156380351</v>
+      </c>
+      <c r="P12">
+        <v>12.87879071888095</v>
+      </c>
+      <c r="Q12">
+        <v>16.59257361177325</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>30.83495931752561</v>
+        <v>22.69947709280384</v>
       </c>
       <c r="C13">
-        <v>16.51427097721735</v>
+        <v>14.51402011632517</v>
       </c>
       <c r="D13">
-        <v>8.623639551413422</v>
+        <v>8.40641752532448</v>
       </c>
       <c r="E13">
-        <v>7.085738561397051</v>
+        <v>8.270417390720596</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>63.49711921158375</v>
+        <v>26.24734939024447</v>
       </c>
       <c r="H13">
-        <v>17.40827920349862</v>
+        <v>5.636989115395898</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>2.505325671882801</v>
       </c>
       <c r="J13">
-        <v>5.448196134986234</v>
+        <v>9.488853424228033</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>14.43401028389466</v>
       </c>
       <c r="L13">
-        <v>8.366091355012585</v>
+        <v>6.444395180157357</v>
       </c>
       <c r="M13">
-        <v>18.08957066879833</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>13.54432604859721</v>
+        <v>6.77103347150689</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>13.46628164600475</v>
+      </c>
+      <c r="P13">
+        <v>12.9980388629458</v>
+      </c>
+      <c r="Q13">
+        <v>16.08767957025788</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>30.56834563917199</v>
+        <v>22.31646811020351</v>
       </c>
       <c r="C14">
-        <v>16.35943993929745</v>
+        <v>14.54522667495307</v>
       </c>
       <c r="D14">
-        <v>8.595943962860005</v>
+        <v>8.13568750418006</v>
       </c>
       <c r="E14">
-        <v>7.094922525952109</v>
+        <v>8.279517933673516</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>63.08080413626789</v>
+        <v>25.34007915315321</v>
       </c>
       <c r="H14">
-        <v>17.34208499920517</v>
+        <v>6.640789998969534</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>2.550767301679827</v>
       </c>
       <c r="J14">
-        <v>5.436756911472826</v>
+        <v>9.345935551202519</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>14.20175893306335</v>
       </c>
       <c r="L14">
-        <v>8.3392869204111</v>
+        <v>6.564951111512849</v>
       </c>
       <c r="M14">
-        <v>17.97169723677269</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>13.5967301586123</v>
+        <v>6.466439990338728</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>13.0445989108913</v>
+      </c>
+      <c r="P14">
+        <v>13.0943365064779</v>
+      </c>
+      <c r="Q14">
+        <v>15.71474157441241</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.40450057844683</v>
+        <v>22.14738827058019</v>
       </c>
       <c r="C15">
-        <v>16.26415189121932</v>
+        <v>14.52245290724784</v>
       </c>
       <c r="D15">
-        <v>8.579084964063567</v>
+        <v>8.064117547385997</v>
       </c>
       <c r="E15">
-        <v>7.100573226250042</v>
+        <v>8.287796435698136</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>62.826404942218</v>
+        <v>25.07565963899703</v>
       </c>
       <c r="H15">
-        <v>17.30185488841935</v>
+        <v>6.87536099820896</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>2.576005626837611</v>
       </c>
       <c r="J15">
-        <v>5.429755835998831</v>
+        <v>9.309977106223085</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>14.15149158542827</v>
       </c>
       <c r="L15">
-        <v>8.322952812230474</v>
+        <v>6.587963434429637</v>
       </c>
       <c r="M15">
-        <v>17.89945434284491</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>13.62887545638574</v>
+        <v>6.392677722823267</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>12.91072312209506</v>
+      </c>
+      <c r="P15">
+        <v>13.12246285169138</v>
+      </c>
+      <c r="Q15">
+        <v>15.61313251242961</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.45727838714517</v>
+        <v>21.47142786456294</v>
       </c>
       <c r="C16">
-        <v>15.71108395990879</v>
+        <v>14.1578891994346</v>
       </c>
       <c r="D16">
-        <v>8.484064196444612</v>
+        <v>8.025261676561774</v>
       </c>
       <c r="E16">
-        <v>7.133342654691027</v>
+        <v>8.275099362457357</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>61.37767643355904</v>
+        <v>24.81484785882863</v>
       </c>
       <c r="H16">
-        <v>17.07605680725775</v>
+        <v>6.683458792796404</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>2.67531395712501</v>
       </c>
       <c r="J16">
-        <v>5.389711208502081</v>
+        <v>9.322965278025361</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>14.25120004351125</v>
       </c>
       <c r="L16">
-        <v>8.230625412536488</v>
+        <v>6.496196387516527</v>
       </c>
       <c r="M16">
-        <v>17.48482466210692</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>13.81381280930288</v>
+        <v>6.378846962702012</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>12.64336256979777</v>
+      </c>
+      <c r="P16">
+        <v>13.14424932064873</v>
+      </c>
+      <c r="Q16">
+        <v>15.57203882888457</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>28.86873083334148</v>
+        <v>21.15538263037615</v>
       </c>
       <c r="C17">
-        <v>15.36541367676514</v>
+        <v>13.85621602021897</v>
       </c>
       <c r="D17">
-        <v>8.427167945167083</v>
+        <v>8.140687931687024</v>
       </c>
       <c r="E17">
-        <v>7.153792030029879</v>
+        <v>8.252520909523902</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>60.49694094520169</v>
+        <v>25.10942005364798</v>
       </c>
       <c r="H17">
-        <v>16.94167106994795</v>
+        <v>5.974229057483911</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>2.728210068719598</v>
       </c>
       <c r="J17">
-        <v>5.365199412567089</v>
+        <v>9.409279624454998</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>14.44885867654624</v>
       </c>
       <c r="L17">
-        <v>8.175108145899992</v>
+        <v>6.357777261803014</v>
       </c>
       <c r="M17">
-        <v>17.22991493598886</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>13.92793219577881</v>
+        <v>6.528519931577168</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>12.66874762282782</v>
+      </c>
+      <c r="P17">
+        <v>13.11152490655932</v>
+      </c>
+      <c r="Q17">
+        <v>15.74119513261599</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>28.52745762178331</v>
+        <v>21.13358271619218</v>
       </c>
       <c r="C18">
-        <v>15.16420062626718</v>
+        <v>13.56389732893849</v>
       </c>
       <c r="D18">
-        <v>8.394946675471333</v>
+        <v>8.404898669919756</v>
       </c>
       <c r="E18">
-        <v>7.165681536087838</v>
+        <v>8.268096720375791</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>59.99326958246664</v>
+        <v>25.93440623088571</v>
       </c>
       <c r="H18">
-        <v>16.8658572538354</v>
+        <v>4.773079205838149</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2.734654736330506</v>
       </c>
       <c r="J18">
-        <v>5.351115848954271</v>
+        <v>9.571548654112354</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>14.76650723158811</v>
       </c>
       <c r="L18">
-        <v>8.143582522728467</v>
+        <v>6.179233263866887</v>
       </c>
       <c r="M18">
-        <v>17.08310721993405</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>13.99382327755671</v>
+        <v>6.848820011237146</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>12.95155451615472</v>
+      </c>
+      <c r="P18">
+        <v>13.03103194066925</v>
+      </c>
+      <c r="Q18">
+        <v>16.11822354583532</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.41143419528312</v>
+        <v>21.32584195340559</v>
       </c>
       <c r="C19">
-        <v>15.0956580657058</v>
+        <v>13.34106009403309</v>
       </c>
       <c r="D19">
-        <v>8.384122844662851</v>
+        <v>8.767746945572439</v>
       </c>
       <c r="E19">
-        <v>7.169729057033761</v>
+        <v>8.382753179518183</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>59.82323129925452</v>
+        <v>27.0554708589832</v>
       </c>
       <c r="H19">
-        <v>16.84043893668052</v>
+        <v>3.384521254545369</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>2.721883433039824</v>
       </c>
       <c r="J19">
-        <v>5.346349520684339</v>
+        <v>9.772559967872709</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>15.14249791183787</v>
       </c>
       <c r="L19">
-        <v>8.132977757421886</v>
+        <v>6.008706204445981</v>
       </c>
       <c r="M19">
-        <v>17.03336931355734</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>14.01617701577747</v>
+        <v>7.306075523369928</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>13.40975028926183</v>
+      </c>
+      <c r="P19">
+        <v>12.93226907710561</v>
+      </c>
+      <c r="Q19">
+        <v>16.60756930726802</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>28.93166775101685</v>
+        <v>22.13877713918489</v>
       </c>
       <c r="C20">
-        <v>15.40245745572268</v>
+        <v>13.26618489565187</v>
       </c>
       <c r="D20">
-        <v>8.433172294970495</v>
+        <v>9.393323119353779</v>
       </c>
       <c r="E20">
-        <v>7.151601963158055</v>
+        <v>8.746292324724113</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>60.59039544798141</v>
+        <v>29.04469779901455</v>
       </c>
       <c r="H20">
-        <v>16.95582251789567</v>
+        <v>2.023471782386511</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>2.619004249845806</v>
       </c>
       <c r="J20">
-        <v>5.367807077611309</v>
+        <v>10.09345803001968</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>15.70941981017616</v>
       </c>
       <c r="L20">
-        <v>8.180975858448683</v>
+        <v>5.863804086870184</v>
       </c>
       <c r="M20">
-        <v>17.25707051925552</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>13.91575802560682</v>
+        <v>8.099998997394767</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>14.33154280741335</v>
+      </c>
+      <c r="P20">
+        <v>12.7653641019808</v>
+      </c>
+      <c r="Q20">
+        <v>17.43552287576319</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>30.64676815232059</v>
+        <v>23.47229143694047</v>
       </c>
       <c r="C21">
-        <v>16.40501096304926</v>
+        <v>13.85523043948711</v>
       </c>
       <c r="D21">
-        <v>8.604056816071367</v>
+        <v>9.66610914066897</v>
       </c>
       <c r="E21">
-        <v>7.09221971032122</v>
+        <v>8.847412881802406</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>63.20295929730159</v>
+        <v>30.09376267270162</v>
       </c>
       <c r="H21">
-        <v>17.36146180575063</v>
+        <v>1.756333928192435</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>2.58348298581421</v>
       </c>
       <c r="J21">
-        <v>5.44011565248518</v>
+        <v>10.18838399140006</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>15.75722494972286</v>
       </c>
       <c r="L21">
-        <v>8.347142405884981</v>
+        <v>5.942845630460424</v>
       </c>
       <c r="M21">
-        <v>18.00632828649634</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>13.58132819735418</v>
+        <v>8.380345321484743</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>15.03883737201568</v>
+      </c>
+      <c r="P21">
+        <v>12.64664242549308</v>
+      </c>
+      <c r="Q21">
+        <v>17.78669337431401</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>31.75112712562087</v>
+        <v>24.31758070387054</v>
       </c>
       <c r="C22">
-        <v>17.03998515156449</v>
+        <v>14.21991925317383</v>
       </c>
       <c r="D22">
-        <v>8.720429997835188</v>
+        <v>9.819238823579708</v>
       </c>
       <c r="E22">
-        <v>7.054541083365383</v>
+        <v>8.894140962385013</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>64.93740900991429</v>
+        <v>30.73400261820536</v>
       </c>
       <c r="H22">
-        <v>17.64059905530355</v>
+        <v>1.597749108363798</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>2.693636025625032</v>
       </c>
       <c r="J22">
-        <v>5.487618382332355</v>
+        <v>10.24606246866554</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>15.78302882235643</v>
       </c>
       <c r="L22">
-        <v>8.459501546962317</v>
+        <v>5.999486230252379</v>
       </c>
       <c r="M22">
-        <v>18.49415514722401</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>13.36485039474266</v>
+        <v>8.521761225063118</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>15.45529434817073</v>
+      </c>
+      <c r="P22">
+        <v>12.57408649433113</v>
+      </c>
+      <c r="Q22">
+        <v>18.00189744577275</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.16037622883526</v>
+        <v>23.88095915992415</v>
       </c>
       <c r="C23">
-        <v>16.70288599803404</v>
+        <v>14.00684002844511</v>
       </c>
       <c r="D23">
-        <v>8.657879535891448</v>
+        <v>9.740028866737486</v>
       </c>
       <c r="E23">
-        <v>7.07454754025561</v>
+        <v>8.871702644552862</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>64.00915344051315</v>
+        <v>30.42879260038821</v>
       </c>
       <c r="H23">
-        <v>17.49029128854866</v>
+        <v>1.68115651184512</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>2.629691810728662</v>
       </c>
       <c r="J23">
-        <v>5.46223697003972</v>
+        <v>10.22176237812618</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>15.78527107584551</v>
       </c>
       <c r="L23">
-        <v>8.399181621408431</v>
+        <v>5.9692025252134</v>
       </c>
       <c r="M23">
-        <v>18.23396443931374</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>13.48020435209317</v>
+        <v>8.4430654512141</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>15.23699217099338</v>
+      </c>
+      <c r="P23">
+        <v>12.60964981128322</v>
+      </c>
+      <c r="Q23">
+        <v>17.90291615748691</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>28.90322303630993</v>
+        <v>22.16851805331942</v>
       </c>
       <c r="C24">
-        <v>15.38571770720792</v>
+        <v>13.20552709727536</v>
       </c>
       <c r="D24">
-        <v>8.430456206976544</v>
+        <v>9.434838340945809</v>
       </c>
       <c r="E24">
-        <v>7.152591678410905</v>
+        <v>8.781863579877307</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>60.5481363440133</v>
+        <v>29.21386501477051</v>
       </c>
       <c r="H24">
-        <v>16.94942015220541</v>
+        <v>2.005387184373105</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>2.598136170969662</v>
       </c>
       <c r="J24">
-        <v>5.366628126644416</v>
+        <v>10.12534036298353</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>15.77828277075475</v>
       </c>
       <c r="L24">
-        <v>8.178321846070316</v>
+        <v>5.852574289535304</v>
       </c>
       <c r="M24">
-        <v>17.24479427709466</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>13.92126108673465</v>
+        <v>8.14590670044873</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>14.37730238197084</v>
+      </c>
+      <c r="P24">
+        <v>12.75373552115973</v>
+      </c>
+      <c r="Q24">
+        <v>17.51150095064504</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.36344431997</v>
+        <v>20.16433506180853</v>
       </c>
       <c r="C25">
-        <v>13.87298402298102</v>
+        <v>12.2870938022208</v>
       </c>
       <c r="D25">
-        <v>8.204322779528129</v>
+        <v>9.1043390495423</v>
       </c>
       <c r="E25">
-        <v>7.24165799745034</v>
+        <v>8.682951554491979</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>56.92620035174401</v>
+        <v>27.90812733785351</v>
       </c>
       <c r="H25">
-        <v>16.42223581598204</v>
+        <v>2.370418251958298</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>2.872261789054127</v>
       </c>
       <c r="J25">
-        <v>5.264025095752008</v>
+        <v>10.03520524810719</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>15.79412644022497</v>
       </c>
       <c r="L25">
-        <v>7.955578146386443</v>
+        <v>5.721887003888413</v>
       </c>
       <c r="M25">
-        <v>16.17090244524443</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>14.40678624398257</v>
+        <v>7.816522378592998</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>13.39141988272301</v>
+      </c>
+      <c r="P25">
+        <v>12.91821731766313</v>
+      </c>
+      <c r="Q25">
+        <v>17.11112344783058</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_22/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_22/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.58774763331595</v>
+        <v>18.27252320391029</v>
       </c>
       <c r="C2">
-        <v>11.51052932100086</v>
+        <v>11.64113539627588</v>
       </c>
       <c r="D2">
-        <v>8.86780722082136</v>
+        <v>8.806769319700711</v>
       </c>
       <c r="E2">
-        <v>8.614674021403911</v>
+        <v>8.533708039506543</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>27.05486271994679</v>
+        <v>25.63759584708412</v>
       </c>
       <c r="H2">
-        <v>2.650423730756352</v>
+        <v>2.570090224036224</v>
       </c>
       <c r="I2">
-        <v>3.059730101537977</v>
+        <v>2.951194696124561</v>
       </c>
       <c r="J2">
-        <v>9.997292419679683</v>
+        <v>10.156639096977</v>
       </c>
       <c r="K2">
-        <v>15.86507160833476</v>
+        <v>15.30846876861449</v>
       </c>
       <c r="L2">
-        <v>5.621096484382026</v>
+        <v>12.67645796244926</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>9.974887052773767</v>
       </c>
       <c r="N2">
-        <v>7.558537509493343</v>
+        <v>5.603138430285863</v>
       </c>
       <c r="O2">
-        <v>12.62583573886797</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>13.04121353220286</v>
+        <v>7.718397016977947</v>
       </c>
       <c r="Q2">
-        <v>16.8774942277076</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>12.55467550853509</v>
+      </c>
+      <c r="R2">
+        <v>12.98465899693202</v>
+      </c>
+      <c r="S2">
+        <v>16.43908191038441</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.41023507126117</v>
+        <v>17.12867795980068</v>
       </c>
       <c r="C3">
-        <v>10.98737833398436</v>
+        <v>11.03148338625392</v>
       </c>
       <c r="D3">
-        <v>8.704726065101907</v>
+        <v>8.652140740804354</v>
       </c>
       <c r="E3">
-        <v>8.563487504510746</v>
+        <v>8.49299697751413</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>26.4304228359971</v>
+        <v>25.11620444934698</v>
       </c>
       <c r="H3">
-        <v>2.850584589563791</v>
+        <v>2.757231485387411</v>
       </c>
       <c r="I3">
-        <v>3.209860226671449</v>
+        <v>3.085360639687537</v>
       </c>
       <c r="J3">
-        <v>9.968682360629849</v>
+        <v>10.10684069354922</v>
       </c>
       <c r="K3">
-        <v>15.90048686331879</v>
+        <v>15.36935645569117</v>
       </c>
       <c r="L3">
-        <v>5.550114484108661</v>
+        <v>12.80437852464102</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>9.963305221680349</v>
       </c>
       <c r="N3">
-        <v>7.385560717506802</v>
+        <v>5.532723612914165</v>
       </c>
       <c r="O3">
-        <v>12.07575401609377</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>13.13272983344697</v>
+        <v>7.542639443085879</v>
       </c>
       <c r="Q3">
-        <v>16.70718579917529</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>12.00840084467134</v>
+      </c>
+      <c r="R3">
+        <v>13.05549020598523</v>
+      </c>
+      <c r="S3">
+        <v>16.29931063877135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.64343669036259</v>
+        <v>16.38279221436262</v>
       </c>
       <c r="C4">
-        <v>10.6542906158593</v>
+        <v>10.64241059454321</v>
       </c>
       <c r="D4">
-        <v>8.605168312883436</v>
+        <v>8.557855642362457</v>
       </c>
       <c r="E4">
-        <v>8.531277273048408</v>
+        <v>8.467327278407948</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>26.0505999927536</v>
+        <v>24.80195805973979</v>
       </c>
       <c r="H4">
-        <v>2.978063325885814</v>
+        <v>2.876468757915175</v>
       </c>
       <c r="I4">
-        <v>3.306271784448895</v>
+        <v>3.171846168333347</v>
       </c>
       <c r="J4">
-        <v>9.954075765076741</v>
+        <v>10.07712581412277</v>
       </c>
       <c r="K4">
-        <v>15.92655640817202</v>
+        <v>15.40986307207521</v>
       </c>
       <c r="L4">
-        <v>5.505114922989411</v>
+        <v>12.88411303752442</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>9.974703497206331</v>
       </c>
       <c r="N4">
-        <v>7.278184148376539</v>
+        <v>5.488156361980334</v>
       </c>
       <c r="O4">
-        <v>11.72539869905996</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>13.1912374815842</v>
+        <v>7.433848693084655</v>
       </c>
       <c r="Q4">
-        <v>16.60771933013606</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>11.66009175926149</v>
+      </c>
+      <c r="R4">
+        <v>13.10166124448565</v>
+      </c>
+      <c r="S4">
+        <v>16.21752975413213</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.31523789623056</v>
+        <v>16.06311366893397</v>
       </c>
       <c r="C5">
-        <v>10.52189141641258</v>
+        <v>10.48694821258625</v>
       </c>
       <c r="D5">
-        <v>8.564062223964473</v>
+        <v>8.518917619914566</v>
       </c>
       <c r="E5">
-        <v>8.517239399174141</v>
+        <v>8.456001426088193</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>25.88609033089736</v>
+        <v>24.66458432538491</v>
       </c>
       <c r="H5">
-        <v>3.031482171050241</v>
+        <v>2.926456826486239</v>
       </c>
       <c r="I5">
-        <v>3.349332110218976</v>
+        <v>3.21129350332781</v>
       </c>
       <c r="J5">
-        <v>9.947050989024522</v>
+        <v>10.0633964696858</v>
       </c>
       <c r="K5">
-        <v>15.93395388037923</v>
+        <v>15.42292957891618</v>
       </c>
       <c r="L5">
-        <v>5.486416430046146</v>
+        <v>12.91290831259959</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>9.981655320514813</v>
       </c>
       <c r="N5">
-        <v>7.235161412628132</v>
+        <v>5.469669403727831</v>
       </c>
       <c r="O5">
-        <v>11.57878581410469</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>13.21612745513152</v>
+        <v>7.390330207826542</v>
       </c>
       <c r="Q5">
-        <v>16.56396563681427</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>11.51422650288263</v>
+      </c>
+      <c r="R5">
+        <v>13.12169885536429</v>
+      </c>
+      <c r="S5">
+        <v>16.18070682501691</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.25426069046312</v>
+        <v>16.003505792635</v>
       </c>
       <c r="C6">
-        <v>10.50737002301926</v>
+        <v>10.4691026936986</v>
       </c>
       <c r="D6">
-        <v>8.556367528042978</v>
+        <v>8.511586095891987</v>
       </c>
       <c r="E6">
-        <v>8.514025575593484</v>
+        <v>8.453263723756281</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>25.84563016933117</v>
+        <v>24.6285438486392</v>
       </c>
       <c r="H6">
-        <v>3.040794297931026</v>
+        <v>2.935184979926103</v>
       </c>
       <c r="I6">
-        <v>3.360016177841738</v>
+        <v>3.221988081184749</v>
       </c>
       <c r="J6">
-        <v>9.94372058175764</v>
+        <v>10.05888195632061</v>
       </c>
       <c r="K6">
-        <v>15.93000790740722</v>
+        <v>15.42000964899379</v>
       </c>
       <c r="L6">
-        <v>5.483289035297548</v>
+        <v>12.91282657296227</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>9.980244256201496</v>
       </c>
       <c r="N6">
-        <v>7.229211320543549</v>
+        <v>5.466594612875367</v>
       </c>
       <c r="O6">
-        <v>11.55324042851271</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>13.22087734641118</v>
+        <v>7.384305727670977</v>
       </c>
       <c r="Q6">
-        <v>16.55126389940031</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>11.48879072189283</v>
+      </c>
+      <c r="R6">
+        <v>13.12575562075829</v>
+      </c>
+      <c r="S6">
+        <v>16.16913978453793</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.62352779319765</v>
+        <v>16.35717299334806</v>
       </c>
       <c r="C7">
-        <v>10.67307763289266</v>
+        <v>10.65472232413546</v>
       </c>
       <c r="D7">
-        <v>8.602226310221281</v>
+        <v>8.555665108318641</v>
       </c>
       <c r="E7">
-        <v>8.528733024172441</v>
+        <v>8.465143889911818</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>26.01256835177911</v>
+        <v>24.84674490596273</v>
       </c>
       <c r="H7">
-        <v>2.979774535630998</v>
+        <v>2.878692408835211</v>
       </c>
       <c r="I7">
-        <v>3.3160293503635</v>
+        <v>3.18368428764205</v>
       </c>
       <c r="J7">
-        <v>9.947963153954577</v>
+        <v>10.03180747975376</v>
       </c>
       <c r="K7">
-        <v>15.91236181429465</v>
+        <v>15.39078973748657</v>
       </c>
       <c r="L7">
-        <v>5.504873827758572</v>
+        <v>12.8665453262694</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>9.963665035703203</v>
       </c>
       <c r="N7">
-        <v>7.280880713602146</v>
+        <v>5.48755822775458</v>
       </c>
       <c r="O7">
-        <v>11.72067359798136</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>13.19322554012736</v>
+        <v>7.43565566393298</v>
       </c>
       <c r="Q7">
-        <v>16.59212379738426</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>11.65266472948569</v>
+      </c>
+      <c r="R7">
+        <v>13.10472495949658</v>
+      </c>
+      <c r="S7">
+        <v>16.19222233856413</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>18.17184813644666</v>
+        <v>17.85052727911008</v>
       </c>
       <c r="C8">
-        <v>11.35857581793229</v>
+        <v>11.43781868868558</v>
       </c>
       <c r="D8">
-        <v>8.808417211717206</v>
+        <v>8.752667018272103</v>
       </c>
       <c r="E8">
-        <v>8.59416410148935</v>
+        <v>8.51782854683518</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>26.79289537960813</v>
+        <v>25.67947020087743</v>
       </c>
       <c r="H8">
-        <v>2.719737227636534</v>
+        <v>2.636741707217563</v>
       </c>
       <c r="I8">
-        <v>3.122371703605586</v>
+        <v>3.012030024341917</v>
       </c>
       <c r="J8">
-        <v>9.978919636475679</v>
+        <v>10.00401060415258</v>
       </c>
       <c r="K8">
-        <v>15.8575390471918</v>
+        <v>15.29320568577472</v>
       </c>
       <c r="L8">
-        <v>5.596973885458999</v>
+        <v>12.68949941731209</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>9.943513170375169</v>
       </c>
       <c r="N8">
-        <v>7.503392548244009</v>
+        <v>5.577960089282878</v>
       </c>
       <c r="O8">
-        <v>12.43539332059845</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>13.07475619344631</v>
+        <v>7.659380548802888</v>
       </c>
       <c r="Q8">
-        <v>16.7981698677327</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>12.35708916391382</v>
+      </c>
+      <c r="R8">
+        <v>13.0145654244373</v>
+      </c>
+      <c r="S8">
+        <v>16.3384051995252</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.88413339786465</v>
+        <v>20.47879549235671</v>
       </c>
       <c r="C9">
-        <v>12.57123040227998</v>
+        <v>12.84409531457893</v>
       </c>
       <c r="D9">
-        <v>9.219664869956725</v>
+        <v>9.144010908076739</v>
       </c>
       <c r="E9">
-        <v>8.720459537680656</v>
+        <v>8.618904164286191</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>28.40585067242117</v>
+        <v>27.10897377263166</v>
       </c>
       <c r="H9">
-        <v>2.24382214673262</v>
+        <v>2.192339195257988</v>
       </c>
       <c r="I9">
-        <v>2.760730943073577</v>
+        <v>2.688140531415733</v>
       </c>
       <c r="J9">
-        <v>10.07427219725267</v>
+        <v>10.10710297423635</v>
       </c>
       <c r="K9">
-        <v>15.81113696322515</v>
+        <v>15.17146816032976</v>
       </c>
       <c r="L9">
-        <v>5.76641142854707</v>
+        <v>12.3903010756041</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>10.07910860313033</v>
       </c>
       <c r="N9">
-        <v>7.923067343341613</v>
+        <v>5.746064873837639</v>
       </c>
       <c r="O9">
-        <v>13.73543830800165</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>12.8576757901516</v>
+        <v>8.086823478289757</v>
       </c>
       <c r="Q9">
-        <v>17.26875282176168</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>13.64479214260633</v>
+      </c>
+      <c r="R9">
+        <v>12.85242522267214</v>
+      </c>
+      <c r="S9">
+        <v>16.7194872790576</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.61984203911474</v>
+        <v>22.14234634196487</v>
       </c>
       <c r="C10">
-        <v>13.43253073410242</v>
+        <v>13.79218643537479</v>
       </c>
       <c r="D10">
-        <v>9.467345680973024</v>
+        <v>9.382696148874583</v>
       </c>
       <c r="E10">
-        <v>8.766680258582621</v>
+        <v>8.651753999143555</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>29.41747808977906</v>
+        <v>28.44739440472467</v>
       </c>
       <c r="H10">
-        <v>1.94424667569516</v>
+        <v>1.917216977191995</v>
       </c>
       <c r="I10">
-        <v>2.525789793735803</v>
+        <v>2.499501711272528</v>
       </c>
       <c r="J10">
-        <v>10.12792956253986</v>
+        <v>9.946598630793888</v>
       </c>
       <c r="K10">
-        <v>15.73790210258771</v>
+        <v>15.01480957564288</v>
       </c>
       <c r="L10">
-        <v>5.896762396301112</v>
+        <v>12.11534986107665</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>10.19716695403368</v>
       </c>
       <c r="N10">
-        <v>8.154027650209409</v>
+        <v>5.874681777862793</v>
       </c>
       <c r="O10">
-        <v>14.55145621853242</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>12.72311398065895</v>
+        <v>8.318618102118815</v>
       </c>
       <c r="Q10">
-        <v>17.56089705907936</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>14.43855083754243</v>
+      </c>
+      <c r="R10">
+        <v>12.7685330743824</v>
+      </c>
+      <c r="S10">
+        <v>16.89387738578271</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.02229058133906</v>
+        <v>22.51768110113812</v>
       </c>
       <c r="C11">
-        <v>14.04724694701888</v>
+        <v>14.33843861005387</v>
       </c>
       <c r="D11">
-        <v>9.120650232770869</v>
+        <v>9.046767012640895</v>
       </c>
       <c r="E11">
-        <v>8.485426252321385</v>
+        <v>8.387865373250191</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>28.43523227589501</v>
+        <v>28.45410717164432</v>
       </c>
       <c r="H11">
-        <v>2.878951745600406</v>
+        <v>2.868135299326512</v>
       </c>
       <c r="I11">
-        <v>2.521801435614514</v>
+        <v>2.565049482503458</v>
       </c>
       <c r="J11">
-        <v>9.895216395336291</v>
+        <v>9.324779388052447</v>
       </c>
       <c r="K11">
-        <v>15.20703643673203</v>
+        <v>14.4665495193349</v>
       </c>
       <c r="L11">
-        <v>6.093447078351347</v>
+        <v>11.66285545771442</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>9.857856080711985</v>
       </c>
       <c r="N11">
-        <v>7.668075803667058</v>
+        <v>6.073869682540127</v>
       </c>
       <c r="O11">
-        <v>14.32940203009677</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>12.78619942085467</v>
+        <v>7.814065671174763</v>
       </c>
       <c r="Q11">
-        <v>17.06325798682266</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>14.19165424454731</v>
+      </c>
+      <c r="R11">
+        <v>12.87857379178821</v>
+      </c>
+      <c r="S11">
+        <v>16.3049326926956</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.02386399455257</v>
+        <v>22.52166648362067</v>
       </c>
       <c r="C12">
-        <v>14.36745236589647</v>
+        <v>14.60131279807344</v>
       </c>
       <c r="D12">
-        <v>8.77623957920461</v>
+        <v>8.710549725172999</v>
       </c>
       <c r="E12">
-        <v>8.333373216769074</v>
+        <v>8.249279000534527</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>27.41958928730742</v>
+        <v>27.93522013591834</v>
       </c>
       <c r="H12">
-        <v>4.22729810699241</v>
+        <v>4.221145059756562</v>
       </c>
       <c r="I12">
-        <v>2.53079575843041</v>
+        <v>2.571347446494843</v>
       </c>
       <c r="J12">
-        <v>9.691826191495498</v>
+        <v>8.989405002616948</v>
       </c>
       <c r="K12">
-        <v>14.79673379202316</v>
+        <v>14.08094441385874</v>
       </c>
       <c r="L12">
-        <v>6.272347841952873</v>
+        <v>11.38019320559014</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>9.569360450435125</v>
       </c>
       <c r="N12">
-        <v>7.21746172214605</v>
+        <v>6.254506450537396</v>
       </c>
       <c r="O12">
-        <v>13.96836156380351</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>12.87879071888095</v>
+        <v>7.350234752732391</v>
       </c>
       <c r="Q12">
-        <v>16.59257361177325</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>13.82254283429703</v>
+      </c>
+      <c r="R12">
+        <v>12.99463028966056</v>
+      </c>
+      <c r="S12">
+        <v>15.81791145958162</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>22.69947709280384</v>
+        <v>22.23402503034702</v>
       </c>
       <c r="C13">
-        <v>14.51402011632517</v>
+        <v>14.71280692730141</v>
       </c>
       <c r="D13">
-        <v>8.40641752532448</v>
+        <v>8.345852287632823</v>
       </c>
       <c r="E13">
-        <v>8.270417390720596</v>
+        <v>8.199753723929794</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>26.24734939024447</v>
+        <v>26.71712901163432</v>
       </c>
       <c r="H13">
-        <v>5.636989115395898</v>
+        <v>5.63079161445425</v>
       </c>
       <c r="I13">
-        <v>2.505325671882801</v>
+        <v>2.541185442348095</v>
       </c>
       <c r="J13">
-        <v>9.488853424228033</v>
+        <v>8.885793585428807</v>
       </c>
       <c r="K13">
-        <v>14.43401028389466</v>
+        <v>13.78575241449954</v>
       </c>
       <c r="L13">
-        <v>6.444395180157357</v>
+        <v>11.18991831620375</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>9.299893286607523</v>
       </c>
       <c r="N13">
-        <v>6.77103347150689</v>
+        <v>6.430185553467095</v>
       </c>
       <c r="O13">
-        <v>13.46628164600475</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>12.9980388629458</v>
+        <v>6.895484674600189</v>
       </c>
       <c r="Q13">
-        <v>16.08767957025788</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>13.33012347349017</v>
+      </c>
+      <c r="R13">
+        <v>13.11424880609946</v>
+      </c>
+      <c r="S13">
+        <v>15.37549067069716</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>22.31646811020351</v>
+        <v>21.89242285129195</v>
       </c>
       <c r="C14">
-        <v>14.54522667495307</v>
+        <v>14.72904790798432</v>
       </c>
       <c r="D14">
-        <v>8.13568750418006</v>
+        <v>8.077590896941844</v>
       </c>
       <c r="E14">
-        <v>8.279517933673516</v>
+        <v>8.219419065328037</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>25.34007915315321</v>
+        <v>25.54279062557999</v>
       </c>
       <c r="H14">
-        <v>6.640789998969534</v>
+        <v>6.633564650136346</v>
       </c>
       <c r="I14">
-        <v>2.550767301679827</v>
+        <v>2.515713079840122</v>
       </c>
       <c r="J14">
-        <v>9.345935551202519</v>
+        <v>8.902512557133955</v>
       </c>
       <c r="K14">
-        <v>14.20175893306335</v>
+        <v>13.61664848451812</v>
       </c>
       <c r="L14">
-        <v>6.564951111512849</v>
+        <v>11.09168070933589</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>9.121058801589381</v>
       </c>
       <c r="N14">
-        <v>6.466439990338728</v>
+        <v>6.554489565025763</v>
       </c>
       <c r="O14">
-        <v>13.0445989108913</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>13.0943365064779</v>
+        <v>6.586978745547912</v>
       </c>
       <c r="Q14">
-        <v>15.71474157441241</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>12.92288194973623</v>
+      </c>
+      <c r="R14">
+        <v>13.19940793557474</v>
+      </c>
+      <c r="S14">
+        <v>15.07940355801861</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22.14738827058019</v>
+        <v>21.73983749856696</v>
       </c>
       <c r="C15">
-        <v>14.52245290724784</v>
+        <v>14.70684056853376</v>
       </c>
       <c r="D15">
-        <v>8.064117547385997</v>
+        <v>8.006230688814018</v>
       </c>
       <c r="E15">
-        <v>8.287796435698136</v>
+        <v>8.231140288108357</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>25.07565963899703</v>
+        <v>25.11440684415859</v>
       </c>
       <c r="H15">
-        <v>6.87536099820896</v>
+        <v>6.867425038655099</v>
       </c>
       <c r="I15">
-        <v>2.576005626837611</v>
+        <v>2.538577064375522</v>
       </c>
       <c r="J15">
-        <v>9.309977106223085</v>
+        <v>8.944180669792736</v>
       </c>
       <c r="K15">
-        <v>14.15149158542827</v>
+        <v>13.58853075591462</v>
       </c>
       <c r="L15">
-        <v>6.587963434429637</v>
+        <v>11.08023211905619</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>9.079352060040502</v>
       </c>
       <c r="N15">
-        <v>6.392677722823267</v>
+        <v>6.579130274468831</v>
       </c>
       <c r="O15">
-        <v>12.91072312209506</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>13.12246285169138</v>
+        <v>6.513111383837409</v>
       </c>
       <c r="Q15">
-        <v>15.61313251242961</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>12.79579001748268</v>
+      </c>
+      <c r="R15">
+        <v>13.2201681017184</v>
+      </c>
+      <c r="S15">
+        <v>15.01047949126142</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>21.47142786456294</v>
+        <v>21.11464317230575</v>
       </c>
       <c r="C16">
-        <v>14.1578891994346</v>
+        <v>14.3711965982563</v>
       </c>
       <c r="D16">
-        <v>8.025261676561774</v>
+        <v>7.964623352916091</v>
       </c>
       <c r="E16">
-        <v>8.275099362457357</v>
+        <v>8.225248214693972</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>24.81484785882863</v>
+        <v>24.05223653176318</v>
       </c>
       <c r="H16">
-        <v>6.683458792796404</v>
+        <v>6.670405144329922</v>
       </c>
       <c r="I16">
-        <v>2.67531395712501</v>
+        <v>2.623602357903104</v>
       </c>
       <c r="J16">
-        <v>9.322965278025361</v>
+        <v>9.290173448565533</v>
       </c>
       <c r="K16">
-        <v>14.25120004351125</v>
+        <v>13.74367597161376</v>
       </c>
       <c r="L16">
-        <v>6.496196387516527</v>
+        <v>11.22327076492653</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>9.124797204629456</v>
       </c>
       <c r="N16">
-        <v>6.378846962702012</v>
+        <v>6.493181576073948</v>
       </c>
       <c r="O16">
-        <v>12.64336256979777</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>13.14424932064873</v>
+        <v>6.506770096618424</v>
       </c>
       <c r="Q16">
-        <v>15.57203882888457</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>12.55558083304176</v>
+      </c>
+      <c r="R16">
+        <v>13.20229692464545</v>
+      </c>
+      <c r="S16">
+        <v>15.08496834230061</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.15538263037615</v>
+        <v>20.81576151956216</v>
       </c>
       <c r="C17">
-        <v>13.85621602021897</v>
+        <v>14.08962665578659</v>
       </c>
       <c r="D17">
-        <v>8.140687931687024</v>
+        <v>8.077417742473699</v>
       </c>
       <c r="E17">
-        <v>8.252520909523902</v>
+        <v>8.200132481255782</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>25.10942005364798</v>
+        <v>23.99053907223186</v>
       </c>
       <c r="H17">
-        <v>5.974229057483911</v>
+        <v>5.956688900705668</v>
       </c>
       <c r="I17">
-        <v>2.728210068719598</v>
+        <v>2.669601142254275</v>
       </c>
       <c r="J17">
-        <v>9.409279624454998</v>
+        <v>9.515006042772821</v>
       </c>
       <c r="K17">
-        <v>14.44885867654624</v>
+        <v>13.94716160905201</v>
       </c>
       <c r="L17">
-        <v>6.357777261803014</v>
+        <v>11.38961572625762</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>9.245758615629011</v>
       </c>
       <c r="N17">
-        <v>6.528519931577168</v>
+        <v>6.355819381635558</v>
       </c>
       <c r="O17">
-        <v>12.66874762282782</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>13.11152490655932</v>
+        <v>6.663602879644371</v>
       </c>
       <c r="Q17">
-        <v>15.74119513261599</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>12.59079660624188</v>
+      </c>
+      <c r="R17">
+        <v>13.14960942396009</v>
+      </c>
+      <c r="S17">
+        <v>15.2896261798959</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.13358271619218</v>
+        <v>20.78527990979722</v>
       </c>
       <c r="C18">
-        <v>13.56389732893849</v>
+        <v>13.82459544925227</v>
       </c>
       <c r="D18">
-        <v>8.404898669919756</v>
+        <v>8.33715236311269</v>
       </c>
       <c r="E18">
-        <v>8.268096720375791</v>
+        <v>8.204595007506351</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>25.93440623088571</v>
+        <v>24.62744209809006</v>
       </c>
       <c r="H18">
-        <v>4.773079205838149</v>
+        <v>4.750038191270828</v>
       </c>
       <c r="I18">
-        <v>2.734654736330506</v>
+        <v>2.672244207785806</v>
       </c>
       <c r="J18">
-        <v>9.571548654112354</v>
+        <v>9.724291248065537</v>
       </c>
       <c r="K18">
-        <v>14.76650723158811</v>
+        <v>14.23862284131791</v>
       </c>
       <c r="L18">
-        <v>6.179233263866887</v>
+        <v>11.61471922028557</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>9.456775074901518</v>
       </c>
       <c r="N18">
-        <v>6.848820011237146</v>
+        <v>6.175034086508341</v>
       </c>
       <c r="O18">
-        <v>12.95155451615472</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>13.03103194066925</v>
+        <v>6.992755663312862</v>
       </c>
       <c r="Q18">
-        <v>16.11822354583532</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>12.87456572743731</v>
+      </c>
+      <c r="R18">
+        <v>13.05837863084796</v>
+      </c>
+      <c r="S18">
+        <v>15.65817973993092</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.32584195340559</v>
+        <v>20.95041914739826</v>
       </c>
       <c r="C19">
-        <v>13.34106009403309</v>
+        <v>13.63914713678295</v>
       </c>
       <c r="D19">
-        <v>8.767746945572439</v>
+        <v>8.693760592354726</v>
       </c>
       <c r="E19">
-        <v>8.382753179518183</v>
+        <v>8.301846131105016</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>27.0554708589832</v>
+        <v>25.63844921328381</v>
       </c>
       <c r="H19">
-        <v>3.384521254545369</v>
+        <v>3.353755674341894</v>
       </c>
       <c r="I19">
-        <v>2.721883433039824</v>
+        <v>2.662294860853629</v>
       </c>
       <c r="J19">
-        <v>9.772559967872709</v>
+        <v>9.923078672733221</v>
       </c>
       <c r="K19">
-        <v>15.14249791183787</v>
+        <v>14.56850346728049</v>
       </c>
       <c r="L19">
-        <v>6.008706204445981</v>
+        <v>11.86249299372408</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>9.713846770570282</v>
       </c>
       <c r="N19">
-        <v>7.306075523369928</v>
+        <v>5.999633681381214</v>
       </c>
       <c r="O19">
-        <v>13.40975028926183</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>12.93226907710561</v>
+        <v>7.460044048622376</v>
       </c>
       <c r="Q19">
-        <v>16.60756930726802</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>13.32854704065548</v>
+      </c>
+      <c r="R19">
+        <v>12.9544870986703</v>
+      </c>
+      <c r="S19">
+        <v>16.11267108855339</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>22.13877713918489</v>
+        <v>21.68965860463897</v>
       </c>
       <c r="C20">
-        <v>13.26618489565187</v>
+        <v>13.62898556443797</v>
       </c>
       <c r="D20">
-        <v>9.393323119353779</v>
+        <v>9.308529373754615</v>
       </c>
       <c r="E20">
-        <v>8.746292324724113</v>
+        <v>8.634045825976637</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>29.04469779901455</v>
+        <v>27.71726927654647</v>
       </c>
       <c r="H20">
-        <v>2.023471782386511</v>
+        <v>1.988311461846322</v>
       </c>
       <c r="I20">
-        <v>2.619004249845806</v>
+        <v>2.573136665198925</v>
       </c>
       <c r="J20">
-        <v>10.09345803001968</v>
+        <v>10.10058892124465</v>
       </c>
       <c r="K20">
-        <v>15.70941981017616</v>
+        <v>15.02928920884722</v>
       </c>
       <c r="L20">
-        <v>5.863804086870184</v>
+        <v>12.16807944133827</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>10.14042571274907</v>
       </c>
       <c r="N20">
-        <v>8.099998997394767</v>
+        <v>5.843687602785909</v>
       </c>
       <c r="O20">
-        <v>14.33154280741335</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>12.7653641019808</v>
+        <v>8.267192798191777</v>
       </c>
       <c r="Q20">
-        <v>17.43552287576319</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>14.23254737262772</v>
+      </c>
+      <c r="R20">
+        <v>12.79442586718977</v>
+      </c>
+      <c r="S20">
+        <v>16.83373714724926</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.47229143694047</v>
+        <v>22.90429595051349</v>
       </c>
       <c r="C21">
-        <v>13.85523043948711</v>
+        <v>14.17362752384123</v>
       </c>
       <c r="D21">
-        <v>9.66610914066897</v>
+        <v>9.586768214012395</v>
       </c>
       <c r="E21">
-        <v>8.847412881802406</v>
+        <v>8.728358566676715</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>30.09376267270162</v>
+        <v>30.4225203767731</v>
       </c>
       <c r="H21">
-        <v>1.756333928192435</v>
+        <v>1.748298625141544</v>
       </c>
       <c r="I21">
-        <v>2.58348298581421</v>
+        <v>2.619380816331598</v>
       </c>
       <c r="J21">
-        <v>10.18838399140006</v>
+        <v>9.374112095122713</v>
       </c>
       <c r="K21">
-        <v>15.75722494972286</v>
+        <v>14.90177324287457</v>
       </c>
       <c r="L21">
-        <v>5.942845630460424</v>
+        <v>11.95525496581114</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>10.24180563571812</v>
       </c>
       <c r="N21">
-        <v>8.380345321484743</v>
+        <v>5.913459496478031</v>
       </c>
       <c r="O21">
-        <v>15.03883737201568</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>12.64664242549308</v>
+        <v>8.535581286090732</v>
       </c>
       <c r="Q21">
-        <v>17.78669337431401</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>14.87982759699766</v>
+      </c>
+      <c r="R21">
+        <v>12.73741318832027</v>
+      </c>
+      <c r="S21">
+        <v>16.908705639494</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>24.31758070387054</v>
+        <v>23.65377412018936</v>
       </c>
       <c r="C22">
-        <v>14.21991925317383</v>
+        <v>14.49929580901212</v>
       </c>
       <c r="D22">
-        <v>9.819238823579708</v>
+        <v>9.745419702068554</v>
       </c>
       <c r="E22">
-        <v>8.894140962385013</v>
+        <v>8.773834382934451</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>30.73400261820536</v>
+        <v>32.25275640765034</v>
       </c>
       <c r="H22">
-        <v>1.597749108363798</v>
+        <v>1.606991800710089</v>
       </c>
       <c r="I22">
-        <v>2.693636025625032</v>
+        <v>2.710366500597587</v>
       </c>
       <c r="J22">
-        <v>10.24606246866554</v>
+        <v>8.898292748709018</v>
       </c>
       <c r="K22">
-        <v>15.78302882235643</v>
+        <v>14.80532136017464</v>
       </c>
       <c r="L22">
-        <v>5.999486230252379</v>
+        <v>11.80870312631658</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>10.30651231602728</v>
       </c>
       <c r="N22">
-        <v>8.521761225063118</v>
+        <v>5.964536594904244</v>
       </c>
       <c r="O22">
-        <v>15.45529434817073</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>12.57408649433113</v>
+        <v>8.66765416621401</v>
       </c>
       <c r="Q22">
-        <v>18.00189744577275</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>15.25521225838341</v>
+      </c>
+      <c r="R22">
+        <v>12.7091078140633</v>
+      </c>
+      <c r="S22">
+        <v>16.93154761976275</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.88095915992415</v>
+        <v>23.28155834514947</v>
       </c>
       <c r="C23">
-        <v>14.00684002844511</v>
+        <v>14.32151343486662</v>
       </c>
       <c r="D23">
-        <v>9.740028866737486</v>
+        <v>9.66127544624236</v>
       </c>
       <c r="E23">
-        <v>8.871702644552862</v>
+        <v>8.750697865426121</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>30.42879260038821</v>
+        <v>31.11411895585222</v>
       </c>
       <c r="H23">
-        <v>1.68115651184512</v>
+        <v>1.680253729473465</v>
       </c>
       <c r="I23">
-        <v>2.629691810728662</v>
+        <v>2.65594308462438</v>
       </c>
       <c r="J23">
-        <v>10.22176237812618</v>
+        <v>9.233552407496921</v>
       </c>
       <c r="K23">
-        <v>15.78527107584551</v>
+        <v>14.88568349819904</v>
       </c>
       <c r="L23">
-        <v>5.9692025252134</v>
+        <v>11.90612722560538</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>10.29594795360201</v>
       </c>
       <c r="N23">
-        <v>8.4430654512141</v>
+        <v>5.937955747768328</v>
       </c>
       <c r="O23">
-        <v>15.23699217099338</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>12.60964981128322</v>
+        <v>8.59596726061295</v>
       </c>
       <c r="Q23">
-        <v>17.90291615748691</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>15.06455513379585</v>
+      </c>
+      <c r="R23">
+        <v>12.71677983412044</v>
+      </c>
+      <c r="S23">
+        <v>16.95961866781109</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>22.16851805331942</v>
+        <v>21.7177142911287</v>
       </c>
       <c r="C24">
-        <v>13.20552709727536</v>
+        <v>13.57021004162371</v>
       </c>
       <c r="D24">
-        <v>9.434838340945809</v>
+        <v>9.349345580000993</v>
       </c>
       <c r="E24">
-        <v>8.781863579877307</v>
+        <v>8.667542359333167</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>29.21386501477051</v>
+        <v>27.86540055715924</v>
       </c>
       <c r="H24">
-        <v>2.005387184373105</v>
+        <v>1.970186403259586</v>
       </c>
       <c r="I24">
-        <v>2.598136170969662</v>
+        <v>2.548640366608127</v>
       </c>
       <c r="J24">
-        <v>10.12534036298353</v>
+        <v>10.13682227225828</v>
       </c>
       <c r="K24">
-        <v>15.77828277075475</v>
+        <v>15.09285955625085</v>
       </c>
       <c r="L24">
-        <v>5.852574289535304</v>
+        <v>12.21634414449247</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>10.18892842216193</v>
       </c>
       <c r="N24">
-        <v>8.14590670044873</v>
+        <v>5.831631038770195</v>
       </c>
       <c r="O24">
-        <v>14.37730238197084</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>12.75373552115973</v>
+        <v>8.314152954023072</v>
       </c>
       <c r="Q24">
-        <v>17.51150095064504</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>14.2782546771758</v>
+      </c>
+      <c r="R24">
+        <v>12.78051389473192</v>
+      </c>
+      <c r="S24">
+        <v>16.90742773900072</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>20.16433506180853</v>
+        <v>19.78807224011882</v>
       </c>
       <c r="C25">
-        <v>12.2870938022208</v>
+        <v>12.52170495973494</v>
       </c>
       <c r="D25">
-        <v>9.1043390495423</v>
+        <v>9.032971388936168</v>
       </c>
       <c r="E25">
-        <v>8.682951554491979</v>
+        <v>8.587827632845501</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>27.90812733785351</v>
+        <v>26.54646398301073</v>
       </c>
       <c r="H25">
-        <v>2.370418251958298</v>
+        <v>2.309823081779679</v>
       </c>
       <c r="I25">
-        <v>2.872261789054127</v>
+        <v>2.791999308347342</v>
       </c>
       <c r="J25">
-        <v>10.03520524810719</v>
+        <v>10.12174320611861</v>
       </c>
       <c r="K25">
-        <v>15.79412644022497</v>
+        <v>15.18429708419054</v>
       </c>
       <c r="L25">
-        <v>5.721887003888413</v>
+        <v>12.45693985584876</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>10.01366862550561</v>
       </c>
       <c r="N25">
-        <v>7.816522378592998</v>
+        <v>5.702470564429132</v>
       </c>
       <c r="O25">
-        <v>13.39141988272301</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>12.91821731766313</v>
+        <v>7.979202726465124</v>
       </c>
       <c r="Q25">
-        <v>17.11112344783058</v>
+        <v>13.30769210070437</v>
+      </c>
+      <c r="R25">
+        <v>12.89698240201122</v>
+      </c>
+      <c r="S25">
+        <v>16.60061553169813</v>
       </c>
     </row>
   </sheetData>
